--- a/whatif/whatif.xlsx
+++ b/whatif/whatif.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="137" windowWidth="31749" windowHeight="14743"/>
+    <workbookView xWindow="480" yWindow="138" windowWidth="23232" windowHeight="13152" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="622">
   <si>
     <t>Rates</t>
   </si>
@@ -3590,6 +3590,12 @@
   </si>
   <si>
     <t>Green (L) -Diff</t>
+  </si>
+  <si>
+    <t>December 2018 - December 2020</t>
+  </si>
+  <si>
+    <t>Mass Power Choice</t>
   </si>
 </sst>
 </file>
@@ -4981,7 +4987,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5354,6 +5360,49 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
     </xf>
@@ -5387,54 +5436,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5794,29 +5803,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.62890625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A1" s="217" t="str">
+      <c r="A1" s="198" t="str">
         <f>'What If'!A22</f>
         <v>Sudbury</v>
       </c>
-      <c r="B1" s="217" t="str">
+      <c r="B1" s="198" t="str">
         <f>'What If'!B22</f>
         <v>Summary</v>
       </c>
@@ -5828,7 +5837,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
         <f>'What If'!A23</f>
         <v>Basic (min) rate</v>
@@ -5858,7 +5867,7 @@
         <v>cents/kWh</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f>'What If'!A24</f>
         <v>Contract</v>
@@ -5870,45 +5879,45 @@
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="161"/>
-      <c r="B5" s="223" t="str">
+      <c r="B5" s="204" t="str">
         <f>'What If'!B26</f>
         <v xml:space="preserve"> kWh</v>
       </c>
-      <c r="C5" s="223" t="str">
+      <c r="C5" s="204" t="str">
         <f>'What If'!C26</f>
         <v>NG</v>
       </c>
-      <c r="D5" s="223" t="str">
+      <c r="D5" s="204" t="str">
         <f>'What If'!D26</f>
         <v>Basic</v>
       </c>
-      <c r="E5" s="223" t="str">
+      <c r="E5" s="204" t="str">
         <f>'What If'!E26</f>
         <v>Green</v>
       </c>
-      <c r="F5" s="223" t="str">
+      <c r="F5" s="204" t="str">
         <f>'What If'!F26</f>
         <v>Green (L)</v>
       </c>
-      <c r="G5" s="223" t="str">
+      <c r="G5" s="204" t="str">
         <f>'What If'!G26</f>
         <v>Basic-diff</v>
       </c>
-      <c r="H5" s="223" t="str">
+      <c r="H5" s="204" t="str">
         <f>'What If'!H26</f>
         <v>Green-diff</v>
       </c>
-      <c r="I5" s="223" t="str">
+      <c r="I5" s="204" t="str">
         <f>'What If'!I26</f>
         <v>Green (L) -Diff</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="222" t="str">
+    <row r="6" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="A6" s="203" t="str">
         <f>'What If'!A27</f>
         <v>House-1</v>
       </c>
-      <c r="B6" s="216">
+      <c r="B6" s="197">
         <f>'What If'!B27</f>
         <v>13103</v>
       </c>
@@ -5941,12 +5950,12 @@
         <v>-151.79681000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="222" t="str">
+    <row r="7" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="A7" s="203" t="str">
         <f>'What If'!A28</f>
         <v>House-2</v>
       </c>
-      <c r="B7" s="216">
+      <c r="B7" s="197">
         <f>'What If'!B28</f>
         <v>11355</v>
       </c>
@@ -5979,12 +5988,12 @@
         <v>-64.202020000000147</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="222" t="str">
+    <row r="8" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="A8" s="203" t="str">
         <f>'What If'!A29</f>
         <v>House-3</v>
       </c>
-      <c r="B8" s="216">
+      <c r="B8" s="197">
         <f>'What If'!B29</f>
         <v>15223</v>
       </c>
@@ -6017,12 +6026,12 @@
         <v>-133.05887000000016</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="222" t="str">
+    <row r="9" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="A9" s="203" t="str">
         <f>'What If'!A30</f>
         <v>House-4</v>
       </c>
-      <c r="B9" s="216">
+      <c r="B9" s="197">
         <f>'What If'!B30</f>
         <v>7582</v>
       </c>
@@ -6056,11 +6065,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A11" s="217" t="str">
+      <c r="A11" s="198" t="str">
         <f>'What If'!A54</f>
         <v>Carlisle</v>
       </c>
-      <c r="B11" s="217" t="str">
+      <c r="B11" s="198" t="str">
         <f>'What If'!B54</f>
         <v>Summary</v>
       </c>
@@ -6072,7 +6081,7 @@
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f>'What If'!A55</f>
         <v>Basic (min) rate</v>
@@ -6094,7 +6103,7 @@
         <v>cents/kWh</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f>'What If'!A56</f>
         <v xml:space="preserve">Contract </v>
@@ -6131,8 +6140,8 @@
         <v>Green-diff</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="222" t="str">
+    <row r="16" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="A16" s="203" t="str">
         <f>'What If'!A59</f>
         <v>House-1</v>
       </c>
@@ -6161,8 +6170,8 @@
         <v>129.0004799999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="222" t="str">
+    <row r="17" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="A17" s="203" t="str">
         <f>'What If'!A60</f>
         <v>House-2</v>
       </c>
@@ -6191,8 +6200,8 @@
         <v>179.13562999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="222" t="str">
+    <row r="18" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="A18" s="203" t="str">
         <f>'What If'!A61</f>
         <v>House-3</v>
       </c>
@@ -6221,8 +6230,8 @@
         <v>193.17001999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="222" t="str">
+    <row r="19" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="A19" s="203" t="str">
         <f>'What If'!A62</f>
         <v>House-4</v>
       </c>
@@ -6252,11 +6261,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A21" s="217" t="str">
+      <c r="A21" s="198" t="str">
         <f>'What If'!A87</f>
         <v>Cambridge (ES)</v>
       </c>
-      <c r="B21" s="217" t="str">
+      <c r="B21" s="198" t="str">
         <f>'What If'!B87</f>
         <v>Summary</v>
       </c>
@@ -6268,7 +6277,7 @@
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f>'What If'!A88</f>
         <v>Basic (min) rate</v>
@@ -6290,7 +6299,7 @@
         <v>cents/kWh</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
         <f>'What If'!A89</f>
         <v xml:space="preserve">Contract </v>
@@ -6300,7 +6309,7 @@
         <v>January 2019 – January 2021</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="161"/>
       <c r="B25" s="128" t="str">
         <f>'What If'!B91</f>
@@ -6327,8 +6336,8 @@
         <v>Green(L) Diff</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="222" t="str">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="203" t="str">
         <f>'What If'!A92</f>
         <v>House-1</v>
       </c>
@@ -6357,8 +6366,8 @@
         <v>3.3427100000000394</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="222" t="str">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="203" t="str">
         <f>'What If'!A93</f>
         <v>House-2</v>
       </c>
@@ -6387,8 +6396,8 @@
         <v>70.241180000000028</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="222" t="str">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="203" t="str">
         <f>'What If'!A94</f>
         <v>House-3</v>
       </c>
@@ -6417,8 +6426,8 @@
         <v>47.181449999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="222" t="str">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="203" t="str">
         <f>'What If'!A95</f>
         <v>House-4</v>
       </c>
@@ -6447,12 +6456,12 @@
         <v>21.416800000000016</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A31" s="217" t="str">
+    <row r="31" spans="1:9" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A31" s="198" t="str">
         <f>'What If'!A119</f>
         <v>Billerica</v>
       </c>
-      <c r="B31" s="217" t="str">
+      <c r="B31" s="198" t="str">
         <f>'What If'!B119</f>
         <v>Summary</v>
       </c>
@@ -6464,7 +6473,7 @@
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
         <f>'What If'!A121</f>
         <v>Standard</v>
@@ -6486,7 +6495,7 @@
         <v>cents/kWh</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
         <f>'What If'!A120</f>
         <v xml:space="preserve">Contract </v>
@@ -6496,7 +6505,7 @@
         <v>January 2018 – January 2019</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="161"/>
       <c r="B35" s="128" t="str">
         <f>'What If'!B123</f>
@@ -6523,32 +6532,32 @@
         <v>Green Diff</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="222" t="str">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="203" t="str">
         <f>'What If'!A124</f>
         <v>House-1</v>
       </c>
-      <c r="B36" s="215">
+      <c r="B36" s="196">
         <f>'What If'!B124</f>
         <v>13103</v>
       </c>
-      <c r="C36" s="215">
+      <c r="C36" s="196">
         <f>'What If'!C124</f>
         <v>1578.6408799999999</v>
       </c>
-      <c r="D36" s="215">
+      <c r="D36" s="196">
         <f>'What If'!D124</f>
         <v>1427.8033800000001</v>
       </c>
-      <c r="E36" s="215">
+      <c r="E36" s="196">
         <f>'What If'!E124</f>
         <v>1435.8413400000002</v>
       </c>
-      <c r="F36" s="215">
+      <c r="F36" s="196">
         <f>'What If'!F124</f>
         <v>150.83750000000003</v>
       </c>
-      <c r="G36" s="215">
+      <c r="G36" s="196">
         <f>'What If'!G124</f>
         <v>142.79954000000004</v>
       </c>
@@ -6557,92 +6566,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="222" t="str">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="203" t="str">
         <f>'What If'!A125</f>
         <v>House-2</v>
       </c>
-      <c r="B37" s="215">
+      <c r="B37" s="196">
         <f>'What If'!B125</f>
         <v>10695</v>
       </c>
-      <c r="C37" s="215">
+      <c r="C37" s="196">
         <f>'What If'!C125</f>
         <v>1435.98074</v>
       </c>
-      <c r="D37" s="215">
+      <c r="D37" s="196">
         <f>'What If'!D125</f>
         <v>1165.4266600000003</v>
       </c>
-      <c r="E37" s="215">
+      <c r="E37" s="196">
         <f>'What If'!E125</f>
         <v>1244.7959799999999</v>
       </c>
-      <c r="F37" s="215">
+      <c r="F37" s="196">
         <f>'What If'!F125</f>
         <v>198.05967999999999</v>
       </c>
-      <c r="G37" s="215">
+      <c r="G37" s="196">
         <f>'What If'!G125</f>
         <v>191.18475999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="222" t="str">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="203" t="str">
         <f>'What If'!A126</f>
         <v>House-3</v>
       </c>
-      <c r="B38" s="215">
+      <c r="B38" s="196">
         <f>'What If'!B126</f>
         <v>15223</v>
       </c>
-      <c r="C38" s="215">
+      <c r="C38" s="196">
         <f>'What If'!C126</f>
         <v>1882.36887</v>
       </c>
-      <c r="D38" s="215">
+      <c r="D38" s="196">
         <f>'What If'!D126</f>
         <v>1656.1846099999998</v>
       </c>
-      <c r="E38" s="215">
+      <c r="E38" s="196">
         <f>'What If'!E126</f>
         <v>1665.92543</v>
       </c>
-      <c r="F38" s="215">
+      <c r="F38" s="196">
         <f>'What If'!F126</f>
         <v>226.18425999999994</v>
       </c>
-      <c r="G38" s="215">
+      <c r="G38" s="196">
         <f>'What If'!G126</f>
         <v>216.44343999999987</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="222" t="str">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="203" t="str">
         <f>'What If'!A127</f>
         <v>House-4</v>
       </c>
-      <c r="B39" s="215">
+      <c r="B39" s="196">
         <f>'What If'!B127</f>
         <v>7582</v>
       </c>
-      <c r="C39" s="215">
+      <c r="C39" s="196">
         <f>'What If'!C127</f>
         <v>933.41476</v>
       </c>
-      <c r="D39" s="215">
+      <c r="D39" s="196">
         <f>'What If'!D127</f>
         <v>824.58550999999989</v>
       </c>
-      <c r="E39" s="215">
+      <c r="E39" s="196">
         <f>'What If'!E127</f>
         <v>829.48252999999988</v>
       </c>
-      <c r="F39" s="215">
+      <c r="F39" s="196">
         <f>'What If'!F127</f>
         <v>108.82924999999997</v>
       </c>
-      <c r="G39" s="215">
+      <c r="G39" s="196">
         <f>'What If'!G127</f>
         <v>103.93222999999995</v>
       </c>
@@ -6661,29 +6670,29 @@
       <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.3828125" customWidth="1"/>
-    <col min="2" max="2" width="12.921875" customWidth="1"/>
+    <col min="1" max="1" width="18.3671875" customWidth="1"/>
+    <col min="2" max="2" width="12.89453125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.07421875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4609375" customWidth="1"/>
-    <col min="10" max="11" width="10.07421875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="10.07421875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.89453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.05078125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.47265625" customWidth="1"/>
+    <col min="10" max="11" width="10.05078125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10.05078125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.47265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="11.07421875" customWidth="1"/>
-    <col min="24" max="24" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="29" max="34" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.05078125" customWidth="1"/>
+    <col min="24" max="24" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="11.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" ht="20.65" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="str">
         <f>'Compare '!A25</f>
         <v>Sudbury</v>
@@ -6700,7 +6709,7 @@
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A2" s="28" t="s">
         <v>213</v>
       </c>
@@ -6726,7 +6735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -6909,7 +6918,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A6" s="93">
         <v>43160</v>
       </c>
@@ -6958,7 +6967,7 @@
         <v>-2.9766000000000048</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A7" s="23">
         <v>43191</v>
       </c>
@@ -7090,7 +7099,7 @@
         <v>-1.7138000000000062</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A8" s="23">
         <v>43221</v>
       </c>
@@ -7222,7 +7231,7 @@
         <v>-8.3848800000000097</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A9" s="23">
         <v>43252</v>
       </c>
@@ -7354,7 +7363,7 @@
         <v>-13.997340000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A10" s="23">
         <v>43282</v>
       </c>
@@ -7486,7 +7495,7 @@
         <v>-14.741159999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A11" s="23">
         <v>43313</v>
       </c>
@@ -7618,7 +7627,7 @@
         <v>-17.693899999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A12" s="23">
         <v>43344</v>
       </c>
@@ -7750,7 +7759,7 @@
         <v>-19.90282000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A13" s="23">
         <v>43374</v>
       </c>
@@ -7882,7 +7891,7 @@
         <v>-11.878579999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A14" s="23">
         <v>43405</v>
       </c>
@@ -8015,7 +8024,7 @@
         <v>3.3976800000000082</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A15" s="23">
         <v>43435</v>
       </c>
@@ -8148,7 +8157,7 @@
         <v>2.726460000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>43466</v>
       </c>
@@ -8281,7 +8290,7 @@
         <v>3.6768599999999907</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>43497</v>
       </c>
@@ -8414,7 +8423,7 @@
         <v>4.0451400000000177</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>43525</v>
       </c>
@@ -8797,7 +8806,7 @@
         <v>-68.35408000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:34" ht="20.65" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="46" t="str">
         <f>'Compare '!A25</f>
         <v>Sudbury</v>
@@ -8816,7 +8825,7 @@
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -8842,7 +8851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>607</v>
       </c>
@@ -8878,7 +8887,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A27" s="58" t="s">
         <v>208</v>
       </c>
@@ -8898,7 +8907,7 @@
         <f>O20</f>
         <v>1408.44147</v>
       </c>
-      <c r="F27" s="219">
+      <c r="F27" s="200">
         <f>S20</f>
         <v>1719.6377200000002</v>
       </c>
@@ -8915,7 +8924,7 @@
         <v>-151.79681000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A28" s="58" t="s">
         <v>209</v>
       </c>
@@ -8935,7 +8944,7 @@
         <f>P20</f>
         <v>1149.60555</v>
       </c>
-      <c r="F28" s="220">
+      <c r="F28" s="201">
         <f>T20</f>
         <v>1490.2302</v>
       </c>
@@ -8952,7 +8961,7 @@
         <v>-64.202020000000147</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A29" s="58" t="s">
         <v>214</v>
       </c>
@@ -8972,11 +8981,11 @@
         <f>Q20</f>
         <v>1636.3202700000002</v>
       </c>
-      <c r="F29" s="221">
+      <c r="F29" s="202">
         <f>U20</f>
         <v>1997.86652</v>
       </c>
-      <c r="G29" s="218">
+      <c r="G29" s="199">
         <f>Y20</f>
         <v>247.51612999999983</v>
       </c>
@@ -8989,7 +8998,7 @@
         <v>-133.05887000000016</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A30" s="58" t="s">
         <v>600</v>
       </c>
@@ -9001,7 +9010,7 @@
         <f>J20</f>
         <v>926.70760000000007</v>
       </c>
-      <c r="D30" s="218">
+      <c r="D30" s="199">
         <f>N20</f>
         <v>805.51167999999984</v>
       </c>
@@ -9009,11 +9018,11 @@
         <f>R20</f>
         <v>814.98917999999992</v>
       </c>
-      <c r="F30" s="221">
+      <c r="F30" s="202">
         <f>V20</f>
         <v>995.06167999999991</v>
       </c>
-      <c r="G30" s="218">
+      <c r="G30" s="199">
         <f>Z20</f>
         <v>121.19591999999994</v>
       </c>
@@ -9026,7 +9035,7 @@
         <v>-68.35408000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A31" s="58"/>
       <c r="B31" s="148"/>
       <c r="D31" s="149"/>
@@ -9036,7 +9045,7 @@
       <c r="H31" s="149"/>
       <c r="I31" s="149"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A32" s="150"/>
       <c r="B32" s="150"/>
       <c r="C32" s="150"/>
@@ -9072,7 +9081,7 @@
       <c r="AG32" s="150"/>
       <c r="AH32" s="150"/>
     </row>
-    <row r="33" spans="1:26" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:26" ht="20.65" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="46" t="str">
         <f>'Compare '!A12</f>
         <v>Carlisle</v>
@@ -9091,7 +9100,7 @@
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>592</v>
       </c>
@@ -9110,7 +9119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -9237,7 +9246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A38" s="20">
         <v>43160</v>
       </c>
@@ -9272,7 +9281,7 @@
         <v>11.167200000000008</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A39" s="23">
         <v>43191</v>
       </c>
@@ -9372,7 +9381,7 @@
         <v>6.4296000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A40" s="23">
         <v>43221</v>
       </c>
@@ -9472,7 +9481,7 @@
         <v>-0.41291999999999973</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A41" s="23">
         <v>43252</v>
       </c>
@@ -9572,7 +9581,7 @@
         <v>-0.68931000000000608</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A42" s="23">
         <v>43282</v>
       </c>
@@ -9672,7 +9681,7 @@
         <v>-0.72593999999999426</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A43" s="23">
         <v>43313</v>
       </c>
@@ -9772,7 +9781,7 @@
         <v>-0.87134999999999252</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A44" s="23">
         <v>43344</v>
       </c>
@@ -9872,7 +9881,7 @@
         <v>-0.98013000000001682</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A45" s="23">
         <v>43374</v>
       </c>
@@ -9972,7 +9981,7 @@
         <v>-0.58496999999999844</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A46" s="23">
         <v>43405</v>
       </c>
@@ -10073,7 +10082,7 @@
         <v>15.655640000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A47" s="23">
         <v>43435</v>
       </c>
@@ -10174,7 +10183,7 @@
         <v>12.562830000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A48" s="23">
         <v>43466</v>
       </c>
@@ -10275,7 +10284,7 @@
         <v>16.942030000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A49" s="23">
         <v>43497</v>
       </c>
@@ -10376,7 +10385,7 @@
         <v>18.638970000000015</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A50" s="23">
         <v>43525</v>
       </c>
@@ -10558,7 +10567,7 @@
         <v>9.661609999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A52" s="121"/>
       <c r="B52" s="121"/>
       <c r="C52" s="141">
@@ -10658,7 +10667,7 @@
         <v>94.128180000000029</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:34" ht="20.65" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="46" t="str">
         <f>'Compare '!A12</f>
         <v>Carlisle</v>
@@ -10677,7 +10686,7 @@
       <c r="K54" s="47"/>
       <c r="L54" s="47"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -10702,7 +10711,7 @@
       <c r="K55" s="47"/>
       <c r="L55" s="47"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>187</v>
       </c>
@@ -10732,7 +10741,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A59" s="58" t="s">
         <v>208</v>
       </c>
@@ -10761,7 +10770,7 @@
         <v>129.0004799999997</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A60" s="58" t="s">
         <v>209</v>
       </c>
@@ -10790,7 +10799,7 @@
         <v>179.13562999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A61" s="58" t="s">
         <v>214</v>
       </c>
@@ -10819,7 +10828,7 @@
         <v>193.17001999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A62" s="58" t="s">
         <v>600</v>
       </c>
@@ -10848,7 +10857,7 @@
         <v>94.128180000000029</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A63" s="58"/>
       <c r="B63" s="116"/>
       <c r="C63" s="52"/>
@@ -10857,7 +10866,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A64" s="150"/>
       <c r="B64" s="150"/>
       <c r="C64" s="150"/>
@@ -10893,7 +10902,7 @@
       <c r="AG64" s="150"/>
       <c r="AH64" s="150"/>
     </row>
-    <row r="65" spans="1:26" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:26" ht="20.65" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="46" t="str">
         <f>'Compare '!A9</f>
         <v>Cambridge (ES)</v>
@@ -10910,7 +10919,7 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>598</v>
       </c>
@@ -10926,7 +10935,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>607</v>
       </c>
@@ -10935,7 +10944,7 @@
         <v xml:space="preserve"> January 2019 – January 2021</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="B69" s="5"/>
       <c r="K69" s="157" t="str">
         <f>'Compare '!B9</f>
@@ -11047,7 +11056,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A71" s="23">
         <v>43160</v>
       </c>
@@ -11091,7 +11100,7 @@
       <c r="Y71" s="45"/>
       <c r="Z71" s="36"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A72" s="23">
         <v>43191</v>
       </c>
@@ -11191,7 +11200,7 @@
         <v>2.7853999999999957</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A73" s="23">
         <v>43221</v>
       </c>
@@ -11291,7 +11300,7 @@
         <v>-3.9803999999999959</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A74" s="23">
         <v>43252</v>
       </c>
@@ -11391,7 +11400,7 @@
         <v>-6.6447000000000145</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A75" s="23">
         <v>43282</v>
       </c>
@@ -11491,7 +11500,7 @@
         <v>-6.997799999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A76" s="23">
         <v>43313</v>
       </c>
@@ -11591,7 +11600,7 @@
         <v>-8.3995000000000033</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A77" s="23">
         <v>43344</v>
       </c>
@@ -11691,7 +11700,7 @@
         <v>-9.4481000000000108</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A78" s="23">
         <v>43374</v>
       </c>
@@ -11791,7 +11800,7 @@
         <v>-5.6388999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A79" s="23">
         <v>43405</v>
       </c>
@@ -11892,7 +11901,7 @@
         <v>10.17016000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A80" s="23">
         <v>43435</v>
       </c>
@@ -11993,7 +12002,7 @@
         <v>8.1610200000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A81" s="23">
         <v>43466</v>
       </c>
@@ -12094,7 +12103,7 @@
         <v>11.00582</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A82" s="23">
         <v>43497</v>
       </c>
@@ -12195,7 +12204,7 @@
         <v>12.108180000000019</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A83" s="23">
         <v>43525</v>
       </c>
@@ -12392,7 +12401,7 @@
         <v>6.2763400000000047</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A85" s="121"/>
       <c r="B85" s="121"/>
       <c r="C85" s="141">
@@ -12492,7 +12501,7 @@
         <v>21.416800000000016</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A86" s="45"/>
       <c r="B86" s="45"/>
       <c r="C86" s="176"/>
@@ -12520,7 +12529,7 @@
       <c r="Y86" s="174"/>
       <c r="Z86" s="174"/>
     </row>
-    <row r="87" spans="1:26" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:26" ht="20.65" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="180" t="str">
         <f>'Compare '!A9</f>
         <v>Cambridge (ES)</v>
@@ -12553,7 +12562,7 @@
       <c r="Y87" s="174"/>
       <c r="Z87" s="174"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>213</v>
       </c>
@@ -12593,7 +12602,7 @@
       <c r="Y88" s="174"/>
       <c r="Z88" s="174"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -12624,7 +12633,7 @@
       <c r="Y89" s="174"/>
       <c r="Z89" s="174"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="D90" s="176"/>
       <c r="E90" s="176"/>
       <c r="F90" s="176"/>
@@ -12691,7 +12700,7 @@
       <c r="Y91" s="174"/>
       <c r="Z91" s="174"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A92" s="58" t="s">
         <v>208</v>
       </c>
@@ -12739,7 +12748,7 @@
       <c r="Y92" s="174"/>
       <c r="Z92" s="174"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A93" s="58" t="s">
         <v>209</v>
       </c>
@@ -12787,7 +12796,7 @@
       <c r="Y93" s="174"/>
       <c r="Z93" s="174"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A94" s="58" t="s">
         <v>214</v>
       </c>
@@ -12835,7 +12844,7 @@
       <c r="Y94" s="174"/>
       <c r="Z94" s="174"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A95" s="58" t="s">
         <v>600</v>
       </c>
@@ -12883,7 +12892,7 @@
       <c r="Y95" s="174"/>
       <c r="Z95" s="174"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:26" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A96" s="45"/>
       <c r="B96" s="176"/>
       <c r="C96" s="176"/>
@@ -12911,7 +12920,7 @@
       <c r="Y96" s="174"/>
       <c r="Z96" s="174"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:34" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A98" s="150"/>
       <c r="B98" s="150"/>
       <c r="C98" s="150"/>
@@ -12964,7 +12973,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>213</v>
       </c>
@@ -12983,7 +12992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -12992,7 +13001,7 @@
         <v xml:space="preserve"> January 2019 – January 2021</v>
       </c>
     </row>
-    <row r="102" spans="1:34" s="92" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:34" s="92" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B102" s="122"/>
       <c r="C102" s="123" t="s">
         <v>208</v>
@@ -13073,7 +13082,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="23">
         <v>43160</v>
       </c>
@@ -13118,7 +13127,7 @@
         <v>10.830600000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="23">
         <v>43191</v>
       </c>
@@ -13227,7 +13236,7 @@
         <v>6.2357999999999976</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="23">
         <v>43221</v>
       </c>
@@ -13336,7 +13345,7 @@
         <v>6.1045199999999937</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="23">
         <v>43252</v>
       </c>
@@ -13444,7 +13453,7 @@
         <v>-1.0060200000000066</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="23">
         <v>43282</v>
       </c>
@@ -13552,7 +13561,7 @@
         <v>-1.0594800000000077</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="23">
         <v>43313</v>
       </c>
@@ -13661,7 +13670,7 @@
         <v>-1.2717000000000098</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="23">
         <v>43344</v>
       </c>
@@ -13770,7 +13779,7 @@
         <v>-1.4304600000000107</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="23">
         <v>43374</v>
       </c>
@@ -13879,7 +13888,7 @@
         <v>-0.85373999999999484</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="23">
         <v>43405</v>
       </c>
@@ -13988,7 +13997,7 @@
         <v>15.36392</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="23">
         <v>43435</v>
       </c>
@@ -14097,7 +14106,7 @@
         <v>12.328740000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="23">
         <v>43466</v>
       </c>
@@ -14206,7 +14215,7 @@
         <v>18.47714999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="23">
         <v>43497</v>
       </c>
@@ -14315,7 +14324,7 @@
         <v>20.327849999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="23">
         <v>43525</v>
       </c>
@@ -14424,7 +14433,7 @@
         <v>20.178600000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A116" s="83">
         <v>43556</v>
       </c>
@@ -14517,7 +14526,7 @@
         <v>10.537050000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A117" s="88"/>
       <c r="B117" s="88"/>
       <c r="C117" s="89">
@@ -14619,7 +14628,7 @@
         <v>103.93222999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="A119" s="46" t="str">
         <f>'Compare '!A38</f>
         <v>Billerica</v>
@@ -14638,7 +14647,7 @@
       <c r="K119" s="181"/>
       <c r="L119" s="181"/>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -14647,7 +14656,7 @@
         <v>January 2018 – January 2019</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="str">
         <f>'Compare '!B38</f>
         <v>Standard</v>
@@ -14668,7 +14677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A123" s="15"/>
       <c r="B123" s="127" t="s">
         <v>590</v>
@@ -14690,7 +14699,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="58" t="s">
         <v>208</v>
       </c>
@@ -14719,7 +14728,7 @@
         <v>142.79954000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="58" t="s">
         <v>209</v>
       </c>
@@ -14748,7 +14757,7 @@
         <v>191.18475999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="58" t="s">
         <v>214</v>
       </c>
@@ -14777,7 +14786,7 @@
         <v>216.44343999999987</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="58" t="s">
         <v>600</v>
       </c>
@@ -14820,21 +14829,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.23046875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.69140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.20703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.89453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.68359375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.68359375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
@@ -14866,7 +14875,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -14886,7 +14895,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -14897,7 +14906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -14908,7 +14917,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -14928,7 +14937,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -14939,7 +14948,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -14959,7 +14968,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -14970,7 +14979,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>196</v>
       </c>
@@ -14990,7 +14999,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>177</v>
       </c>
@@ -15001,7 +15010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -15012,7 +15021,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -15032,7 +15041,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -15043,7 +15052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -15054,7 +15063,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -15064,14 +15073,17 @@
       <c r="C15">
         <v>11.494</v>
       </c>
+      <c r="E15" s="224" t="s">
+        <v>621</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="12">
-        <v>44166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H15" s="12" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -15082,7 +15094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -15093,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -15104,7 +15116,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -15124,7 +15136,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>177</v>
       </c>
@@ -15135,7 +15147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -15146,7 +15158,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>192</v>
       </c>
@@ -15163,7 +15175,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>1</v>
@@ -15175,7 +15187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -15186,7 +15198,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -15203,7 +15215,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>1</v>
@@ -15215,7 +15227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>177</v>
@@ -15227,7 +15239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -15238,7 +15250,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -15249,7 +15261,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -15260,7 +15272,7 @@
       <c r="H30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -15277,7 +15289,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>17</v>
       </c>
@@ -15288,7 +15300,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -15299,7 +15311,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>118</v>
       </c>
@@ -15319,7 +15331,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>1</v>
       </c>
@@ -15333,7 +15345,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -15344,7 +15356,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -15365,7 +15377,7 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -15380,7 +15392,7 @@
       </c>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>5</v>
@@ -15398,7 +15410,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -15412,7 +15424,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -15423,7 +15435,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
@@ -15431,7 +15443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -15439,7 +15451,7 @@
         <v>12.294</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>206</v>
       </c>
@@ -15464,9 +15476,10 @@
     <hyperlink ref="A34" r:id="rId13"/>
     <hyperlink ref="B34" r:id="rId14"/>
     <hyperlink ref="A38" r:id="rId15"/>
+    <hyperlink ref="E15" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -15478,15 +15491,15 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="39.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="15.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.47265625" customWidth="1"/>
+    <col min="4" max="4" width="15.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A1" s="64" t="s">
         <v>25</v>
       </c>
@@ -15495,7 +15508,7 @@
       </c>
       <c r="C1" s="65"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -15510,7 +15523,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -15525,7 +15538,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -15540,7 +15553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -15555,7 +15568,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -15570,7 +15583,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -15585,7 +15598,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -15600,7 +15613,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -15615,7 +15628,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -15630,7 +15643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -15645,7 +15658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A12" s="67" t="s">
         <v>39</v>
       </c>
@@ -15660,7 +15673,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -15675,7 +15688,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A14" s="67" t="s">
         <v>19</v>
       </c>
@@ -15690,7 +15703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
@@ -15705,7 +15718,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -15722,7 +15735,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -15737,7 +15750,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
@@ -15752,7 +15765,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
@@ -15767,7 +15780,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
@@ -15782,7 +15795,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -15797,7 +15810,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
@@ -15812,7 +15825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="14.65" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -15827,7 +15840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -15842,7 +15855,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
@@ -15857,7 +15870,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -15872,7 +15885,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
@@ -15887,7 +15900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -15904,7 +15917,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
@@ -15919,7 +15932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -15934,7 +15947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
@@ -15949,7 +15962,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>60</v>
       </c>
@@ -15964,7 +15977,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
@@ -15979,7 +15992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -15994,7 +16007,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>63</v>
       </c>
@@ -16009,7 +16022,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
         <v>64</v>
       </c>
@@ -16024,7 +16037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
         <v>65</v>
       </c>
@@ -16039,7 +16052,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>66</v>
       </c>
@@ -16054,7 +16067,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
         <v>67</v>
       </c>
@@ -16069,7 +16082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="67" t="s">
         <v>68</v>
       </c>
@@ -16084,7 +16097,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
         <v>69</v>
       </c>
@@ -16099,7 +16112,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
         <v>70</v>
       </c>
@@ -16111,7 +16124,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
         <v>71</v>
       </c>
@@ -16123,7 +16136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
         <v>72</v>
       </c>
@@ -16135,7 +16148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
@@ -16147,7 +16160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
         <v>74</v>
       </c>
@@ -16159,7 +16172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
         <v>75</v>
       </c>
@@ -16171,7 +16184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
         <v>35</v>
       </c>
@@ -16183,7 +16196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
@@ -16195,7 +16208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
         <v>77</v>
       </c>
@@ -16207,7 +16220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4" t="s">
         <v>78</v>
       </c>
@@ -16219,7 +16232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4" t="s">
         <v>79</v>
       </c>
@@ -16231,7 +16244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4" t="s">
         <v>80</v>
       </c>
@@ -16243,7 +16256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
         <v>81</v>
       </c>
@@ -16255,7 +16268,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="67" t="s">
         <v>82</v>
       </c>
@@ -16267,7 +16280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
         <v>83</v>
       </c>
@@ -16279,7 +16292,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
         <v>84</v>
       </c>
@@ -16293,7 +16306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
         <v>85</v>
       </c>
@@ -16305,7 +16318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4" t="s">
         <v>86</v>
       </c>
@@ -16317,7 +16330,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
         <v>87</v>
       </c>
@@ -16331,7 +16344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4" t="s">
         <v>88</v>
       </c>
@@ -16343,7 +16356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>89</v>
       </c>
@@ -16355,7 +16368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4" t="s">
         <v>90</v>
       </c>
@@ -16367,7 +16380,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
         <v>91</v>
       </c>
@@ -16379,7 +16392,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4" t="s">
         <v>92</v>
       </c>
@@ -16391,7 +16404,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
         <v>94</v>
       </c>
@@ -16403,7 +16416,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4" t="s">
         <v>95</v>
       </c>
@@ -16415,7 +16428,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
         <v>20</v>
       </c>
@@ -16427,7 +16440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
         <v>96</v>
       </c>
@@ -16439,7 +16452,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>97</v>
       </c>
@@ -16451,7 +16464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
         <v>98</v>
       </c>
@@ -16463,7 +16476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
         <v>99</v>
       </c>
@@ -16477,7 +16490,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4" t="s">
         <v>100</v>
       </c>
@@ -16489,7 +16502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
         <v>101</v>
       </c>
@@ -16501,7 +16514,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>103</v>
       </c>
@@ -16513,7 +16526,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
         <v>104</v>
       </c>
@@ -16527,7 +16540,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4" t="s">
         <v>105</v>
       </c>
@@ -16539,7 +16552,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4" t="s">
         <v>106</v>
       </c>
@@ -16553,7 +16566,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4" t="s">
         <v>107</v>
       </c>
@@ -16565,7 +16578,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="67" t="s">
         <v>108</v>
       </c>
@@ -16577,7 +16590,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4" t="s">
         <v>109</v>
       </c>
@@ -16589,7 +16602,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4" t="s">
         <v>110</v>
       </c>
@@ -16601,7 +16614,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4" t="s">
         <v>111</v>
       </c>
@@ -16613,7 +16626,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
         <v>21</v>
       </c>
@@ -16625,7 +16638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4" t="s">
         <v>112</v>
       </c>
@@ -16637,7 +16650,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
         <v>113</v>
       </c>
@@ -16649,7 +16662,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4" t="s">
         <v>114</v>
       </c>
@@ -16661,7 +16674,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="67" t="s">
         <v>22</v>
       </c>
@@ -16675,7 +16688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="67" t="s">
         <v>116</v>
       </c>
@@ -16687,7 +16700,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4" t="s">
         <v>117</v>
       </c>
@@ -16699,7 +16712,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="67" t="s">
         <v>118</v>
       </c>
@@ -16711,7 +16724,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4" t="s">
         <v>120</v>
       </c>
@@ -16723,7 +16736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4" t="s">
         <v>121</v>
       </c>
@@ -16735,7 +16748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4" t="s">
         <v>122</v>
       </c>
@@ -16747,7 +16760,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
         <v>123</v>
       </c>
@@ -16759,7 +16772,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="4" t="s">
         <v>124</v>
       </c>
@@ -16771,7 +16784,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="4" t="s">
         <v>125</v>
       </c>
@@ -16783,7 +16796,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4" t="s">
         <v>126</v>
       </c>
@@ -16795,7 +16808,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4" t="s">
         <v>127</v>
       </c>
@@ -16807,7 +16820,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4" t="s">
         <v>129</v>
       </c>
@@ -16819,7 +16832,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4" t="s">
         <v>130</v>
       </c>
@@ -16831,7 +16844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4" t="s">
         <v>28</v>
       </c>
@@ -16843,7 +16856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4" t="s">
         <v>131</v>
       </c>
@@ -16855,7 +16868,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4" t="s">
         <v>132</v>
       </c>
@@ -16867,7 +16880,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4" t="s">
         <v>133</v>
       </c>
@@ -16879,7 +16892,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="67" t="s">
         <v>134</v>
       </c>
@@ -16891,7 +16904,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="4" t="s">
         <v>135</v>
       </c>
@@ -16905,7 +16918,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="67" t="s">
         <v>136</v>
       </c>
@@ -16919,7 +16932,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="4" t="s">
         <v>137</v>
       </c>
@@ -16931,7 +16944,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4" t="s">
         <v>138</v>
       </c>
@@ -16943,7 +16956,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4" t="s">
         <v>140</v>
       </c>
@@ -16955,7 +16968,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4" t="s">
         <v>141</v>
       </c>
@@ -16967,7 +16980,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="4" t="s">
         <v>142</v>
       </c>
@@ -16981,7 +16994,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4" t="s">
         <v>143</v>
       </c>
@@ -16993,7 +17006,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4" t="s">
         <v>144</v>
       </c>
@@ -17005,7 +17018,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4" t="s">
         <v>145</v>
       </c>
@@ -17019,7 +17032,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="67" t="s">
         <v>146</v>
       </c>
@@ -17031,7 +17044,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="4" t="s">
         <v>147</v>
       </c>
@@ -17043,7 +17056,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="4" t="s">
         <v>23</v>
       </c>
@@ -17055,7 +17068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="4" t="s">
         <v>148</v>
       </c>
@@ -17067,7 +17080,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4" t="s">
         <v>149</v>
       </c>
@@ -17081,7 +17094,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4" t="s">
         <v>150</v>
       </c>
@@ -17093,7 +17106,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="4" t="s">
         <v>151</v>
       </c>
@@ -17105,7 +17118,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4" t="s">
         <v>152</v>
       </c>
@@ -17117,7 +17130,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4" t="s">
         <v>154</v>
       </c>
@@ -17129,7 +17142,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4" t="s">
         <v>155</v>
       </c>
@@ -17143,7 +17156,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
         <v>156</v>
       </c>
@@ -17155,7 +17168,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4" t="s">
         <v>157</v>
       </c>
@@ -17167,7 +17180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4" t="s">
         <v>158</v>
       </c>
@@ -17179,7 +17192,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="67" t="s">
         <v>159</v>
       </c>
@@ -17191,7 +17204,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="67" t="s">
         <v>160</v>
       </c>
@@ -17203,7 +17216,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4" t="s">
         <v>161</v>
       </c>
@@ -17215,7 +17228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4" t="s">
         <v>162</v>
       </c>
@@ -17227,7 +17240,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4" t="s">
         <v>164</v>
       </c>
@@ -17239,7 +17252,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4" t="s">
         <v>165</v>
       </c>
@@ -17251,7 +17264,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4" t="s">
         <v>166</v>
       </c>
@@ -17263,7 +17276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4" t="s">
         <v>167</v>
       </c>
@@ -17275,7 +17288,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4" t="s">
         <v>168</v>
       </c>
@@ -17287,7 +17300,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4" t="s">
         <v>169</v>
       </c>
@@ -17301,7 +17314,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4" t="s">
         <v>170</v>
       </c>
@@ -17313,7 +17326,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="4" t="s">
         <v>171</v>
       </c>
@@ -17325,7 +17338,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="4" t="s">
         <v>172</v>
       </c>
@@ -17337,7 +17350,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4" t="s">
         <v>173</v>
       </c>
@@ -17349,7 +17362,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4" t="s">
         <v>174</v>
       </c>
@@ -17361,7 +17374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="4" t="s">
         <v>24</v>
       </c>
@@ -17373,7 +17386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
         <v>175</v>
       </c>
@@ -17536,40 +17549,40 @@
       <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="12.6" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.53515625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="23.69140625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="26.53515625" style="69" customWidth="1"/>
-    <col min="4" max="4" width="22.53515625" style="69" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="69"/>
+    <col min="1" max="1" width="22.5234375" style="69" customWidth="1"/>
+    <col min="2" max="2" width="23.68359375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="26.5234375" style="69" customWidth="1"/>
+    <col min="4" max="4" width="22.5234375" style="69" customWidth="1"/>
+    <col min="5" max="16384" width="9.20703125" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="211" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
     </row>
     <row r="2" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="214" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
     </row>
     <row r="3" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="217" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="204" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="205"/>
+      <c r="D3" s="220"/>
     </row>
     <row r="4" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="70" t="s">
@@ -17585,11 +17598,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="206" t="s">
+    <row r="5" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="221" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="209">
+      <c r="B5" s="208">
         <v>13.718</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -17599,9 +17612,9 @@
         <v>11.631</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="207"/>
-      <c r="B6" s="210"/>
+    <row r="6" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="223"/>
+      <c r="B6" s="209"/>
       <c r="C6" s="74" t="s">
         <v>368</v>
       </c>
@@ -17609,9 +17622,9 @@
         <v>12.657999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="207"/>
-      <c r="B7" s="210"/>
+    <row r="7" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="223"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="74" t="s">
         <v>369</v>
       </c>
@@ -17619,9 +17632,9 @@
         <v>15.994999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="207"/>
-      <c r="B8" s="210"/>
+    <row r="8" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="223"/>
+      <c r="B8" s="209"/>
       <c r="C8" s="74" t="s">
         <v>370</v>
       </c>
@@ -17629,9 +17642,9 @@
         <v>15.802</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="207"/>
-      <c r="B9" s="210"/>
+    <row r="9" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="223"/>
+      <c r="B9" s="209"/>
       <c r="C9" s="74" t="s">
         <v>371</v>
       </c>
@@ -17639,9 +17652,9 @@
         <v>13.255000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="208"/>
-      <c r="B10" s="211"/>
+    <row r="10" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="222"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="74" t="s">
         <v>372</v>
       </c>
@@ -17649,11 +17662,11 @@
         <v>11.599</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="206" t="s">
+    <row r="11" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="221" t="s">
         <v>373</v>
       </c>
-      <c r="B11" s="209">
+      <c r="B11" s="208">
         <v>10.87</v>
       </c>
       <c r="C11" s="74" t="s">
@@ -17663,9 +17676,9 @@
         <v>11.635999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="207"/>
-      <c r="B12" s="210"/>
+    <row r="12" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="223"/>
+      <c r="B12" s="209"/>
       <c r="C12" s="74" t="s">
         <v>375</v>
       </c>
@@ -17673,9 +17686,9 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="207"/>
-      <c r="B13" s="210"/>
+    <row r="13" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="223"/>
+      <c r="B13" s="209"/>
       <c r="C13" s="74" t="s">
         <v>376</v>
       </c>
@@ -17683,9 +17696,9 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="207"/>
-      <c r="B14" s="210"/>
+    <row r="14" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="223"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="74" t="s">
         <v>377</v>
       </c>
@@ -17693,9 +17706,9 @@
         <v>10.336</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="207"/>
-      <c r="B15" s="210"/>
+    <row r="15" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="223"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="74" t="s">
         <v>378</v>
       </c>
@@ -17703,9 +17716,9 @@
         <v>10.843999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="208"/>
-      <c r="B16" s="211"/>
+    <row r="16" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="222"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="74" t="s">
         <v>379</v>
       </c>
@@ -17713,11 +17726,11 @@
         <v>11.191000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="206" t="s">
+    <row r="17" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="221" t="s">
         <v>380</v>
       </c>
-      <c r="B17" s="209">
+      <c r="B17" s="208">
         <v>12.673</v>
       </c>
       <c r="C17" s="74" t="s">
@@ -17727,9 +17740,9 @@
         <v>11.304</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="207"/>
-      <c r="B18" s="210"/>
+    <row r="18" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="223"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="74" t="s">
         <v>382</v>
       </c>
@@ -17737,9 +17750,9 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="207"/>
-      <c r="B19" s="210"/>
+    <row r="19" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="223"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="74" t="s">
         <v>383</v>
       </c>
@@ -17747,9 +17760,9 @@
         <v>14.757</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="207"/>
-      <c r="B20" s="210"/>
+    <row r="20" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="223"/>
+      <c r="B20" s="209"/>
       <c r="C20" s="74" t="s">
         <v>384</v>
       </c>
@@ -17757,9 +17770,9 @@
         <v>14.574</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="207"/>
-      <c r="B21" s="210"/>
+    <row r="21" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="223"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="74" t="s">
         <v>385</v>
       </c>
@@ -17767,9 +17780,9 @@
         <v>11.77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="208"/>
-      <c r="B22" s="211"/>
+    <row r="22" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="222"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="74" t="s">
         <v>386</v>
       </c>
@@ -17777,11 +17790,11 @@
         <v>10.457000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="206" t="s">
+    <row r="23" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="221" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="209">
+      <c r="B23" s="208">
         <v>9.4320000000000004</v>
       </c>
       <c r="C23" s="74" t="s">
@@ -17791,9 +17804,9 @@
         <v>10.260999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="207"/>
-      <c r="B24" s="210"/>
+    <row r="24" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="223"/>
+      <c r="B24" s="209"/>
       <c r="C24" s="74" t="s">
         <v>389</v>
       </c>
@@ -17801,9 +17814,9 @@
         <v>9.9359999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="207"/>
-      <c r="B25" s="210"/>
+    <row r="25" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="223"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="74" t="s">
         <v>390</v>
       </c>
@@ -17811,9 +17824,9 @@
         <v>9.4939999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="207"/>
-      <c r="B26" s="210"/>
+    <row r="26" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="223"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="74" t="s">
         <v>391</v>
       </c>
@@ -17821,9 +17834,9 @@
         <v>9.516</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="207"/>
-      <c r="B27" s="210"/>
+    <row r="27" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="223"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="74" t="s">
         <v>392</v>
       </c>
@@ -17831,9 +17844,9 @@
         <v>9.6839999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="208"/>
-      <c r="B28" s="211"/>
+    <row r="28" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="222"/>
+      <c r="B28" s="210"/>
       <c r="C28" s="74" t="s">
         <v>393</v>
       </c>
@@ -17841,11 +17854,11 @@
         <v>7.3620000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="206" t="s">
+    <row r="29" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="221" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="209">
+      <c r="B29" s="208">
         <v>9.7870000000000008</v>
       </c>
       <c r="C29" s="74" t="s">
@@ -17855,9 +17868,9 @@
         <v>8.2929999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="207"/>
-      <c r="B30" s="210"/>
+    <row r="30" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="223"/>
+      <c r="B30" s="209"/>
       <c r="C30" s="74" t="s">
         <v>396</v>
       </c>
@@ -17865,9 +17878,9 @@
         <v>9.4039999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="207"/>
-      <c r="B31" s="210"/>
+    <row r="31" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="223"/>
+      <c r="B31" s="209"/>
       <c r="C31" s="74" t="s">
         <v>397</v>
       </c>
@@ -17875,9 +17888,9 @@
         <v>11.565</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="207"/>
-      <c r="B32" s="210"/>
+    <row r="32" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="223"/>
+      <c r="B32" s="209"/>
       <c r="C32" s="74" t="s">
         <v>398</v>
       </c>
@@ -17885,9 +17898,9 @@
         <v>11.542999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="207"/>
-      <c r="B33" s="210"/>
+    <row r="33" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="223"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="74" t="s">
         <v>399</v>
       </c>
@@ -17895,9 +17908,9 @@
         <v>9.1839999999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="208"/>
-      <c r="B34" s="211"/>
+    <row r="34" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="222"/>
+      <c r="B34" s="210"/>
       <c r="C34" s="74" t="s">
         <v>400</v>
       </c>
@@ -17905,7 +17918,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="77" t="s">
         <v>401</v>
       </c>
@@ -17919,11 +17932,11 @@
         <v>7.9660000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="212" t="s">
+    <row r="36" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="205" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="209">
+      <c r="B36" s="208">
         <v>8.0419999999999998</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -17933,9 +17946,9 @@
         <v>7.6520000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="213"/>
-      <c r="B37" s="210"/>
+    <row r="37" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="206"/>
+      <c r="B37" s="209"/>
       <c r="C37" s="74" t="s">
         <v>405</v>
       </c>
@@ -17943,9 +17956,9 @@
         <v>8.1549999999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="213"/>
-      <c r="B38" s="210"/>
+    <row r="38" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="206"/>
+      <c r="B38" s="209"/>
       <c r="C38" s="74" t="s">
         <v>406</v>
       </c>
@@ -17953,9 +17966,9 @@
         <v>8.6449999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="213"/>
-      <c r="B39" s="210"/>
+    <row r="39" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="206"/>
+      <c r="B39" s="209"/>
       <c r="C39" s="74" t="s">
         <v>407</v>
       </c>
@@ -17963,9 +17976,9 @@
         <v>8.1010000000000009</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="214"/>
-      <c r="B40" s="211"/>
+    <row r="40" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="207"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="74" t="s">
         <v>408</v>
       </c>
@@ -17973,11 +17986,11 @@
         <v>7.5730000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="206" t="s">
+    <row r="41" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="221" t="s">
         <v>409</v>
       </c>
-      <c r="B41" s="209">
+      <c r="B41" s="208">
         <v>13.038</v>
       </c>
       <c r="C41" s="74" t="s">
@@ -17987,9 +18000,9 @@
         <v>10.298999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="207"/>
-      <c r="B42" s="210"/>
+    <row r="42" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="223"/>
+      <c r="B42" s="209"/>
       <c r="C42" s="74" t="s">
         <v>411</v>
       </c>
@@ -17997,9 +18010,9 @@
         <v>11.997</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="207"/>
-      <c r="B43" s="210"/>
+    <row r="43" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="223"/>
+      <c r="B43" s="209"/>
       <c r="C43" s="74" t="s">
         <v>412</v>
       </c>
@@ -18007,9 +18020,9 @@
         <v>15.013999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="207"/>
-      <c r="B44" s="210"/>
+    <row r="44" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="223"/>
+      <c r="B44" s="209"/>
       <c r="C44" s="74" t="s">
         <v>413</v>
       </c>
@@ -18017,9 +18030,9 @@
         <v>15.147</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="207"/>
-      <c r="B45" s="210"/>
+    <row r="45" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="223"/>
+      <c r="B45" s="209"/>
       <c r="C45" s="74" t="s">
         <v>414</v>
       </c>
@@ -18027,9 +18040,9 @@
         <v>13.387</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="208"/>
-      <c r="B46" s="211"/>
+    <row r="46" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="222"/>
+      <c r="B46" s="210"/>
       <c r="C46" s="74" t="s">
         <v>415</v>
       </c>
@@ -18037,33 +18050,33 @@
         <v>11.227</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="196" t="s">
+    <row r="47" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="211" t="s">
         <v>359</v>
       </c>
-      <c r="B47" s="197"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="198"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="199" t="s">
+      <c r="B47" s="212"/>
+      <c r="C47" s="212"/>
+      <c r="D47" s="213"/>
+    </row>
+    <row r="48" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="214" t="s">
         <v>360</v>
       </c>
-      <c r="B48" s="200"/>
-      <c r="C48" s="200"/>
-      <c r="D48" s="201"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="202" t="s">
+      <c r="B48" s="215"/>
+      <c r="C48" s="215"/>
+      <c r="D48" s="216"/>
+    </row>
+    <row r="49" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="217" t="s">
         <v>361</v>
       </c>
-      <c r="B49" s="203"/>
-      <c r="C49" s="204" t="s">
+      <c r="B49" s="218"/>
+      <c r="C49" s="219" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="205"/>
-    </row>
-    <row r="50" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="220"/>
+    </row>
+    <row r="50" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="70" t="s">
         <v>363</v>
       </c>
@@ -18077,11 +18090,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="206" t="s">
+    <row r="51" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="221" t="s">
         <v>416</v>
       </c>
-      <c r="B51" s="209">
+      <c r="B51" s="208">
         <v>9.2569999999999997</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -18091,9 +18104,9 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="207"/>
-      <c r="B52" s="210"/>
+    <row r="52" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="223"/>
+      <c r="B52" s="209"/>
       <c r="C52" s="74" t="s">
         <v>418</v>
       </c>
@@ -18101,9 +18114,9 @@
         <v>8.8550000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="207"/>
-      <c r="B53" s="210"/>
+    <row r="53" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="223"/>
+      <c r="B53" s="209"/>
       <c r="C53" s="74" t="s">
         <v>419</v>
       </c>
@@ -18111,9 +18124,9 @@
         <v>9.4350000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="207"/>
-      <c r="B54" s="210"/>
+    <row r="54" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="223"/>
+      <c r="B54" s="209"/>
       <c r="C54" s="74" t="s">
         <v>420</v>
       </c>
@@ -18121,9 +18134,9 @@
         <v>9.8960000000000008</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="207"/>
-      <c r="B55" s="210"/>
+    <row r="55" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="223"/>
+      <c r="B55" s="209"/>
       <c r="C55" s="74" t="s">
         <v>421</v>
       </c>
@@ -18131,9 +18144,9 @@
         <v>9.6069999999999993</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="208"/>
-      <c r="B56" s="211"/>
+    <row r="56" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="222"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="74" t="s">
         <v>422</v>
       </c>
@@ -18141,11 +18154,11 @@
         <v>8.6839999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="206" t="s">
+    <row r="57" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="221" t="s">
         <v>423</v>
       </c>
-      <c r="B57" s="209">
+      <c r="B57" s="208">
         <v>16.273</v>
       </c>
       <c r="C57" s="74" t="s">
@@ -18155,9 +18168,9 @@
         <v>9.9459999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="207"/>
-      <c r="B58" s="210"/>
+    <row r="58" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="223"/>
+      <c r="B58" s="209"/>
       <c r="C58" s="74" t="s">
         <v>425</v>
       </c>
@@ -18165,9 +18178,9 @@
         <v>14.061999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="207"/>
-      <c r="B59" s="210"/>
+    <row r="59" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="223"/>
+      <c r="B59" s="209"/>
       <c r="C59" s="74" t="s">
         <v>426</v>
       </c>
@@ -18175,9 +18188,9 @@
         <v>21.407</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="207"/>
-      <c r="B60" s="210"/>
+    <row r="60" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="223"/>
+      <c r="B60" s="209"/>
       <c r="C60" s="74" t="s">
         <v>427</v>
       </c>
@@ -18185,9 +18198,9 @@
         <v>22.067</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="207"/>
-      <c r="B61" s="210"/>
+    <row r="61" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="223"/>
+      <c r="B61" s="209"/>
       <c r="C61" s="74" t="s">
         <v>428</v>
       </c>
@@ -18195,9 +18208,9 @@
         <v>16.706</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="208"/>
-      <c r="B62" s="211"/>
+    <row r="62" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="222"/>
+      <c r="B62" s="210"/>
       <c r="C62" s="74" t="s">
         <v>429</v>
       </c>
@@ -18205,11 +18218,11 @@
         <v>10.492000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="206" t="s">
+    <row r="63" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="221" t="s">
         <v>430</v>
       </c>
-      <c r="B63" s="209">
+      <c r="B63" s="208">
         <v>8.2769999999999992</v>
       </c>
       <c r="C63" s="74" t="s">
@@ -18219,9 +18232,9 @@
         <v>7.8819999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="207"/>
-      <c r="B64" s="210"/>
+    <row r="64" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="223"/>
+      <c r="B64" s="209"/>
       <c r="C64" s="74" t="s">
         <v>432</v>
       </c>
@@ -18229,9 +18242,9 @@
         <v>7.7389999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="207"/>
-      <c r="B65" s="210"/>
+    <row r="65" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="223"/>
+      <c r="B65" s="209"/>
       <c r="C65" s="74" t="s">
         <v>433</v>
       </c>
@@ -18239,9 +18252,9 @@
         <v>8.4789999999999992</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="207"/>
-      <c r="B66" s="210"/>
+    <row r="66" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="223"/>
+      <c r="B66" s="209"/>
       <c r="C66" s="74" t="s">
         <v>434</v>
       </c>
@@ -18249,9 +18262,9 @@
         <v>8.9139999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="207"/>
-      <c r="B67" s="210"/>
+    <row r="67" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="223"/>
+      <c r="B67" s="209"/>
       <c r="C67" s="74" t="s">
         <v>435</v>
       </c>
@@ -18259,9 +18272,9 @@
         <v>8.8539999999999992</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="208"/>
-      <c r="B68" s="211"/>
+    <row r="68" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="222"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="74" t="s">
         <v>436</v>
       </c>
@@ -18269,11 +18282,11 @@
         <v>7.6239999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="206" t="s">
+    <row r="69" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="221" t="s">
         <v>437</v>
       </c>
-      <c r="B69" s="209">
+      <c r="B69" s="208">
         <v>10.025</v>
       </c>
       <c r="C69" s="74" t="s">
@@ -18283,9 +18296,9 @@
         <v>7.7190000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="207"/>
-      <c r="B70" s="210"/>
+    <row r="70" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="223"/>
+      <c r="B70" s="209"/>
       <c r="C70" s="74" t="s">
         <v>439</v>
       </c>
@@ -18293,9 +18306,9 @@
         <v>8.4459999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="207"/>
-      <c r="B71" s="210"/>
+    <row r="71" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="223"/>
+      <c r="B71" s="209"/>
       <c r="C71" s="74" t="s">
         <v>440</v>
       </c>
@@ -18303,9 +18316,9 @@
         <v>12.086</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="207"/>
-      <c r="B72" s="210"/>
+    <row r="72" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="223"/>
+      <c r="B72" s="209"/>
       <c r="C72" s="74" t="s">
         <v>441</v>
       </c>
@@ -18313,9 +18326,9 @@
         <v>12.461</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="207"/>
-      <c r="B73" s="210"/>
+    <row r="73" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="223"/>
+      <c r="B73" s="209"/>
       <c r="C73" s="74" t="s">
         <v>442</v>
       </c>
@@ -18323,9 +18336,9 @@
         <v>10.298</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="208"/>
-      <c r="B74" s="211"/>
+    <row r="74" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="222"/>
+      <c r="B74" s="210"/>
       <c r="C74" s="74" t="s">
         <v>443</v>
       </c>
@@ -18333,11 +18346,11 @@
         <v>7.8369999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="206" t="s">
+    <row r="75" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="221" t="s">
         <v>444</v>
       </c>
-      <c r="B75" s="209">
+      <c r="B75" s="208">
         <v>7.2510000000000003</v>
       </c>
       <c r="C75" s="74" t="s">
@@ -18347,9 +18360,9 @@
         <v>7.0419999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="207"/>
-      <c r="B76" s="210"/>
+    <row r="76" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="223"/>
+      <c r="B76" s="209"/>
       <c r="C76" s="74" t="s">
         <v>446</v>
       </c>
@@ -18357,9 +18370,9 @@
         <v>7.01</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="207"/>
-      <c r="B77" s="210"/>
+    <row r="77" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="223"/>
+      <c r="B77" s="209"/>
       <c r="C77" s="74" t="s">
         <v>447</v>
       </c>
@@ -18367,9 +18380,9 @@
         <v>7.3659999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="207"/>
-      <c r="B78" s="210"/>
+    <row r="78" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="223"/>
+      <c r="B78" s="209"/>
       <c r="C78" s="74" t="s">
         <v>448</v>
       </c>
@@ -18377,9 +18390,9 @@
         <v>7.6929999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="207"/>
-      <c r="B79" s="210"/>
+    <row r="79" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="223"/>
+      <c r="B79" s="209"/>
       <c r="C79" s="74" t="s">
         <v>449</v>
       </c>
@@ -18387,9 +18400,9 @@
         <v>7.359</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="208"/>
-      <c r="B80" s="211"/>
+    <row r="80" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="222"/>
+      <c r="B80" s="210"/>
       <c r="C80" s="74" t="s">
         <v>450</v>
       </c>
@@ -18397,11 +18410,11 @@
         <v>6.9109999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="206" t="s">
+    <row r="81" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="221" t="s">
         <v>451</v>
       </c>
-      <c r="B81" s="209">
+      <c r="B81" s="208">
         <v>7.3140000000000001</v>
       </c>
       <c r="C81" s="74" t="s">
@@ -18411,9 +18424,9 @@
         <v>6.5810000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="207"/>
-      <c r="B82" s="210"/>
+    <row r="82" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="223"/>
+      <c r="B82" s="209"/>
       <c r="C82" s="74" t="s">
         <v>453</v>
       </c>
@@ -18421,9 +18434,9 @@
         <v>6.742</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="207"/>
-      <c r="B83" s="210"/>
+    <row r="83" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="223"/>
+      <c r="B83" s="209"/>
       <c r="C83" s="74" t="s">
         <v>454</v>
       </c>
@@ -18431,9 +18444,9 @@
         <v>8.0109999999999992</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="207"/>
-      <c r="B84" s="210"/>
+    <row r="84" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="223"/>
+      <c r="B84" s="209"/>
       <c r="C84" s="74" t="s">
         <v>455</v>
       </c>
@@ -18441,9 +18454,9 @@
         <v>8.2940000000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="207"/>
-      <c r="B85" s="210"/>
+    <row r="85" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="223"/>
+      <c r="B85" s="209"/>
       <c r="C85" s="74" t="s">
         <v>456</v>
       </c>
@@ -18451,9 +18464,9 @@
         <v>7.3579999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="208"/>
-      <c r="B86" s="211"/>
+    <row r="86" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="222"/>
+      <c r="B86" s="210"/>
       <c r="C86" s="74" t="s">
         <v>457</v>
       </c>
@@ -18461,11 +18474,11 @@
         <v>6.4980000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="206" t="s">
+    <row r="87" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="221" t="s">
         <v>458</v>
       </c>
-      <c r="B87" s="209">
+      <c r="B87" s="208">
         <v>6.718</v>
       </c>
       <c r="C87" s="74" t="s">
@@ -18475,9 +18488,9 @@
         <v>6.6879999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="207"/>
-      <c r="B88" s="210"/>
+    <row r="88" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="223"/>
+      <c r="B88" s="209"/>
       <c r="C88" s="74" t="s">
         <v>460</v>
       </c>
@@ -18485,9 +18498,9 @@
         <v>6.5439999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="207"/>
-      <c r="B89" s="210"/>
+    <row r="89" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="223"/>
+      <c r="B89" s="209"/>
       <c r="C89" s="74" t="s">
         <v>461</v>
       </c>
@@ -18495,9 +18508,9 @@
         <v>6.9050000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="207"/>
-      <c r="B90" s="210"/>
+    <row r="90" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="223"/>
+      <c r="B90" s="209"/>
       <c r="C90" s="74" t="s">
         <v>462</v>
       </c>
@@ -18505,9 +18518,9 @@
         <v>6.8559999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="207"/>
-      <c r="B91" s="210"/>
+    <row r="91" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="223"/>
+      <c r="B91" s="209"/>
       <c r="C91" s="74" t="s">
         <v>463</v>
       </c>
@@ -18515,9 +18528,9 @@
         <v>6.5570000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="208"/>
-      <c r="B92" s="211"/>
+    <row r="92" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="222"/>
+      <c r="B92" s="210"/>
       <c r="C92" s="74" t="s">
         <v>464</v>
       </c>
@@ -18525,33 +18538,33 @@
         <v>6.6760000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="196" t="s">
+    <row r="93" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="211" t="s">
         <v>359</v>
       </c>
-      <c r="B93" s="197"/>
-      <c r="C93" s="197"/>
-      <c r="D93" s="198"/>
-    </row>
-    <row r="94" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="199" t="s">
+      <c r="B93" s="212"/>
+      <c r="C93" s="212"/>
+      <c r="D93" s="213"/>
+    </row>
+    <row r="94" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="214" t="s">
         <v>360</v>
       </c>
-      <c r="B94" s="200"/>
-      <c r="C94" s="200"/>
-      <c r="D94" s="201"/>
-    </row>
-    <row r="95" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="202" t="s">
+      <c r="B94" s="215"/>
+      <c r="C94" s="215"/>
+      <c r="D94" s="216"/>
+    </row>
+    <row r="95" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="217" t="s">
         <v>361</v>
       </c>
-      <c r="B95" s="203"/>
-      <c r="C95" s="204" t="s">
+      <c r="B95" s="218"/>
+      <c r="C95" s="219" t="s">
         <v>362</v>
       </c>
-      <c r="D95" s="205"/>
-    </row>
-    <row r="96" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D95" s="220"/>
+    </row>
+    <row r="96" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="70" t="s">
         <v>363</v>
       </c>
@@ -18565,11 +18578,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="212" t="s">
+    <row r="97" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="205" t="s">
         <v>465</v>
       </c>
-      <c r="B97" s="209">
+      <c r="B97" s="208">
         <v>8.2650000000000006</v>
       </c>
       <c r="C97" s="74" t="s">
@@ -18579,9 +18592,9 @@
         <v>7.5149999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="213"/>
-      <c r="B98" s="210"/>
+    <row r="98" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="206"/>
+      <c r="B98" s="209"/>
       <c r="C98" s="74" t="s">
         <v>467</v>
       </c>
@@ -18589,9 +18602,9 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="213"/>
-      <c r="B99" s="210"/>
+    <row r="99" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="206"/>
+      <c r="B99" s="209"/>
       <c r="C99" s="74" t="s">
         <v>468</v>
       </c>
@@ -18599,9 +18612,9 @@
         <v>9.1349999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="213"/>
-      <c r="B100" s="210"/>
+    <row r="100" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="206"/>
+      <c r="B100" s="209"/>
       <c r="C100" s="74" t="s">
         <v>469</v>
       </c>
@@ -18609,9 +18622,9 @@
         <v>9.3680000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="213"/>
-      <c r="B101" s="210"/>
+    <row r="101" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="206"/>
+      <c r="B101" s="209"/>
       <c r="C101" s="74" t="s">
         <v>470</v>
       </c>
@@ -18619,9 +18632,9 @@
         <v>8.3290000000000006</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="214"/>
-      <c r="B102" s="211"/>
+    <row r="102" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="207"/>
+      <c r="B102" s="210"/>
       <c r="C102" s="74" t="s">
         <v>471</v>
       </c>
@@ -18629,11 +18642,11 @@
         <v>7.4029999999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="212" t="s">
+    <row r="103" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="205" t="s">
         <v>472</v>
       </c>
-      <c r="B103" s="209">
+      <c r="B103" s="208">
         <v>7.282</v>
       </c>
       <c r="C103" s="74" t="s">
@@ -18643,9 +18656,9 @@
         <v>7.1260000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="213"/>
-      <c r="B104" s="210"/>
+    <row r="104" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="206"/>
+      <c r="B104" s="209"/>
       <c r="C104" s="74" t="s">
         <v>474</v>
       </c>
@@ -18653,9 +18666,9 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="213"/>
-      <c r="B105" s="210"/>
+    <row r="105" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="206"/>
+      <c r="B105" s="209"/>
       <c r="C105" s="74" t="s">
         <v>475</v>
       </c>
@@ -18663,9 +18676,9 @@
         <v>7.5949999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="213"/>
-      <c r="B106" s="210"/>
+    <row r="106" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="206"/>
+      <c r="B106" s="209"/>
       <c r="C106" s="74" t="s">
         <v>476</v>
       </c>
@@ -18673,9 +18686,9 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="213"/>
-      <c r="B107" s="210"/>
+    <row r="107" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="206"/>
+      <c r="B107" s="209"/>
       <c r="C107" s="74" t="s">
         <v>477</v>
       </c>
@@ -18683,9 +18696,9 @@
         <v>6.9930000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="214"/>
-      <c r="B108" s="211"/>
+    <row r="108" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="207"/>
+      <c r="B108" s="210"/>
       <c r="C108" s="74" t="s">
         <v>478</v>
       </c>
@@ -18693,11 +18706,11 @@
         <v>7.3319999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="212" t="s">
+    <row r="109" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="205" t="s">
         <v>479</v>
       </c>
-      <c r="B109" s="209">
+      <c r="B109" s="208">
         <v>8.0830000000000002</v>
       </c>
       <c r="C109" s="74" t="s">
@@ -18707,9 +18720,9 @@
         <v>7.9240000000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="213"/>
-      <c r="B110" s="210"/>
+    <row r="110" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="206"/>
+      <c r="B110" s="209"/>
       <c r="C110" s="74" t="s">
         <v>481</v>
       </c>
@@ -18717,9 +18730,9 @@
         <v>7.9359999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="213"/>
-      <c r="B111" s="210"/>
+    <row r="111" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="206"/>
+      <c r="B111" s="209"/>
       <c r="C111" s="74" t="s">
         <v>482</v>
       </c>
@@ -18727,9 +18740,9 @@
         <v>8.6760000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="213"/>
-      <c r="B112" s="210"/>
+    <row r="112" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="206"/>
+      <c r="B112" s="209"/>
       <c r="C112" s="74" t="s">
         <v>483</v>
       </c>
@@ -18737,9 +18750,9 @@
         <v>8.4450000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="213"/>
-      <c r="B113" s="210"/>
+    <row r="113" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="206"/>
+      <c r="B113" s="209"/>
       <c r="C113" s="74" t="s">
         <v>484</v>
       </c>
@@ -18747,9 +18760,9 @@
         <v>7.8280000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="214"/>
-      <c r="B114" s="211"/>
+    <row r="114" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="207"/>
+      <c r="B114" s="210"/>
       <c r="C114" s="74" t="s">
         <v>485</v>
       </c>
@@ -18757,11 +18770,11 @@
         <v>7.4790000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="212" t="s">
+    <row r="115" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="205" t="s">
         <v>486</v>
       </c>
-      <c r="B115" s="209">
+      <c r="B115" s="208">
         <v>8.11</v>
       </c>
       <c r="C115" s="74" t="s">
@@ -18771,9 +18784,9 @@
         <v>8.2520000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="213"/>
-      <c r="B116" s="210"/>
+    <row r="116" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="206"/>
+      <c r="B116" s="209"/>
       <c r="C116" s="74" t="s">
         <v>488</v>
       </c>
@@ -18781,9 +18794,9 @@
         <v>8.0429999999999993</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="213"/>
-      <c r="B117" s="210"/>
+    <row r="117" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="206"/>
+      <c r="B117" s="209"/>
       <c r="C117" s="74" t="s">
         <v>489</v>
       </c>
@@ -18791,9 +18804,9 @@
         <v>8.282</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="213"/>
-      <c r="B118" s="210"/>
+    <row r="118" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="206"/>
+      <c r="B118" s="209"/>
       <c r="C118" s="74" t="s">
         <v>490</v>
       </c>
@@ -18801,9 +18814,9 @@
         <v>8.1059999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="213"/>
-      <c r="B119" s="210"/>
+    <row r="119" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="206"/>
+      <c r="B119" s="209"/>
       <c r="C119" s="74" t="s">
         <v>491</v>
       </c>
@@ -18811,9 +18824,9 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="214"/>
-      <c r="B120" s="211"/>
+    <row r="120" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="207"/>
+      <c r="B120" s="210"/>
       <c r="C120" s="74" t="s">
         <v>492</v>
       </c>
@@ -18821,11 +18834,11 @@
         <v>7.9660000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="212" t="s">
+    <row r="121" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="205" t="s">
         <v>493</v>
       </c>
-      <c r="B121" s="209">
+      <c r="B121" s="208">
         <v>8.8279999999999994</v>
       </c>
       <c r="C121" s="74" t="s">
@@ -18835,9 +18848,9 @@
         <v>8.6910000000000007</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="213"/>
-      <c r="B122" s="210"/>
+    <row r="122" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="206"/>
+      <c r="B122" s="209"/>
       <c r="C122" s="74" t="s">
         <v>495</v>
       </c>
@@ -18845,9 +18858,9 @@
         <v>8.6150000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="213"/>
-      <c r="B123" s="210"/>
+    <row r="123" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="206"/>
+      <c r="B123" s="209"/>
       <c r="C123" s="74" t="s">
         <v>496</v>
       </c>
@@ -18855,9 +18868,9 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="214"/>
-      <c r="B124" s="211"/>
+    <row r="124" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="207"/>
+      <c r="B124" s="210"/>
       <c r="C124" s="74" t="s">
         <v>497</v>
       </c>
@@ -18865,11 +18878,11 @@
         <v>9.4090000000000007</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="206" t="s">
+    <row r="125" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="221" t="s">
         <v>498</v>
       </c>
-      <c r="B125" s="209">
+      <c r="B125" s="208">
         <v>8.6389999999999993</v>
       </c>
       <c r="C125" s="74" t="s">
@@ -18879,9 +18892,9 @@
         <v>8.2959999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="208"/>
-      <c r="B126" s="211"/>
+    <row r="126" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="222"/>
+      <c r="B126" s="210"/>
       <c r="C126" s="74" t="s">
         <v>500</v>
       </c>
@@ -18889,11 +18902,11 @@
         <v>7.5439999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="212" t="s">
+    <row r="127" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="205" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="209">
+      <c r="B127" s="208">
         <v>9.7140000000000004</v>
       </c>
       <c r="C127" s="74" t="s">
@@ -18903,9 +18916,9 @@
         <v>9.7149999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="213"/>
-      <c r="B128" s="210"/>
+    <row r="128" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="206"/>
+      <c r="B128" s="209"/>
       <c r="C128" s="74" t="s">
         <v>503</v>
       </c>
@@ -18913,9 +18926,9 @@
         <v>9.593</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="213"/>
-      <c r="B129" s="210"/>
+    <row r="129" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="206"/>
+      <c r="B129" s="209"/>
       <c r="C129" s="74" t="s">
         <v>504</v>
       </c>
@@ -18923,9 +18936,9 @@
         <v>10.128</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="213"/>
-      <c r="B130" s="210"/>
+    <row r="130" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="206"/>
+      <c r="B130" s="209"/>
       <c r="C130" s="74" t="s">
         <v>505</v>
       </c>
@@ -18933,9 +18946,9 @@
         <v>9.9390000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="213"/>
-      <c r="B131" s="210"/>
+    <row r="131" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="206"/>
+      <c r="B131" s="209"/>
       <c r="C131" s="74" t="s">
         <v>506</v>
       </c>
@@ -18943,9 +18956,9 @@
         <v>9.5050000000000008</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="214"/>
-      <c r="B132" s="211"/>
+    <row r="132" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="207"/>
+      <c r="B132" s="210"/>
       <c r="C132" s="74" t="s">
         <v>507</v>
       </c>
@@ -18953,11 +18966,11 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="212" t="s">
+    <row r="133" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="205" t="s">
         <v>508</v>
       </c>
-      <c r="B133" s="209">
+      <c r="B133" s="208">
         <v>12.66</v>
       </c>
       <c r="C133" s="74" t="s">
@@ -18967,9 +18980,9 @@
         <v>11.625999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="213"/>
-      <c r="B134" s="210"/>
+    <row r="134" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="206"/>
+      <c r="B134" s="209"/>
       <c r="C134" s="74" t="s">
         <v>510</v>
       </c>
@@ -18977,9 +18990,9 @@
         <v>12.239000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="213"/>
-      <c r="B135" s="210"/>
+    <row r="135" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="206"/>
+      <c r="B135" s="209"/>
       <c r="C135" s="74" t="s">
         <v>511</v>
       </c>
@@ -18987,9 +19000,9 @@
         <v>13.832000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="213"/>
-      <c r="B136" s="210"/>
+    <row r="136" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="206"/>
+      <c r="B136" s="209"/>
       <c r="C136" s="74" t="s">
         <v>512</v>
       </c>
@@ -18997,9 +19010,9 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="213"/>
-      <c r="B137" s="210"/>
+    <row r="137" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="206"/>
+      <c r="B137" s="209"/>
       <c r="C137" s="74" t="s">
         <v>513</v>
       </c>
@@ -19007,9 +19020,9 @@
         <v>12.379</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="214"/>
-      <c r="B138" s="211"/>
+    <row r="138" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="207"/>
+      <c r="B138" s="210"/>
       <c r="C138" s="74" t="s">
         <v>514</v>
       </c>
@@ -19017,33 +19030,33 @@
         <v>11.648</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="196" t="s">
+    <row r="139" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="211" t="s">
         <v>359</v>
       </c>
-      <c r="B139" s="197"/>
-      <c r="C139" s="197"/>
-      <c r="D139" s="198"/>
-    </row>
-    <row r="140" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="199" t="s">
+      <c r="B139" s="212"/>
+      <c r="C139" s="212"/>
+      <c r="D139" s="213"/>
+    </row>
+    <row r="140" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="214" t="s">
         <v>360</v>
       </c>
-      <c r="B140" s="200"/>
-      <c r="C140" s="200"/>
-      <c r="D140" s="201"/>
-    </row>
-    <row r="141" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="202" t="s">
+      <c r="B140" s="215"/>
+      <c r="C140" s="215"/>
+      <c r="D140" s="216"/>
+    </row>
+    <row r="141" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="217" t="s">
         <v>361</v>
       </c>
-      <c r="B141" s="203"/>
-      <c r="C141" s="204" t="s">
+      <c r="B141" s="218"/>
+      <c r="C141" s="219" t="s">
         <v>362</v>
       </c>
-      <c r="D141" s="205"/>
-    </row>
-    <row r="142" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D141" s="220"/>
+    </row>
+    <row r="142" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="70" t="s">
         <v>363</v>
       </c>
@@ -19057,11 +19070,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="212" t="s">
+    <row r="143" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="205" t="s">
         <v>515</v>
       </c>
-      <c r="B143" s="209">
+      <c r="B143" s="208">
         <v>11.79</v>
       </c>
       <c r="C143" s="74" t="s">
@@ -19071,9 +19084,9 @@
         <v>11.718</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="213"/>
-      <c r="B144" s="210"/>
+    <row r="144" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="206"/>
+      <c r="B144" s="209"/>
       <c r="C144" s="74" t="s">
         <v>517</v>
       </c>
@@ -19081,9 +19094,9 @@
         <v>11.537000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="213"/>
-      <c r="B145" s="210"/>
+    <row r="145" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="206"/>
+      <c r="B145" s="209"/>
       <c r="C145" s="74" t="s">
         <v>518</v>
       </c>
@@ -19091,9 +19104,9 @@
         <v>12.398</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="213"/>
-      <c r="B146" s="210"/>
+    <row r="146" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="206"/>
+      <c r="B146" s="209"/>
       <c r="C146" s="74" t="s">
         <v>519</v>
       </c>
@@ -19101,9 +19114,9 @@
         <v>12.351000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="213"/>
-      <c r="B147" s="210"/>
+    <row r="147" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="206"/>
+      <c r="B147" s="209"/>
       <c r="C147" s="74" t="s">
         <v>520</v>
       </c>
@@ -19111,9 +19124,9 @@
         <v>11.526</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="214"/>
-      <c r="B148" s="211"/>
+    <row r="148" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="207"/>
+      <c r="B148" s="210"/>
       <c r="C148" s="74" t="s">
         <v>521</v>
       </c>
@@ -19121,11 +19134,11 @@
         <v>10.952999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="212" t="s">
+    <row r="149" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="205" t="s">
         <v>522</v>
       </c>
-      <c r="B149" s="209">
+      <c r="B149" s="208">
         <v>10.919</v>
       </c>
       <c r="C149" s="74" t="s">
@@ -19135,9 +19148,9 @@
         <v>10.151999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="213"/>
-      <c r="B150" s="210"/>
+    <row r="150" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="206"/>
+      <c r="B150" s="209"/>
       <c r="C150" s="74" t="s">
         <v>524</v>
       </c>
@@ -19145,9 +19158,9 @@
         <v>10.593</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="213"/>
-      <c r="B151" s="210"/>
+    <row r="151" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="206"/>
+      <c r="B151" s="209"/>
       <c r="C151" s="74" t="s">
         <v>525</v>
       </c>
@@ -19155,9 +19168,9 @@
         <v>12.238</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="213"/>
-      <c r="B152" s="210"/>
+    <row r="152" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="206"/>
+      <c r="B152" s="209"/>
       <c r="C152" s="74" t="s">
         <v>526</v>
       </c>
@@ -19165,9 +19178,9 @@
         <v>12.097</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="213"/>
-      <c r="B153" s="210"/>
+    <row r="153" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="206"/>
+      <c r="B153" s="209"/>
       <c r="C153" s="74" t="s">
         <v>527</v>
       </c>
@@ -19175,9 +19188,9 @@
         <v>10.222</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="214"/>
-      <c r="B154" s="211"/>
+    <row r="154" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="207"/>
+      <c r="B154" s="210"/>
       <c r="C154" s="74" t="s">
         <v>528</v>
       </c>
@@ -19185,11 +19198,11 @@
         <v>9.7889999999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="212" t="s">
+    <row r="155" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="205" t="s">
         <v>529</v>
       </c>
-      <c r="B155" s="209">
+      <c r="B155" s="208">
         <v>10.215</v>
       </c>
       <c r="C155" s="74" t="s">
@@ -19199,9 +19212,9 @@
         <v>10.164999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="213"/>
-      <c r="B156" s="210"/>
+    <row r="156" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="206"/>
+      <c r="B156" s="209"/>
       <c r="C156" s="74" t="s">
         <v>531</v>
       </c>
@@ -19209,9 +19222,9 @@
         <v>9.766</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="213"/>
-      <c r="B157" s="210"/>
+    <row r="157" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="206"/>
+      <c r="B157" s="209"/>
       <c r="C157" s="74" t="s">
         <v>532</v>
       </c>
@@ -19219,9 +19232,9 @@
         <v>10.763</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="213"/>
-      <c r="B158" s="210"/>
+    <row r="158" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="206"/>
+      <c r="B158" s="209"/>
       <c r="C158" s="74" t="s">
         <v>533</v>
       </c>
@@ -19229,9 +19242,9 @@
         <v>10.724</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="213"/>
-      <c r="B159" s="210"/>
+    <row r="159" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="206"/>
+      <c r="B159" s="209"/>
       <c r="C159" s="74" t="s">
         <v>534</v>
       </c>
@@ -19239,9 +19252,9 @@
         <v>9.9930000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="214"/>
-      <c r="B160" s="211"/>
+    <row r="160" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="207"/>
+      <c r="B160" s="210"/>
       <c r="C160" s="74" t="s">
         <v>535</v>
       </c>
@@ -19249,11 +19262,11 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="212" t="s">
+    <row r="161" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="205" t="s">
         <v>536</v>
       </c>
-      <c r="B161" s="209">
+      <c r="B161" s="208">
         <v>11.672000000000001</v>
       </c>
       <c r="C161" s="74" t="s">
@@ -19263,9 +19276,9 @@
         <v>10.416</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="213"/>
-      <c r="B162" s="210"/>
+    <row r="162" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="206"/>
+      <c r="B162" s="209"/>
       <c r="C162" s="74" t="s">
         <v>538</v>
       </c>
@@ -19273,9 +19286,9 @@
         <v>11.706</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="213"/>
-      <c r="B163" s="210"/>
+    <row r="163" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="206"/>
+      <c r="B163" s="209"/>
       <c r="C163" s="74" t="s">
         <v>539</v>
       </c>
@@ -19283,9 +19296,9 @@
         <v>13.582000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="213"/>
-      <c r="B164" s="210"/>
+    <row r="164" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="206"/>
+      <c r="B164" s="209"/>
       <c r="C164" s="74" t="s">
         <v>540</v>
       </c>
@@ -19293,9 +19306,9 @@
         <v>13.725</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="213"/>
-      <c r="B165" s="210"/>
+    <row r="165" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="206"/>
+      <c r="B165" s="209"/>
       <c r="C165" s="74" t="s">
         <v>541</v>
       </c>
@@ -19303,9 +19316,9 @@
         <v>10.882999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="214"/>
-      <c r="B166" s="211"/>
+    <row r="166" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="207"/>
+      <c r="B166" s="210"/>
       <c r="C166" s="74" t="s">
         <v>542</v>
       </c>
@@ -19313,11 +19326,11 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="212" t="s">
+    <row r="167" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="205" t="s">
         <v>543</v>
       </c>
-      <c r="B167" s="209">
+      <c r="B167" s="208">
         <v>9.6929999999999996</v>
       </c>
       <c r="C167" s="74" t="s">
@@ -19327,9 +19340,9 @@
         <v>9.1769999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="213"/>
-      <c r="B168" s="210"/>
+    <row r="168" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="206"/>
+      <c r="B168" s="209"/>
       <c r="C168" s="74" t="s">
         <v>545</v>
       </c>
@@ -19337,9 +19350,9 @@
         <v>9.1419999999999995</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="213"/>
-      <c r="B169" s="210"/>
+    <row r="169" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="206"/>
+      <c r="B169" s="209"/>
       <c r="C169" s="74" t="s">
         <v>546</v>
       </c>
@@ -19347,9 +19360,9 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="213"/>
-      <c r="B170" s="210"/>
+    <row r="170" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="206"/>
+      <c r="B170" s="209"/>
       <c r="C170" s="74" t="s">
         <v>547</v>
       </c>
@@ -19357,9 +19370,9 @@
         <v>10.654</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="213"/>
-      <c r="B171" s="210"/>
+    <row r="171" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="206"/>
+      <c r="B171" s="209"/>
       <c r="C171" s="74" t="s">
         <v>548</v>
       </c>
@@ -19367,9 +19380,9 @@
         <v>9.2840000000000007</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="214"/>
-      <c r="B172" s="211"/>
+    <row r="172" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="207"/>
+      <c r="B172" s="210"/>
       <c r="C172" s="74" t="s">
         <v>549</v>
       </c>
@@ -19377,11 +19390,11 @@
         <v>8.7449999999999992</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="212" t="s">
+    <row r="173" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="205" t="s">
         <v>550</v>
       </c>
-      <c r="B173" s="209">
+      <c r="B173" s="208">
         <v>10.718</v>
       </c>
       <c r="C173" s="74" t="s">
@@ -19391,9 +19404,9 @@
         <v>8.5809999999999995</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="213"/>
-      <c r="B174" s="210"/>
+    <row r="174" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="206"/>
+      <c r="B174" s="209"/>
       <c r="C174" s="74" t="s">
         <v>552</v>
       </c>
@@ -19401,9 +19414,9 @@
         <v>9.9990000000000006</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="213"/>
-      <c r="B175" s="210"/>
+    <row r="175" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="206"/>
+      <c r="B175" s="209"/>
       <c r="C175" s="74" t="s">
         <v>553</v>
       </c>
@@ -19411,9 +19424,9 @@
         <v>12.576000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="213"/>
-      <c r="B176" s="210"/>
+    <row r="176" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="206"/>
+      <c r="B176" s="209"/>
       <c r="C176" s="74" t="s">
         <v>554</v>
       </c>
@@ -19421,9 +19434,9 @@
         <v>12.786</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="213"/>
-      <c r="B177" s="210"/>
+    <row r="177" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="206"/>
+      <c r="B177" s="209"/>
       <c r="C177" s="74" t="s">
         <v>555</v>
       </c>
@@ -19431,9 +19444,9 @@
         <v>10.106</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="214"/>
-      <c r="B178" s="211"/>
+    <row r="178" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="207"/>
+      <c r="B178" s="210"/>
       <c r="C178" s="74" t="s">
         <v>556</v>
       </c>
@@ -19441,33 +19454,33 @@
         <v>9.3819999999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="196" t="s">
+    <row r="179" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="211" t="s">
         <v>359</v>
       </c>
-      <c r="B179" s="197"/>
-      <c r="C179" s="197"/>
-      <c r="D179" s="198"/>
-    </row>
-    <row r="180" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="199" t="s">
+      <c r="B179" s="212"/>
+      <c r="C179" s="212"/>
+      <c r="D179" s="213"/>
+    </row>
+    <row r="180" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="214" t="s">
         <v>360</v>
       </c>
-      <c r="B180" s="200"/>
-      <c r="C180" s="200"/>
-      <c r="D180" s="201"/>
-    </row>
-    <row r="181" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="202" t="s">
+      <c r="B180" s="215"/>
+      <c r="C180" s="215"/>
+      <c r="D180" s="216"/>
+    </row>
+    <row r="181" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="217" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="203"/>
-      <c r="C181" s="204" t="s">
+      <c r="B181" s="218"/>
+      <c r="C181" s="219" t="s">
         <v>362</v>
       </c>
-      <c r="D181" s="205"/>
-    </row>
-    <row r="182" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D181" s="220"/>
+    </row>
+    <row r="182" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="70" t="s">
         <v>363</v>
       </c>
@@ -19481,11 +19494,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="212" t="s">
+    <row r="183" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="205" t="s">
         <v>557</v>
       </c>
-      <c r="B183" s="209">
+      <c r="B183" s="208">
         <v>7.2130000000000001</v>
       </c>
       <c r="C183" s="74" t="s">
@@ -19495,9 +19508,9 @@
         <v>6.8040000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="213"/>
-      <c r="B184" s="210"/>
+    <row r="184" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="206"/>
+      <c r="B184" s="209"/>
       <c r="C184" s="74" t="s">
         <v>559</v>
       </c>
@@ -19505,9 +19518,9 @@
         <v>6.8959999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="213"/>
-      <c r="B185" s="210"/>
+    <row r="185" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="206"/>
+      <c r="B185" s="209"/>
       <c r="C185" s="74" t="s">
         <v>560</v>
       </c>
@@ -19515,9 +19528,9 @@
         <v>7.6929999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="213"/>
-      <c r="B186" s="210"/>
+    <row r="186" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="206"/>
+      <c r="B186" s="209"/>
       <c r="C186" s="74" t="s">
         <v>561</v>
       </c>
@@ -19525,9 +19538,9 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="213"/>
-      <c r="B187" s="210"/>
+    <row r="187" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="206"/>
+      <c r="B187" s="209"/>
       <c r="C187" s="74" t="s">
         <v>562</v>
       </c>
@@ -19535,9 +19548,9 @@
         <v>7.1639999999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="214"/>
-      <c r="B188" s="211"/>
+    <row r="188" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="207"/>
+      <c r="B188" s="210"/>
       <c r="C188" s="74" t="s">
         <v>563</v>
       </c>
@@ -19545,11 +19558,11 @@
         <v>6.835</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="212" t="s">
+    <row r="189" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="205" t="s">
         <v>564</v>
       </c>
-      <c r="B189" s="209">
+      <c r="B189" s="208">
         <v>7.093</v>
       </c>
       <c r="C189" s="74" t="s">
@@ -19559,9 +19572,9 @@
         <v>6.2830000000000004</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="213"/>
-      <c r="B190" s="210"/>
+    <row r="190" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="206"/>
+      <c r="B190" s="209"/>
       <c r="C190" s="74" t="s">
         <v>566</v>
       </c>
@@ -19569,9 +19582,9 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="213"/>
-      <c r="B191" s="210"/>
+    <row r="191" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="206"/>
+      <c r="B191" s="209"/>
       <c r="C191" s="74" t="s">
         <v>567</v>
       </c>
@@ -19579,9 +19592,9 @@
         <v>7.9710000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="213"/>
-      <c r="B192" s="210"/>
+    <row r="192" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="206"/>
+      <c r="B192" s="209"/>
       <c r="C192" s="74" t="s">
         <v>568</v>
       </c>
@@ -19589,9 +19602,9 @@
         <v>7.9690000000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="213"/>
-      <c r="B193" s="210"/>
+    <row r="193" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="206"/>
+      <c r="B193" s="209"/>
       <c r="C193" s="74" t="s">
         <v>569</v>
       </c>
@@ -19599,9 +19612,9 @@
         <v>6.7709999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="214"/>
-      <c r="B194" s="211"/>
+    <row r="194" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="207"/>
+      <c r="B194" s="210"/>
       <c r="C194" s="74" t="s">
         <v>570</v>
       </c>
@@ -19611,6 +19624,78 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="B173:B178"/>
     <mergeCell ref="A189:A194"/>
     <mergeCell ref="B189:B194"/>
     <mergeCell ref="A179:D179"/>
@@ -19619,78 +19704,6 @@
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="A183:A188"/>
     <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/whatif/whatif.xlsx
+++ b/whatif/whatif.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="623">
   <si>
     <t>Rates</t>
   </si>
@@ -3596,6 +3596,9 @@
   </si>
   <si>
     <t>Mass Power Choice</t>
+  </si>
+  <si>
+    <t>Good Energy</t>
   </si>
 </sst>
 </file>
@@ -5385,23 +5388,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
@@ -5436,14 +5424,29 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -14829,8 +14832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14838,7 +14841,7 @@
     <col min="1" max="1" width="20.89453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.20703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.89453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.68359375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.68359375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="5" bestFit="1" customWidth="1"/>
@@ -14992,6 +14995,9 @@
       <c r="D9" s="6">
         <v>1</v>
       </c>
+      <c r="E9" s="205" t="s">
+        <v>621</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>195</v>
       </c>
@@ -15073,7 +15079,7 @@
       <c r="C15">
         <v>11.494</v>
       </c>
-      <c r="E15" s="224" t="s">
+      <c r="E15" s="205" t="s">
         <v>621</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -15207,6 +15213,9 @@
       </c>
       <c r="C25">
         <v>10.624000000000001</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>622</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>201</v>
@@ -15477,9 +15486,10 @@
     <hyperlink ref="B34" r:id="rId14"/>
     <hyperlink ref="A38" r:id="rId15"/>
     <hyperlink ref="E15" r:id="rId16"/>
+    <hyperlink ref="E9" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -17559,30 +17569,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="208"/>
     </row>
     <row r="2" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="216"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="211"/>
     </row>
     <row r="3" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="219" t="s">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="220"/>
+      <c r="D3" s="215"/>
     </row>
     <row r="4" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="70" t="s">
@@ -17599,10 +17609,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="216" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="208">
+      <c r="B5" s="219">
         <v>13.718</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -17613,8 +17623,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="223"/>
-      <c r="B6" s="209"/>
+      <c r="A6" s="217"/>
+      <c r="B6" s="220"/>
       <c r="C6" s="74" t="s">
         <v>368</v>
       </c>
@@ -17623,8 +17633,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="223"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="220"/>
       <c r="C7" s="74" t="s">
         <v>369</v>
       </c>
@@ -17633,8 +17643,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="223"/>
-      <c r="B8" s="209"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="74" t="s">
         <v>370</v>
       </c>
@@ -17643,8 +17653,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="223"/>
-      <c r="B9" s="209"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="74" t="s">
         <v>371</v>
       </c>
@@ -17653,8 +17663,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="222"/>
-      <c r="B10" s="210"/>
+      <c r="A10" s="218"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="74" t="s">
         <v>372</v>
       </c>
@@ -17663,10 +17673,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="221" t="s">
+      <c r="A11" s="216" t="s">
         <v>373</v>
       </c>
-      <c r="B11" s="208">
+      <c r="B11" s="219">
         <v>10.87</v>
       </c>
       <c r="C11" s="74" t="s">
@@ -17677,8 +17687,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="223"/>
-      <c r="B12" s="209"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="220"/>
       <c r="C12" s="74" t="s">
         <v>375</v>
       </c>
@@ -17687,8 +17697,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="223"/>
-      <c r="B13" s="209"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="220"/>
       <c r="C13" s="74" t="s">
         <v>376</v>
       </c>
@@ -17697,8 +17707,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="223"/>
-      <c r="B14" s="209"/>
+      <c r="A14" s="217"/>
+      <c r="B14" s="220"/>
       <c r="C14" s="74" t="s">
         <v>377</v>
       </c>
@@ -17707,8 +17717,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="223"/>
-      <c r="B15" s="209"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="74" t="s">
         <v>378</v>
       </c>
@@ -17717,8 +17727,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="222"/>
-      <c r="B16" s="210"/>
+      <c r="A16" s="218"/>
+      <c r="B16" s="221"/>
       <c r="C16" s="74" t="s">
         <v>379</v>
       </c>
@@ -17727,10 +17737,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="221" t="s">
+      <c r="A17" s="216" t="s">
         <v>380</v>
       </c>
-      <c r="B17" s="208">
+      <c r="B17" s="219">
         <v>12.673</v>
       </c>
       <c r="C17" s="74" t="s">
@@ -17741,8 +17751,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="223"/>
-      <c r="B18" s="209"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="220"/>
       <c r="C18" s="74" t="s">
         <v>382</v>
       </c>
@@ -17751,8 +17761,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="223"/>
-      <c r="B19" s="209"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="74" t="s">
         <v>383</v>
       </c>
@@ -17761,8 +17771,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="223"/>
-      <c r="B20" s="209"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="74" t="s">
         <v>384</v>
       </c>
@@ -17771,8 +17781,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="223"/>
-      <c r="B21" s="209"/>
+      <c r="A21" s="217"/>
+      <c r="B21" s="220"/>
       <c r="C21" s="74" t="s">
         <v>385</v>
       </c>
@@ -17781,8 +17791,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="222"/>
-      <c r="B22" s="210"/>
+      <c r="A22" s="218"/>
+      <c r="B22" s="221"/>
       <c r="C22" s="74" t="s">
         <v>386</v>
       </c>
@@ -17791,10 +17801,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="221" t="s">
+      <c r="A23" s="216" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="208">
+      <c r="B23" s="219">
         <v>9.4320000000000004</v>
       </c>
       <c r="C23" s="74" t="s">
@@ -17805,8 +17815,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="223"/>
-      <c r="B24" s="209"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="220"/>
       <c r="C24" s="74" t="s">
         <v>389</v>
       </c>
@@ -17815,8 +17825,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="223"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="220"/>
       <c r="C25" s="74" t="s">
         <v>390</v>
       </c>
@@ -17825,8 +17835,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="223"/>
-      <c r="B26" s="209"/>
+      <c r="A26" s="217"/>
+      <c r="B26" s="220"/>
       <c r="C26" s="74" t="s">
         <v>391</v>
       </c>
@@ -17835,8 +17845,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="223"/>
-      <c r="B27" s="209"/>
+      <c r="A27" s="217"/>
+      <c r="B27" s="220"/>
       <c r="C27" s="74" t="s">
         <v>392</v>
       </c>
@@ -17845,8 +17855,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="222"/>
-      <c r="B28" s="210"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="221"/>
       <c r="C28" s="74" t="s">
         <v>393</v>
       </c>
@@ -17855,10 +17865,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="221" t="s">
+      <c r="A29" s="216" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="208">
+      <c r="B29" s="219">
         <v>9.7870000000000008</v>
       </c>
       <c r="C29" s="74" t="s">
@@ -17869,8 +17879,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="223"/>
-      <c r="B30" s="209"/>
+      <c r="A30" s="217"/>
+      <c r="B30" s="220"/>
       <c r="C30" s="74" t="s">
         <v>396</v>
       </c>
@@ -17879,8 +17889,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="223"/>
-      <c r="B31" s="209"/>
+      <c r="A31" s="217"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="74" t="s">
         <v>397</v>
       </c>
@@ -17889,8 +17899,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="223"/>
-      <c r="B32" s="209"/>
+      <c r="A32" s="217"/>
+      <c r="B32" s="220"/>
       <c r="C32" s="74" t="s">
         <v>398</v>
       </c>
@@ -17899,8 +17909,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="223"/>
-      <c r="B33" s="209"/>
+      <c r="A33" s="217"/>
+      <c r="B33" s="220"/>
       <c r="C33" s="74" t="s">
         <v>399</v>
       </c>
@@ -17909,8 +17919,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="222"/>
-      <c r="B34" s="210"/>
+      <c r="A34" s="218"/>
+      <c r="B34" s="221"/>
       <c r="C34" s="74" t="s">
         <v>400</v>
       </c>
@@ -17933,10 +17943,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="205" t="s">
+      <c r="A36" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="208">
+      <c r="B36" s="219">
         <v>8.0419999999999998</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -17947,8 +17957,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="206"/>
-      <c r="B37" s="209"/>
+      <c r="A37" s="223"/>
+      <c r="B37" s="220"/>
       <c r="C37" s="74" t="s">
         <v>405</v>
       </c>
@@ -17957,8 +17967,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="206"/>
-      <c r="B38" s="209"/>
+      <c r="A38" s="223"/>
+      <c r="B38" s="220"/>
       <c r="C38" s="74" t="s">
         <v>406</v>
       </c>
@@ -17967,8 +17977,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="206"/>
-      <c r="B39" s="209"/>
+      <c r="A39" s="223"/>
+      <c r="B39" s="220"/>
       <c r="C39" s="74" t="s">
         <v>407</v>
       </c>
@@ -17977,8 +17987,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="207"/>
-      <c r="B40" s="210"/>
+      <c r="A40" s="224"/>
+      <c r="B40" s="221"/>
       <c r="C40" s="74" t="s">
         <v>408</v>
       </c>
@@ -17987,10 +17997,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="221" t="s">
+      <c r="A41" s="216" t="s">
         <v>409</v>
       </c>
-      <c r="B41" s="208">
+      <c r="B41" s="219">
         <v>13.038</v>
       </c>
       <c r="C41" s="74" t="s">
@@ -18001,8 +18011,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="223"/>
-      <c r="B42" s="209"/>
+      <c r="A42" s="217"/>
+      <c r="B42" s="220"/>
       <c r="C42" s="74" t="s">
         <v>411</v>
       </c>
@@ -18011,8 +18021,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="223"/>
-      <c r="B43" s="209"/>
+      <c r="A43" s="217"/>
+      <c r="B43" s="220"/>
       <c r="C43" s="74" t="s">
         <v>412</v>
       </c>
@@ -18021,8 +18031,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="223"/>
-      <c r="B44" s="209"/>
+      <c r="A44" s="217"/>
+      <c r="B44" s="220"/>
       <c r="C44" s="74" t="s">
         <v>413</v>
       </c>
@@ -18031,8 +18041,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="223"/>
-      <c r="B45" s="209"/>
+      <c r="A45" s="217"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="74" t="s">
         <v>414</v>
       </c>
@@ -18041,8 +18051,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="222"/>
-      <c r="B46" s="210"/>
+      <c r="A46" s="218"/>
+      <c r="B46" s="221"/>
       <c r="C46" s="74" t="s">
         <v>415</v>
       </c>
@@ -18051,30 +18061,30 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="211" t="s">
+      <c r="A47" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B47" s="212"/>
-      <c r="C47" s="212"/>
-      <c r="D47" s="213"/>
+      <c r="B47" s="207"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="208"/>
     </row>
     <row r="48" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="214" t="s">
+      <c r="A48" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B48" s="215"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="216"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="211"/>
     </row>
     <row r="49" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="217" t="s">
+      <c r="A49" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B49" s="218"/>
-      <c r="C49" s="219" t="s">
+      <c r="B49" s="213"/>
+      <c r="C49" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="220"/>
+      <c r="D49" s="215"/>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="70" t="s">
@@ -18091,10 +18101,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="221" t="s">
+      <c r="A51" s="216" t="s">
         <v>416</v>
       </c>
-      <c r="B51" s="208">
+      <c r="B51" s="219">
         <v>9.2569999999999997</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -18105,8 +18115,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="223"/>
-      <c r="B52" s="209"/>
+      <c r="A52" s="217"/>
+      <c r="B52" s="220"/>
       <c r="C52" s="74" t="s">
         <v>418</v>
       </c>
@@ -18115,8 +18125,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="223"/>
-      <c r="B53" s="209"/>
+      <c r="A53" s="217"/>
+      <c r="B53" s="220"/>
       <c r="C53" s="74" t="s">
         <v>419</v>
       </c>
@@ -18125,8 +18135,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="223"/>
-      <c r="B54" s="209"/>
+      <c r="A54" s="217"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="74" t="s">
         <v>420</v>
       </c>
@@ -18135,8 +18145,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="223"/>
-      <c r="B55" s="209"/>
+      <c r="A55" s="217"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="74" t="s">
         <v>421</v>
       </c>
@@ -18145,8 +18155,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="222"/>
-      <c r="B56" s="210"/>
+      <c r="A56" s="218"/>
+      <c r="B56" s="221"/>
       <c r="C56" s="74" t="s">
         <v>422</v>
       </c>
@@ -18155,10 +18165,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="221" t="s">
+      <c r="A57" s="216" t="s">
         <v>423</v>
       </c>
-      <c r="B57" s="208">
+      <c r="B57" s="219">
         <v>16.273</v>
       </c>
       <c r="C57" s="74" t="s">
@@ -18169,8 +18179,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="223"/>
-      <c r="B58" s="209"/>
+      <c r="A58" s="217"/>
+      <c r="B58" s="220"/>
       <c r="C58" s="74" t="s">
         <v>425</v>
       </c>
@@ -18179,8 +18189,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="223"/>
-      <c r="B59" s="209"/>
+      <c r="A59" s="217"/>
+      <c r="B59" s="220"/>
       <c r="C59" s="74" t="s">
         <v>426</v>
       </c>
@@ -18189,8 +18199,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="223"/>
-      <c r="B60" s="209"/>
+      <c r="A60" s="217"/>
+      <c r="B60" s="220"/>
       <c r="C60" s="74" t="s">
         <v>427</v>
       </c>
@@ -18199,8 +18209,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="223"/>
-      <c r="B61" s="209"/>
+      <c r="A61" s="217"/>
+      <c r="B61" s="220"/>
       <c r="C61" s="74" t="s">
         <v>428</v>
       </c>
@@ -18209,8 +18219,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="222"/>
-      <c r="B62" s="210"/>
+      <c r="A62" s="218"/>
+      <c r="B62" s="221"/>
       <c r="C62" s="74" t="s">
         <v>429</v>
       </c>
@@ -18219,10 +18229,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="221" t="s">
+      <c r="A63" s="216" t="s">
         <v>430</v>
       </c>
-      <c r="B63" s="208">
+      <c r="B63" s="219">
         <v>8.2769999999999992</v>
       </c>
       <c r="C63" s="74" t="s">
@@ -18233,8 +18243,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="223"/>
-      <c r="B64" s="209"/>
+      <c r="A64" s="217"/>
+      <c r="B64" s="220"/>
       <c r="C64" s="74" t="s">
         <v>432</v>
       </c>
@@ -18243,8 +18253,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="223"/>
-      <c r="B65" s="209"/>
+      <c r="A65" s="217"/>
+      <c r="B65" s="220"/>
       <c r="C65" s="74" t="s">
         <v>433</v>
       </c>
@@ -18253,8 +18263,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="223"/>
-      <c r="B66" s="209"/>
+      <c r="A66" s="217"/>
+      <c r="B66" s="220"/>
       <c r="C66" s="74" t="s">
         <v>434</v>
       </c>
@@ -18263,8 +18273,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="223"/>
-      <c r="B67" s="209"/>
+      <c r="A67" s="217"/>
+      <c r="B67" s="220"/>
       <c r="C67" s="74" t="s">
         <v>435</v>
       </c>
@@ -18273,8 +18283,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="222"/>
-      <c r="B68" s="210"/>
+      <c r="A68" s="218"/>
+      <c r="B68" s="221"/>
       <c r="C68" s="74" t="s">
         <v>436</v>
       </c>
@@ -18283,10 +18293,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="221" t="s">
+      <c r="A69" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="B69" s="208">
+      <c r="B69" s="219">
         <v>10.025</v>
       </c>
       <c r="C69" s="74" t="s">
@@ -18297,8 +18307,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="223"/>
-      <c r="B70" s="209"/>
+      <c r="A70" s="217"/>
+      <c r="B70" s="220"/>
       <c r="C70" s="74" t="s">
         <v>439</v>
       </c>
@@ -18307,8 +18317,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="223"/>
-      <c r="B71" s="209"/>
+      <c r="A71" s="217"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="74" t="s">
         <v>440</v>
       </c>
@@ -18317,8 +18327,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="223"/>
-      <c r="B72" s="209"/>
+      <c r="A72" s="217"/>
+      <c r="B72" s="220"/>
       <c r="C72" s="74" t="s">
         <v>441</v>
       </c>
@@ -18327,8 +18337,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="223"/>
-      <c r="B73" s="209"/>
+      <c r="A73" s="217"/>
+      <c r="B73" s="220"/>
       <c r="C73" s="74" t="s">
         <v>442</v>
       </c>
@@ -18337,8 +18347,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="222"/>
-      <c r="B74" s="210"/>
+      <c r="A74" s="218"/>
+      <c r="B74" s="221"/>
       <c r="C74" s="74" t="s">
         <v>443</v>
       </c>
@@ -18347,10 +18357,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="221" t="s">
+      <c r="A75" s="216" t="s">
         <v>444</v>
       </c>
-      <c r="B75" s="208">
+      <c r="B75" s="219">
         <v>7.2510000000000003</v>
       </c>
       <c r="C75" s="74" t="s">
@@ -18361,8 +18371,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="223"/>
-      <c r="B76" s="209"/>
+      <c r="A76" s="217"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="74" t="s">
         <v>446</v>
       </c>
@@ -18371,8 +18381,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="223"/>
-      <c r="B77" s="209"/>
+      <c r="A77" s="217"/>
+      <c r="B77" s="220"/>
       <c r="C77" s="74" t="s">
         <v>447</v>
       </c>
@@ -18381,8 +18391,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="223"/>
-      <c r="B78" s="209"/>
+      <c r="A78" s="217"/>
+      <c r="B78" s="220"/>
       <c r="C78" s="74" t="s">
         <v>448</v>
       </c>
@@ -18391,8 +18401,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="223"/>
-      <c r="B79" s="209"/>
+      <c r="A79" s="217"/>
+      <c r="B79" s="220"/>
       <c r="C79" s="74" t="s">
         <v>449</v>
       </c>
@@ -18401,8 +18411,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="222"/>
-      <c r="B80" s="210"/>
+      <c r="A80" s="218"/>
+      <c r="B80" s="221"/>
       <c r="C80" s="74" t="s">
         <v>450</v>
       </c>
@@ -18411,10 +18421,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="221" t="s">
+      <c r="A81" s="216" t="s">
         <v>451</v>
       </c>
-      <c r="B81" s="208">
+      <c r="B81" s="219">
         <v>7.3140000000000001</v>
       </c>
       <c r="C81" s="74" t="s">
@@ -18425,8 +18435,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="223"/>
-      <c r="B82" s="209"/>
+      <c r="A82" s="217"/>
+      <c r="B82" s="220"/>
       <c r="C82" s="74" t="s">
         <v>453</v>
       </c>
@@ -18435,8 +18445,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="223"/>
-      <c r="B83" s="209"/>
+      <c r="A83" s="217"/>
+      <c r="B83" s="220"/>
       <c r="C83" s="74" t="s">
         <v>454</v>
       </c>
@@ -18445,8 +18455,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="223"/>
-      <c r="B84" s="209"/>
+      <c r="A84" s="217"/>
+      <c r="B84" s="220"/>
       <c r="C84" s="74" t="s">
         <v>455</v>
       </c>
@@ -18455,8 +18465,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="223"/>
-      <c r="B85" s="209"/>
+      <c r="A85" s="217"/>
+      <c r="B85" s="220"/>
       <c r="C85" s="74" t="s">
         <v>456</v>
       </c>
@@ -18465,8 +18475,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="222"/>
-      <c r="B86" s="210"/>
+      <c r="A86" s="218"/>
+      <c r="B86" s="221"/>
       <c r="C86" s="74" t="s">
         <v>457</v>
       </c>
@@ -18475,10 +18485,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="221" t="s">
+      <c r="A87" s="216" t="s">
         <v>458</v>
       </c>
-      <c r="B87" s="208">
+      <c r="B87" s="219">
         <v>6.718</v>
       </c>
       <c r="C87" s="74" t="s">
@@ -18489,8 +18499,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="223"/>
-      <c r="B88" s="209"/>
+      <c r="A88" s="217"/>
+      <c r="B88" s="220"/>
       <c r="C88" s="74" t="s">
         <v>460</v>
       </c>
@@ -18499,8 +18509,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="223"/>
-      <c r="B89" s="209"/>
+      <c r="A89" s="217"/>
+      <c r="B89" s="220"/>
       <c r="C89" s="74" t="s">
         <v>461</v>
       </c>
@@ -18509,8 +18519,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="223"/>
-      <c r="B90" s="209"/>
+      <c r="A90" s="217"/>
+      <c r="B90" s="220"/>
       <c r="C90" s="74" t="s">
         <v>462</v>
       </c>
@@ -18519,8 +18529,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="223"/>
-      <c r="B91" s="209"/>
+      <c r="A91" s="217"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="74" t="s">
         <v>463</v>
       </c>
@@ -18529,8 +18539,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="222"/>
-      <c r="B92" s="210"/>
+      <c r="A92" s="218"/>
+      <c r="B92" s="221"/>
       <c r="C92" s="74" t="s">
         <v>464</v>
       </c>
@@ -18539,30 +18549,30 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="211" t="s">
+      <c r="A93" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B93" s="212"/>
-      <c r="C93" s="212"/>
-      <c r="D93" s="213"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="207"/>
+      <c r="D93" s="208"/>
     </row>
     <row r="94" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="214" t="s">
+      <c r="A94" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B94" s="215"/>
-      <c r="C94" s="215"/>
-      <c r="D94" s="216"/>
+      <c r="B94" s="210"/>
+      <c r="C94" s="210"/>
+      <c r="D94" s="211"/>
     </row>
     <row r="95" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="217" t="s">
+      <c r="A95" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B95" s="218"/>
-      <c r="C95" s="219" t="s">
+      <c r="B95" s="213"/>
+      <c r="C95" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D95" s="220"/>
+      <c r="D95" s="215"/>
     </row>
     <row r="96" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="70" t="s">
@@ -18579,10 +18589,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="205" t="s">
+      <c r="A97" s="222" t="s">
         <v>465</v>
       </c>
-      <c r="B97" s="208">
+      <c r="B97" s="219">
         <v>8.2650000000000006</v>
       </c>
       <c r="C97" s="74" t="s">
@@ -18593,8 +18603,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="206"/>
-      <c r="B98" s="209"/>
+      <c r="A98" s="223"/>
+      <c r="B98" s="220"/>
       <c r="C98" s="74" t="s">
         <v>467</v>
       </c>
@@ -18603,8 +18613,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="206"/>
-      <c r="B99" s="209"/>
+      <c r="A99" s="223"/>
+      <c r="B99" s="220"/>
       <c r="C99" s="74" t="s">
         <v>468</v>
       </c>
@@ -18613,8 +18623,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="206"/>
-      <c r="B100" s="209"/>
+      <c r="A100" s="223"/>
+      <c r="B100" s="220"/>
       <c r="C100" s="74" t="s">
         <v>469</v>
       </c>
@@ -18623,8 +18633,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="206"/>
-      <c r="B101" s="209"/>
+      <c r="A101" s="223"/>
+      <c r="B101" s="220"/>
       <c r="C101" s="74" t="s">
         <v>470</v>
       </c>
@@ -18633,8 +18643,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="207"/>
-      <c r="B102" s="210"/>
+      <c r="A102" s="224"/>
+      <c r="B102" s="221"/>
       <c r="C102" s="74" t="s">
         <v>471</v>
       </c>
@@ -18643,10 +18653,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="205" t="s">
+      <c r="A103" s="222" t="s">
         <v>472</v>
       </c>
-      <c r="B103" s="208">
+      <c r="B103" s="219">
         <v>7.282</v>
       </c>
       <c r="C103" s="74" t="s">
@@ -18657,8 +18667,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="206"/>
-      <c r="B104" s="209"/>
+      <c r="A104" s="223"/>
+      <c r="B104" s="220"/>
       <c r="C104" s="74" t="s">
         <v>474</v>
       </c>
@@ -18667,8 +18677,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="206"/>
-      <c r="B105" s="209"/>
+      <c r="A105" s="223"/>
+      <c r="B105" s="220"/>
       <c r="C105" s="74" t="s">
         <v>475</v>
       </c>
@@ -18677,8 +18687,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="206"/>
-      <c r="B106" s="209"/>
+      <c r="A106" s="223"/>
+      <c r="B106" s="220"/>
       <c r="C106" s="74" t="s">
         <v>476</v>
       </c>
@@ -18687,8 +18697,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="206"/>
-      <c r="B107" s="209"/>
+      <c r="A107" s="223"/>
+      <c r="B107" s="220"/>
       <c r="C107" s="74" t="s">
         <v>477</v>
       </c>
@@ -18697,8 +18707,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="207"/>
-      <c r="B108" s="210"/>
+      <c r="A108" s="224"/>
+      <c r="B108" s="221"/>
       <c r="C108" s="74" t="s">
         <v>478</v>
       </c>
@@ -18707,10 +18717,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="205" t="s">
+      <c r="A109" s="222" t="s">
         <v>479</v>
       </c>
-      <c r="B109" s="208">
+      <c r="B109" s="219">
         <v>8.0830000000000002</v>
       </c>
       <c r="C109" s="74" t="s">
@@ -18721,8 +18731,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="206"/>
-      <c r="B110" s="209"/>
+      <c r="A110" s="223"/>
+      <c r="B110" s="220"/>
       <c r="C110" s="74" t="s">
         <v>481</v>
       </c>
@@ -18731,8 +18741,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="206"/>
-      <c r="B111" s="209"/>
+      <c r="A111" s="223"/>
+      <c r="B111" s="220"/>
       <c r="C111" s="74" t="s">
         <v>482</v>
       </c>
@@ -18741,8 +18751,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="206"/>
-      <c r="B112" s="209"/>
+      <c r="A112" s="223"/>
+      <c r="B112" s="220"/>
       <c r="C112" s="74" t="s">
         <v>483</v>
       </c>
@@ -18751,8 +18761,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="206"/>
-      <c r="B113" s="209"/>
+      <c r="A113" s="223"/>
+      <c r="B113" s="220"/>
       <c r="C113" s="74" t="s">
         <v>484</v>
       </c>
@@ -18761,8 +18771,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="207"/>
-      <c r="B114" s="210"/>
+      <c r="A114" s="224"/>
+      <c r="B114" s="221"/>
       <c r="C114" s="74" t="s">
         <v>485</v>
       </c>
@@ -18771,10 +18781,10 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="205" t="s">
+      <c r="A115" s="222" t="s">
         <v>486</v>
       </c>
-      <c r="B115" s="208">
+      <c r="B115" s="219">
         <v>8.11</v>
       </c>
       <c r="C115" s="74" t="s">
@@ -18785,8 +18795,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="206"/>
-      <c r="B116" s="209"/>
+      <c r="A116" s="223"/>
+      <c r="B116" s="220"/>
       <c r="C116" s="74" t="s">
         <v>488</v>
       </c>
@@ -18795,8 +18805,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="206"/>
-      <c r="B117" s="209"/>
+      <c r="A117" s="223"/>
+      <c r="B117" s="220"/>
       <c r="C117" s="74" t="s">
         <v>489</v>
       </c>
@@ -18805,8 +18815,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="206"/>
-      <c r="B118" s="209"/>
+      <c r="A118" s="223"/>
+      <c r="B118" s="220"/>
       <c r="C118" s="74" t="s">
         <v>490</v>
       </c>
@@ -18815,8 +18825,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="206"/>
-      <c r="B119" s="209"/>
+      <c r="A119" s="223"/>
+      <c r="B119" s="220"/>
       <c r="C119" s="74" t="s">
         <v>491</v>
       </c>
@@ -18825,8 +18835,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="207"/>
-      <c r="B120" s="210"/>
+      <c r="A120" s="224"/>
+      <c r="B120" s="221"/>
       <c r="C120" s="74" t="s">
         <v>492</v>
       </c>
@@ -18835,10 +18845,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="205" t="s">
+      <c r="A121" s="222" t="s">
         <v>493</v>
       </c>
-      <c r="B121" s="208">
+      <c r="B121" s="219">
         <v>8.8279999999999994</v>
       </c>
       <c r="C121" s="74" t="s">
@@ -18849,8 +18859,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="206"/>
-      <c r="B122" s="209"/>
+      <c r="A122" s="223"/>
+      <c r="B122" s="220"/>
       <c r="C122" s="74" t="s">
         <v>495</v>
       </c>
@@ -18859,8 +18869,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="206"/>
-      <c r="B123" s="209"/>
+      <c r="A123" s="223"/>
+      <c r="B123" s="220"/>
       <c r="C123" s="74" t="s">
         <v>496</v>
       </c>
@@ -18869,8 +18879,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="207"/>
-      <c r="B124" s="210"/>
+      <c r="A124" s="224"/>
+      <c r="B124" s="221"/>
       <c r="C124" s="74" t="s">
         <v>497</v>
       </c>
@@ -18879,10 +18889,10 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="221" t="s">
+      <c r="A125" s="216" t="s">
         <v>498</v>
       </c>
-      <c r="B125" s="208">
+      <c r="B125" s="219">
         <v>8.6389999999999993</v>
       </c>
       <c r="C125" s="74" t="s">
@@ -18893,8 +18903,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="222"/>
-      <c r="B126" s="210"/>
+      <c r="A126" s="218"/>
+      <c r="B126" s="221"/>
       <c r="C126" s="74" t="s">
         <v>500</v>
       </c>
@@ -18903,10 +18913,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="205" t="s">
+      <c r="A127" s="222" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="208">
+      <c r="B127" s="219">
         <v>9.7140000000000004</v>
       </c>
       <c r="C127" s="74" t="s">
@@ -18917,8 +18927,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="206"/>
-      <c r="B128" s="209"/>
+      <c r="A128" s="223"/>
+      <c r="B128" s="220"/>
       <c r="C128" s="74" t="s">
         <v>503</v>
       </c>
@@ -18927,8 +18937,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="206"/>
-      <c r="B129" s="209"/>
+      <c r="A129" s="223"/>
+      <c r="B129" s="220"/>
       <c r="C129" s="74" t="s">
         <v>504</v>
       </c>
@@ -18937,8 +18947,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="206"/>
-      <c r="B130" s="209"/>
+      <c r="A130" s="223"/>
+      <c r="B130" s="220"/>
       <c r="C130" s="74" t="s">
         <v>505</v>
       </c>
@@ -18947,8 +18957,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="206"/>
-      <c r="B131" s="209"/>
+      <c r="A131" s="223"/>
+      <c r="B131" s="220"/>
       <c r="C131" s="74" t="s">
         <v>506</v>
       </c>
@@ -18957,8 +18967,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="207"/>
-      <c r="B132" s="210"/>
+      <c r="A132" s="224"/>
+      <c r="B132" s="221"/>
       <c r="C132" s="74" t="s">
         <v>507</v>
       </c>
@@ -18967,10 +18977,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="205" t="s">
+      <c r="A133" s="222" t="s">
         <v>508</v>
       </c>
-      <c r="B133" s="208">
+      <c r="B133" s="219">
         <v>12.66</v>
       </c>
       <c r="C133" s="74" t="s">
@@ -18981,8 +18991,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="206"/>
-      <c r="B134" s="209"/>
+      <c r="A134" s="223"/>
+      <c r="B134" s="220"/>
       <c r="C134" s="74" t="s">
         <v>510</v>
       </c>
@@ -18991,8 +19001,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="206"/>
-      <c r="B135" s="209"/>
+      <c r="A135" s="223"/>
+      <c r="B135" s="220"/>
       <c r="C135" s="74" t="s">
         <v>511</v>
       </c>
@@ -19001,8 +19011,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="206"/>
-      <c r="B136" s="209"/>
+      <c r="A136" s="223"/>
+      <c r="B136" s="220"/>
       <c r="C136" s="74" t="s">
         <v>512</v>
       </c>
@@ -19011,8 +19021,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="206"/>
-      <c r="B137" s="209"/>
+      <c r="A137" s="223"/>
+      <c r="B137" s="220"/>
       <c r="C137" s="74" t="s">
         <v>513</v>
       </c>
@@ -19021,8 +19031,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="207"/>
-      <c r="B138" s="210"/>
+      <c r="A138" s="224"/>
+      <c r="B138" s="221"/>
       <c r="C138" s="74" t="s">
         <v>514</v>
       </c>
@@ -19031,30 +19041,30 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="211" t="s">
+      <c r="A139" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B139" s="212"/>
-      <c r="C139" s="212"/>
-      <c r="D139" s="213"/>
+      <c r="B139" s="207"/>
+      <c r="C139" s="207"/>
+      <c r="D139" s="208"/>
     </row>
     <row r="140" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="214" t="s">
+      <c r="A140" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B140" s="215"/>
-      <c r="C140" s="215"/>
-      <c r="D140" s="216"/>
+      <c r="B140" s="210"/>
+      <c r="C140" s="210"/>
+      <c r="D140" s="211"/>
     </row>
     <row r="141" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="217" t="s">
+      <c r="A141" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B141" s="218"/>
-      <c r="C141" s="219" t="s">
+      <c r="B141" s="213"/>
+      <c r="C141" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D141" s="220"/>
+      <c r="D141" s="215"/>
     </row>
     <row r="142" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="70" t="s">
@@ -19071,10 +19081,10 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="205" t="s">
+      <c r="A143" s="222" t="s">
         <v>515</v>
       </c>
-      <c r="B143" s="208">
+      <c r="B143" s="219">
         <v>11.79</v>
       </c>
       <c r="C143" s="74" t="s">
@@ -19085,8 +19095,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="206"/>
-      <c r="B144" s="209"/>
+      <c r="A144" s="223"/>
+      <c r="B144" s="220"/>
       <c r="C144" s="74" t="s">
         <v>517</v>
       </c>
@@ -19095,8 +19105,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="206"/>
-      <c r="B145" s="209"/>
+      <c r="A145" s="223"/>
+      <c r="B145" s="220"/>
       <c r="C145" s="74" t="s">
         <v>518</v>
       </c>
@@ -19105,8 +19115,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="206"/>
-      <c r="B146" s="209"/>
+      <c r="A146" s="223"/>
+      <c r="B146" s="220"/>
       <c r="C146" s="74" t="s">
         <v>519</v>
       </c>
@@ -19115,8 +19125,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="206"/>
-      <c r="B147" s="209"/>
+      <c r="A147" s="223"/>
+      <c r="B147" s="220"/>
       <c r="C147" s="74" t="s">
         <v>520</v>
       </c>
@@ -19125,8 +19135,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="207"/>
-      <c r="B148" s="210"/>
+      <c r="A148" s="224"/>
+      <c r="B148" s="221"/>
       <c r="C148" s="74" t="s">
         <v>521</v>
       </c>
@@ -19135,10 +19145,10 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="205" t="s">
+      <c r="A149" s="222" t="s">
         <v>522</v>
       </c>
-      <c r="B149" s="208">
+      <c r="B149" s="219">
         <v>10.919</v>
       </c>
       <c r="C149" s="74" t="s">
@@ -19149,8 +19159,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="206"/>
-      <c r="B150" s="209"/>
+      <c r="A150" s="223"/>
+      <c r="B150" s="220"/>
       <c r="C150" s="74" t="s">
         <v>524</v>
       </c>
@@ -19159,8 +19169,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="206"/>
-      <c r="B151" s="209"/>
+      <c r="A151" s="223"/>
+      <c r="B151" s="220"/>
       <c r="C151" s="74" t="s">
         <v>525</v>
       </c>
@@ -19169,8 +19179,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="206"/>
-      <c r="B152" s="209"/>
+      <c r="A152" s="223"/>
+      <c r="B152" s="220"/>
       <c r="C152" s="74" t="s">
         <v>526</v>
       </c>
@@ -19179,8 +19189,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="206"/>
-      <c r="B153" s="209"/>
+      <c r="A153" s="223"/>
+      <c r="B153" s="220"/>
       <c r="C153" s="74" t="s">
         <v>527</v>
       </c>
@@ -19189,8 +19199,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="207"/>
-      <c r="B154" s="210"/>
+      <c r="A154" s="224"/>
+      <c r="B154" s="221"/>
       <c r="C154" s="74" t="s">
         <v>528</v>
       </c>
@@ -19199,10 +19209,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="205" t="s">
+      <c r="A155" s="222" t="s">
         <v>529</v>
       </c>
-      <c r="B155" s="208">
+      <c r="B155" s="219">
         <v>10.215</v>
       </c>
       <c r="C155" s="74" t="s">
@@ -19213,8 +19223,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="206"/>
-      <c r="B156" s="209"/>
+      <c r="A156" s="223"/>
+      <c r="B156" s="220"/>
       <c r="C156" s="74" t="s">
         <v>531</v>
       </c>
@@ -19223,8 +19233,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="206"/>
-      <c r="B157" s="209"/>
+      <c r="A157" s="223"/>
+      <c r="B157" s="220"/>
       <c r="C157" s="74" t="s">
         <v>532</v>
       </c>
@@ -19233,8 +19243,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="206"/>
-      <c r="B158" s="209"/>
+      <c r="A158" s="223"/>
+      <c r="B158" s="220"/>
       <c r="C158" s="74" t="s">
         <v>533</v>
       </c>
@@ -19243,8 +19253,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="206"/>
-      <c r="B159" s="209"/>
+      <c r="A159" s="223"/>
+      <c r="B159" s="220"/>
       <c r="C159" s="74" t="s">
         <v>534</v>
       </c>
@@ -19253,8 +19263,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="207"/>
-      <c r="B160" s="210"/>
+      <c r="A160" s="224"/>
+      <c r="B160" s="221"/>
       <c r="C160" s="74" t="s">
         <v>535</v>
       </c>
@@ -19263,10 +19273,10 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="205" t="s">
+      <c r="A161" s="222" t="s">
         <v>536</v>
       </c>
-      <c r="B161" s="208">
+      <c r="B161" s="219">
         <v>11.672000000000001</v>
       </c>
       <c r="C161" s="74" t="s">
@@ -19277,8 +19287,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="206"/>
-      <c r="B162" s="209"/>
+      <c r="A162" s="223"/>
+      <c r="B162" s="220"/>
       <c r="C162" s="74" t="s">
         <v>538</v>
       </c>
@@ -19287,8 +19297,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="206"/>
-      <c r="B163" s="209"/>
+      <c r="A163" s="223"/>
+      <c r="B163" s="220"/>
       <c r="C163" s="74" t="s">
         <v>539</v>
       </c>
@@ -19297,8 +19307,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="206"/>
-      <c r="B164" s="209"/>
+      <c r="A164" s="223"/>
+      <c r="B164" s="220"/>
       <c r="C164" s="74" t="s">
         <v>540</v>
       </c>
@@ -19307,8 +19317,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="206"/>
-      <c r="B165" s="209"/>
+      <c r="A165" s="223"/>
+      <c r="B165" s="220"/>
       <c r="C165" s="74" t="s">
         <v>541</v>
       </c>
@@ -19317,8 +19327,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="207"/>
-      <c r="B166" s="210"/>
+      <c r="A166" s="224"/>
+      <c r="B166" s="221"/>
       <c r="C166" s="74" t="s">
         <v>542</v>
       </c>
@@ -19327,10 +19337,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="205" t="s">
+      <c r="A167" s="222" t="s">
         <v>543</v>
       </c>
-      <c r="B167" s="208">
+      <c r="B167" s="219">
         <v>9.6929999999999996</v>
       </c>
       <c r="C167" s="74" t="s">
@@ -19341,8 +19351,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="206"/>
-      <c r="B168" s="209"/>
+      <c r="A168" s="223"/>
+      <c r="B168" s="220"/>
       <c r="C168" s="74" t="s">
         <v>545</v>
       </c>
@@ -19351,8 +19361,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="206"/>
-      <c r="B169" s="209"/>
+      <c r="A169" s="223"/>
+      <c r="B169" s="220"/>
       <c r="C169" s="74" t="s">
         <v>546</v>
       </c>
@@ -19361,8 +19371,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="206"/>
-      <c r="B170" s="209"/>
+      <c r="A170" s="223"/>
+      <c r="B170" s="220"/>
       <c r="C170" s="74" t="s">
         <v>547</v>
       </c>
@@ -19371,8 +19381,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="206"/>
-      <c r="B171" s="209"/>
+      <c r="A171" s="223"/>
+      <c r="B171" s="220"/>
       <c r="C171" s="74" t="s">
         <v>548</v>
       </c>
@@ -19381,8 +19391,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="207"/>
-      <c r="B172" s="210"/>
+      <c r="A172" s="224"/>
+      <c r="B172" s="221"/>
       <c r="C172" s="74" t="s">
         <v>549</v>
       </c>
@@ -19391,10 +19401,10 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="205" t="s">
+      <c r="A173" s="222" t="s">
         <v>550</v>
       </c>
-      <c r="B173" s="208">
+      <c r="B173" s="219">
         <v>10.718</v>
       </c>
       <c r="C173" s="74" t="s">
@@ -19405,8 +19415,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="206"/>
-      <c r="B174" s="209"/>
+      <c r="A174" s="223"/>
+      <c r="B174" s="220"/>
       <c r="C174" s="74" t="s">
         <v>552</v>
       </c>
@@ -19415,8 +19425,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="206"/>
-      <c r="B175" s="209"/>
+      <c r="A175" s="223"/>
+      <c r="B175" s="220"/>
       <c r="C175" s="74" t="s">
         <v>553</v>
       </c>
@@ -19425,8 +19435,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="206"/>
-      <c r="B176" s="209"/>
+      <c r="A176" s="223"/>
+      <c r="B176" s="220"/>
       <c r="C176" s="74" t="s">
         <v>554</v>
       </c>
@@ -19435,8 +19445,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="206"/>
-      <c r="B177" s="209"/>
+      <c r="A177" s="223"/>
+      <c r="B177" s="220"/>
       <c r="C177" s="74" t="s">
         <v>555</v>
       </c>
@@ -19445,8 +19455,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="207"/>
-      <c r="B178" s="210"/>
+      <c r="A178" s="224"/>
+      <c r="B178" s="221"/>
       <c r="C178" s="74" t="s">
         <v>556</v>
       </c>
@@ -19455,30 +19465,30 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="211" t="s">
+      <c r="A179" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B179" s="212"/>
-      <c r="C179" s="212"/>
-      <c r="D179" s="213"/>
+      <c r="B179" s="207"/>
+      <c r="C179" s="207"/>
+      <c r="D179" s="208"/>
     </row>
     <row r="180" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="214" t="s">
+      <c r="A180" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B180" s="215"/>
-      <c r="C180" s="215"/>
-      <c r="D180" s="216"/>
+      <c r="B180" s="210"/>
+      <c r="C180" s="210"/>
+      <c r="D180" s="211"/>
     </row>
     <row r="181" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="217" t="s">
+      <c r="A181" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="218"/>
-      <c r="C181" s="219" t="s">
+      <c r="B181" s="213"/>
+      <c r="C181" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D181" s="220"/>
+      <c r="D181" s="215"/>
     </row>
     <row r="182" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="70" t="s">
@@ -19495,10 +19505,10 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="205" t="s">
+      <c r="A183" s="222" t="s">
         <v>557</v>
       </c>
-      <c r="B183" s="208">
+      <c r="B183" s="219">
         <v>7.2130000000000001</v>
       </c>
       <c r="C183" s="74" t="s">
@@ -19509,8 +19519,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="206"/>
-      <c r="B184" s="209"/>
+      <c r="A184" s="223"/>
+      <c r="B184" s="220"/>
       <c r="C184" s="74" t="s">
         <v>559</v>
       </c>
@@ -19519,8 +19529,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="206"/>
-      <c r="B185" s="209"/>
+      <c r="A185" s="223"/>
+      <c r="B185" s="220"/>
       <c r="C185" s="74" t="s">
         <v>560</v>
       </c>
@@ -19529,8 +19539,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="206"/>
-      <c r="B186" s="209"/>
+      <c r="A186" s="223"/>
+      <c r="B186" s="220"/>
       <c r="C186" s="74" t="s">
         <v>561</v>
       </c>
@@ -19539,8 +19549,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="206"/>
-      <c r="B187" s="209"/>
+      <c r="A187" s="223"/>
+      <c r="B187" s="220"/>
       <c r="C187" s="74" t="s">
         <v>562</v>
       </c>
@@ -19549,8 +19559,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="207"/>
-      <c r="B188" s="210"/>
+      <c r="A188" s="224"/>
+      <c r="B188" s="221"/>
       <c r="C188" s="74" t="s">
         <v>563</v>
       </c>
@@ -19559,10 +19569,10 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="205" t="s">
+      <c r="A189" s="222" t="s">
         <v>564</v>
       </c>
-      <c r="B189" s="208">
+      <c r="B189" s="219">
         <v>7.093</v>
       </c>
       <c r="C189" s="74" t="s">
@@ -19573,8 +19583,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="206"/>
-      <c r="B190" s="209"/>
+      <c r="A190" s="223"/>
+      <c r="B190" s="220"/>
       <c r="C190" s="74" t="s">
         <v>566</v>
       </c>
@@ -19583,8 +19593,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="206"/>
-      <c r="B191" s="209"/>
+      <c r="A191" s="223"/>
+      <c r="B191" s="220"/>
       <c r="C191" s="74" t="s">
         <v>567</v>
       </c>
@@ -19593,8 +19603,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="206"/>
-      <c r="B192" s="209"/>
+      <c r="A192" s="223"/>
+      <c r="B192" s="220"/>
       <c r="C192" s="74" t="s">
         <v>568</v>
       </c>
@@ -19603,8 +19613,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="206"/>
-      <c r="B193" s="209"/>
+      <c r="A193" s="223"/>
+      <c r="B193" s="220"/>
       <c r="C193" s="74" t="s">
         <v>569</v>
       </c>
@@ -19613,8 +19623,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="207"/>
-      <c r="B194" s="210"/>
+      <c r="A194" s="224"/>
+      <c r="B194" s="221"/>
       <c r="C194" s="74" t="s">
         <v>570</v>
       </c>
@@ -19624,78 +19634,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="B173:B178"/>
     <mergeCell ref="A189:A194"/>
     <mergeCell ref="B189:B194"/>
     <mergeCell ref="A179:D179"/>
@@ -19704,6 +19642,78 @@
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="A183:A188"/>
     <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/whatif/whatif.xlsx
+++ b/whatif/whatif.xlsx
@@ -14832,8 +14832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/whatif/whatif.xlsx
+++ b/whatif/whatif.xlsx
@@ -5391,6 +5391,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
     </xf>
@@ -5424,29 +5442,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -14833,7 +14833,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17569,30 +17569,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="208"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="214"/>
     </row>
     <row r="2" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="211"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
     </row>
     <row r="3" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="214" t="s">
+      <c r="B3" s="219"/>
+      <c r="C3" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="215"/>
+      <c r="D3" s="221"/>
     </row>
     <row r="4" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="70" t="s">
@@ -17609,10 +17609,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="222" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="219">
+      <c r="B5" s="209">
         <v>13.718</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -17623,8 +17623,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="217"/>
-      <c r="B6" s="220"/>
+      <c r="A6" s="224"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="74" t="s">
         <v>368</v>
       </c>
@@ -17633,8 +17633,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="217"/>
-      <c r="B7" s="220"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="74" t="s">
         <v>369</v>
       </c>
@@ -17643,8 +17643,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="217"/>
-      <c r="B8" s="220"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="74" t="s">
         <v>370</v>
       </c>
@@ -17653,8 +17653,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="217"/>
-      <c r="B9" s="220"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="74" t="s">
         <v>371</v>
       </c>
@@ -17663,8 +17663,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="218"/>
-      <c r="B10" s="221"/>
+      <c r="A10" s="223"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="74" t="s">
         <v>372</v>
       </c>
@@ -17673,10 +17673,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="222" t="s">
         <v>373</v>
       </c>
-      <c r="B11" s="219">
+      <c r="B11" s="209">
         <v>10.87</v>
       </c>
       <c r="C11" s="74" t="s">
@@ -17687,8 +17687,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="217"/>
-      <c r="B12" s="220"/>
+      <c r="A12" s="224"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="74" t="s">
         <v>375</v>
       </c>
@@ -17697,8 +17697,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="217"/>
-      <c r="B13" s="220"/>
+      <c r="A13" s="224"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="74" t="s">
         <v>376</v>
       </c>
@@ -17707,8 +17707,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="217"/>
-      <c r="B14" s="220"/>
+      <c r="A14" s="224"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="74" t="s">
         <v>377</v>
       </c>
@@ -17717,8 +17717,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="217"/>
-      <c r="B15" s="220"/>
+      <c r="A15" s="224"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="74" t="s">
         <v>378</v>
       </c>
@@ -17727,8 +17727,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="218"/>
-      <c r="B16" s="221"/>
+      <c r="A16" s="223"/>
+      <c r="B16" s="211"/>
       <c r="C16" s="74" t="s">
         <v>379</v>
       </c>
@@ -17737,10 +17737,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="222" t="s">
         <v>380</v>
       </c>
-      <c r="B17" s="219">
+      <c r="B17" s="209">
         <v>12.673</v>
       </c>
       <c r="C17" s="74" t="s">
@@ -17751,8 +17751,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="217"/>
-      <c r="B18" s="220"/>
+      <c r="A18" s="224"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="74" t="s">
         <v>382</v>
       </c>
@@ -17761,8 +17761,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="217"/>
-      <c r="B19" s="220"/>
+      <c r="A19" s="224"/>
+      <c r="B19" s="210"/>
       <c r="C19" s="74" t="s">
         <v>383</v>
       </c>
@@ -17771,8 +17771,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="217"/>
-      <c r="B20" s="220"/>
+      <c r="A20" s="224"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="74" t="s">
         <v>384</v>
       </c>
@@ -17781,8 +17781,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="217"/>
-      <c r="B21" s="220"/>
+      <c r="A21" s="224"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="74" t="s">
         <v>385</v>
       </c>
@@ -17791,8 +17791,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="218"/>
-      <c r="B22" s="221"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="74" t="s">
         <v>386</v>
       </c>
@@ -17801,10 +17801,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="216" t="s">
+      <c r="A23" s="222" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="219">
+      <c r="B23" s="209">
         <v>9.4320000000000004</v>
       </c>
       <c r="C23" s="74" t="s">
@@ -17815,8 +17815,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="217"/>
-      <c r="B24" s="220"/>
+      <c r="A24" s="224"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="74" t="s">
         <v>389</v>
       </c>
@@ -17825,8 +17825,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="217"/>
-      <c r="B25" s="220"/>
+      <c r="A25" s="224"/>
+      <c r="B25" s="210"/>
       <c r="C25" s="74" t="s">
         <v>390</v>
       </c>
@@ -17835,8 +17835,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="217"/>
-      <c r="B26" s="220"/>
+      <c r="A26" s="224"/>
+      <c r="B26" s="210"/>
       <c r="C26" s="74" t="s">
         <v>391</v>
       </c>
@@ -17845,8 +17845,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="217"/>
-      <c r="B27" s="220"/>
+      <c r="A27" s="224"/>
+      <c r="B27" s="210"/>
       <c r="C27" s="74" t="s">
         <v>392</v>
       </c>
@@ -17855,8 +17855,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="218"/>
-      <c r="B28" s="221"/>
+      <c r="A28" s="223"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="74" t="s">
         <v>393</v>
       </c>
@@ -17865,10 +17865,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="216" t="s">
+      <c r="A29" s="222" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="219">
+      <c r="B29" s="209">
         <v>9.7870000000000008</v>
       </c>
       <c r="C29" s="74" t="s">
@@ -17879,8 +17879,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="217"/>
-      <c r="B30" s="220"/>
+      <c r="A30" s="224"/>
+      <c r="B30" s="210"/>
       <c r="C30" s="74" t="s">
         <v>396</v>
       </c>
@@ -17889,8 +17889,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="217"/>
-      <c r="B31" s="220"/>
+      <c r="A31" s="224"/>
+      <c r="B31" s="210"/>
       <c r="C31" s="74" t="s">
         <v>397</v>
       </c>
@@ -17899,8 +17899,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="217"/>
-      <c r="B32" s="220"/>
+      <c r="A32" s="224"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="74" t="s">
         <v>398</v>
       </c>
@@ -17909,8 +17909,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="217"/>
-      <c r="B33" s="220"/>
+      <c r="A33" s="224"/>
+      <c r="B33" s="210"/>
       <c r="C33" s="74" t="s">
         <v>399</v>
       </c>
@@ -17919,8 +17919,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="218"/>
-      <c r="B34" s="221"/>
+      <c r="A34" s="223"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="74" t="s">
         <v>400</v>
       </c>
@@ -17943,10 +17943,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="222" t="s">
+      <c r="A36" s="206" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="219">
+      <c r="B36" s="209">
         <v>8.0419999999999998</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -17957,8 +17957,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="223"/>
-      <c r="B37" s="220"/>
+      <c r="A37" s="207"/>
+      <c r="B37" s="210"/>
       <c r="C37" s="74" t="s">
         <v>405</v>
       </c>
@@ -17967,8 +17967,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="223"/>
-      <c r="B38" s="220"/>
+      <c r="A38" s="207"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="74" t="s">
         <v>406</v>
       </c>
@@ -17977,8 +17977,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="223"/>
-      <c r="B39" s="220"/>
+      <c r="A39" s="207"/>
+      <c r="B39" s="210"/>
       <c r="C39" s="74" t="s">
         <v>407</v>
       </c>
@@ -17987,8 +17987,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="224"/>
-      <c r="B40" s="221"/>
+      <c r="A40" s="208"/>
+      <c r="B40" s="211"/>
       <c r="C40" s="74" t="s">
         <v>408</v>
       </c>
@@ -17997,10 +17997,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="216" t="s">
+      <c r="A41" s="222" t="s">
         <v>409</v>
       </c>
-      <c r="B41" s="219">
+      <c r="B41" s="209">
         <v>13.038</v>
       </c>
       <c r="C41" s="74" t="s">
@@ -18011,8 +18011,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="217"/>
-      <c r="B42" s="220"/>
+      <c r="A42" s="224"/>
+      <c r="B42" s="210"/>
       <c r="C42" s="74" t="s">
         <v>411</v>
       </c>
@@ -18021,8 +18021,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="217"/>
-      <c r="B43" s="220"/>
+      <c r="A43" s="224"/>
+      <c r="B43" s="210"/>
       <c r="C43" s="74" t="s">
         <v>412</v>
       </c>
@@ -18031,8 +18031,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="217"/>
-      <c r="B44" s="220"/>
+      <c r="A44" s="224"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="74" t="s">
         <v>413</v>
       </c>
@@ -18041,8 +18041,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="217"/>
-      <c r="B45" s="220"/>
+      <c r="A45" s="224"/>
+      <c r="B45" s="210"/>
       <c r="C45" s="74" t="s">
         <v>414</v>
       </c>
@@ -18051,8 +18051,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="218"/>
-      <c r="B46" s="221"/>
+      <c r="A46" s="223"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="74" t="s">
         <v>415</v>
       </c>
@@ -18061,30 +18061,30 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="206" t="s">
+      <c r="A47" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B47" s="207"/>
-      <c r="C47" s="207"/>
-      <c r="D47" s="208"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="214"/>
     </row>
     <row r="48" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="209" t="s">
+      <c r="A48" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="211"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="217"/>
     </row>
     <row r="49" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="212" t="s">
+      <c r="A49" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B49" s="213"/>
-      <c r="C49" s="214" t="s">
+      <c r="B49" s="219"/>
+      <c r="C49" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="215"/>
+      <c r="D49" s="221"/>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="70" t="s">
@@ -18101,10 +18101,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="216" t="s">
+      <c r="A51" s="222" t="s">
         <v>416</v>
       </c>
-      <c r="B51" s="219">
+      <c r="B51" s="209">
         <v>9.2569999999999997</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -18115,8 +18115,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="217"/>
-      <c r="B52" s="220"/>
+      <c r="A52" s="224"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="74" t="s">
         <v>418</v>
       </c>
@@ -18125,8 +18125,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="217"/>
-      <c r="B53" s="220"/>
+      <c r="A53" s="224"/>
+      <c r="B53" s="210"/>
       <c r="C53" s="74" t="s">
         <v>419</v>
       </c>
@@ -18135,8 +18135,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="217"/>
-      <c r="B54" s="220"/>
+      <c r="A54" s="224"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="74" t="s">
         <v>420</v>
       </c>
@@ -18145,8 +18145,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="217"/>
-      <c r="B55" s="220"/>
+      <c r="A55" s="224"/>
+      <c r="B55" s="210"/>
       <c r="C55" s="74" t="s">
         <v>421</v>
       </c>
@@ -18155,8 +18155,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="218"/>
-      <c r="B56" s="221"/>
+      <c r="A56" s="223"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="74" t="s">
         <v>422</v>
       </c>
@@ -18165,10 +18165,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="216" t="s">
+      <c r="A57" s="222" t="s">
         <v>423</v>
       </c>
-      <c r="B57" s="219">
+      <c r="B57" s="209">
         <v>16.273</v>
       </c>
       <c r="C57" s="74" t="s">
@@ -18179,8 +18179,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="217"/>
-      <c r="B58" s="220"/>
+      <c r="A58" s="224"/>
+      <c r="B58" s="210"/>
       <c r="C58" s="74" t="s">
         <v>425</v>
       </c>
@@ -18189,8 +18189,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="217"/>
-      <c r="B59" s="220"/>
+      <c r="A59" s="224"/>
+      <c r="B59" s="210"/>
       <c r="C59" s="74" t="s">
         <v>426</v>
       </c>
@@ -18199,8 +18199,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="217"/>
-      <c r="B60" s="220"/>
+      <c r="A60" s="224"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="74" t="s">
         <v>427</v>
       </c>
@@ -18209,8 +18209,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="217"/>
-      <c r="B61" s="220"/>
+      <c r="A61" s="224"/>
+      <c r="B61" s="210"/>
       <c r="C61" s="74" t="s">
         <v>428</v>
       </c>
@@ -18219,8 +18219,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="218"/>
-      <c r="B62" s="221"/>
+      <c r="A62" s="223"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="74" t="s">
         <v>429</v>
       </c>
@@ -18229,10 +18229,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="216" t="s">
+      <c r="A63" s="222" t="s">
         <v>430</v>
       </c>
-      <c r="B63" s="219">
+      <c r="B63" s="209">
         <v>8.2769999999999992</v>
       </c>
       <c r="C63" s="74" t="s">
@@ -18243,8 +18243,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="217"/>
-      <c r="B64" s="220"/>
+      <c r="A64" s="224"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="74" t="s">
         <v>432</v>
       </c>
@@ -18253,8 +18253,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="217"/>
-      <c r="B65" s="220"/>
+      <c r="A65" s="224"/>
+      <c r="B65" s="210"/>
       <c r="C65" s="74" t="s">
         <v>433</v>
       </c>
@@ -18263,8 +18263,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="217"/>
-      <c r="B66" s="220"/>
+      <c r="A66" s="224"/>
+      <c r="B66" s="210"/>
       <c r="C66" s="74" t="s">
         <v>434</v>
       </c>
@@ -18273,8 +18273,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="217"/>
-      <c r="B67" s="220"/>
+      <c r="A67" s="224"/>
+      <c r="B67" s="210"/>
       <c r="C67" s="74" t="s">
         <v>435</v>
       </c>
@@ -18283,8 +18283,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="218"/>
-      <c r="B68" s="221"/>
+      <c r="A68" s="223"/>
+      <c r="B68" s="211"/>
       <c r="C68" s="74" t="s">
         <v>436</v>
       </c>
@@ -18293,10 +18293,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="216" t="s">
+      <c r="A69" s="222" t="s">
         <v>437</v>
       </c>
-      <c r="B69" s="219">
+      <c r="B69" s="209">
         <v>10.025</v>
       </c>
       <c r="C69" s="74" t="s">
@@ -18307,8 +18307,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="217"/>
-      <c r="B70" s="220"/>
+      <c r="A70" s="224"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="74" t="s">
         <v>439</v>
       </c>
@@ -18317,8 +18317,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="217"/>
-      <c r="B71" s="220"/>
+      <c r="A71" s="224"/>
+      <c r="B71" s="210"/>
       <c r="C71" s="74" t="s">
         <v>440</v>
       </c>
@@ -18327,8 +18327,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="217"/>
-      <c r="B72" s="220"/>
+      <c r="A72" s="224"/>
+      <c r="B72" s="210"/>
       <c r="C72" s="74" t="s">
         <v>441</v>
       </c>
@@ -18337,8 +18337,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="217"/>
-      <c r="B73" s="220"/>
+      <c r="A73" s="224"/>
+      <c r="B73" s="210"/>
       <c r="C73" s="74" t="s">
         <v>442</v>
       </c>
@@ -18347,8 +18347,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="218"/>
-      <c r="B74" s="221"/>
+      <c r="A74" s="223"/>
+      <c r="B74" s="211"/>
       <c r="C74" s="74" t="s">
         <v>443</v>
       </c>
@@ -18357,10 +18357,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="216" t="s">
+      <c r="A75" s="222" t="s">
         <v>444</v>
       </c>
-      <c r="B75" s="219">
+      <c r="B75" s="209">
         <v>7.2510000000000003</v>
       </c>
       <c r="C75" s="74" t="s">
@@ -18371,8 +18371,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="217"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="224"/>
+      <c r="B76" s="210"/>
       <c r="C76" s="74" t="s">
         <v>446</v>
       </c>
@@ -18381,8 +18381,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="217"/>
-      <c r="B77" s="220"/>
+      <c r="A77" s="224"/>
+      <c r="B77" s="210"/>
       <c r="C77" s="74" t="s">
         <v>447</v>
       </c>
@@ -18391,8 +18391,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="217"/>
-      <c r="B78" s="220"/>
+      <c r="A78" s="224"/>
+      <c r="B78" s="210"/>
       <c r="C78" s="74" t="s">
         <v>448</v>
       </c>
@@ -18401,8 +18401,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="217"/>
-      <c r="B79" s="220"/>
+      <c r="A79" s="224"/>
+      <c r="B79" s="210"/>
       <c r="C79" s="74" t="s">
         <v>449</v>
       </c>
@@ -18411,8 +18411,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="218"/>
-      <c r="B80" s="221"/>
+      <c r="A80" s="223"/>
+      <c r="B80" s="211"/>
       <c r="C80" s="74" t="s">
         <v>450</v>
       </c>
@@ -18421,10 +18421,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="216" t="s">
+      <c r="A81" s="222" t="s">
         <v>451</v>
       </c>
-      <c r="B81" s="219">
+      <c r="B81" s="209">
         <v>7.3140000000000001</v>
       </c>
       <c r="C81" s="74" t="s">
@@ -18435,8 +18435,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="217"/>
-      <c r="B82" s="220"/>
+      <c r="A82" s="224"/>
+      <c r="B82" s="210"/>
       <c r="C82" s="74" t="s">
         <v>453</v>
       </c>
@@ -18445,8 +18445,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="217"/>
-      <c r="B83" s="220"/>
+      <c r="A83" s="224"/>
+      <c r="B83" s="210"/>
       <c r="C83" s="74" t="s">
         <v>454</v>
       </c>
@@ -18455,8 +18455,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="217"/>
-      <c r="B84" s="220"/>
+      <c r="A84" s="224"/>
+      <c r="B84" s="210"/>
       <c r="C84" s="74" t="s">
         <v>455</v>
       </c>
@@ -18465,8 +18465,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="217"/>
-      <c r="B85" s="220"/>
+      <c r="A85" s="224"/>
+      <c r="B85" s="210"/>
       <c r="C85" s="74" t="s">
         <v>456</v>
       </c>
@@ -18475,8 +18475,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="218"/>
-      <c r="B86" s="221"/>
+      <c r="A86" s="223"/>
+      <c r="B86" s="211"/>
       <c r="C86" s="74" t="s">
         <v>457</v>
       </c>
@@ -18485,10 +18485,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="216" t="s">
+      <c r="A87" s="222" t="s">
         <v>458</v>
       </c>
-      <c r="B87" s="219">
+      <c r="B87" s="209">
         <v>6.718</v>
       </c>
       <c r="C87" s="74" t="s">
@@ -18499,8 +18499,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="217"/>
-      <c r="B88" s="220"/>
+      <c r="A88" s="224"/>
+      <c r="B88" s="210"/>
       <c r="C88" s="74" t="s">
         <v>460</v>
       </c>
@@ -18509,8 +18509,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="217"/>
-      <c r="B89" s="220"/>
+      <c r="A89" s="224"/>
+      <c r="B89" s="210"/>
       <c r="C89" s="74" t="s">
         <v>461</v>
       </c>
@@ -18519,8 +18519,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="217"/>
-      <c r="B90" s="220"/>
+      <c r="A90" s="224"/>
+      <c r="B90" s="210"/>
       <c r="C90" s="74" t="s">
         <v>462</v>
       </c>
@@ -18529,8 +18529,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="217"/>
-      <c r="B91" s="220"/>
+      <c r="A91" s="224"/>
+      <c r="B91" s="210"/>
       <c r="C91" s="74" t="s">
         <v>463</v>
       </c>
@@ -18539,8 +18539,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="218"/>
-      <c r="B92" s="221"/>
+      <c r="A92" s="223"/>
+      <c r="B92" s="211"/>
       <c r="C92" s="74" t="s">
         <v>464</v>
       </c>
@@ -18549,30 +18549,30 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="206" t="s">
+      <c r="A93" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B93" s="207"/>
-      <c r="C93" s="207"/>
-      <c r="D93" s="208"/>
+      <c r="B93" s="213"/>
+      <c r="C93" s="213"/>
+      <c r="D93" s="214"/>
     </row>
     <row r="94" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="209" t="s">
+      <c r="A94" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B94" s="210"/>
-      <c r="C94" s="210"/>
-      <c r="D94" s="211"/>
+      <c r="B94" s="216"/>
+      <c r="C94" s="216"/>
+      <c r="D94" s="217"/>
     </row>
     <row r="95" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="212" t="s">
+      <c r="A95" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B95" s="213"/>
-      <c r="C95" s="214" t="s">
+      <c r="B95" s="219"/>
+      <c r="C95" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D95" s="215"/>
+      <c r="D95" s="221"/>
     </row>
     <row r="96" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="70" t="s">
@@ -18589,10 +18589,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="222" t="s">
+      <c r="A97" s="206" t="s">
         <v>465</v>
       </c>
-      <c r="B97" s="219">
+      <c r="B97" s="209">
         <v>8.2650000000000006</v>
       </c>
       <c r="C97" s="74" t="s">
@@ -18603,8 +18603,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="223"/>
-      <c r="B98" s="220"/>
+      <c r="A98" s="207"/>
+      <c r="B98" s="210"/>
       <c r="C98" s="74" t="s">
         <v>467</v>
       </c>
@@ -18613,8 +18613,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="223"/>
-      <c r="B99" s="220"/>
+      <c r="A99" s="207"/>
+      <c r="B99" s="210"/>
       <c r="C99" s="74" t="s">
         <v>468</v>
       </c>
@@ -18623,8 +18623,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="223"/>
-      <c r="B100" s="220"/>
+      <c r="A100" s="207"/>
+      <c r="B100" s="210"/>
       <c r="C100" s="74" t="s">
         <v>469</v>
       </c>
@@ -18633,8 +18633,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="223"/>
-      <c r="B101" s="220"/>
+      <c r="A101" s="207"/>
+      <c r="B101" s="210"/>
       <c r="C101" s="74" t="s">
         <v>470</v>
       </c>
@@ -18643,8 +18643,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="224"/>
-      <c r="B102" s="221"/>
+      <c r="A102" s="208"/>
+      <c r="B102" s="211"/>
       <c r="C102" s="74" t="s">
         <v>471</v>
       </c>
@@ -18653,10 +18653,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="222" t="s">
+      <c r="A103" s="206" t="s">
         <v>472</v>
       </c>
-      <c r="B103" s="219">
+      <c r="B103" s="209">
         <v>7.282</v>
       </c>
       <c r="C103" s="74" t="s">
@@ -18667,8 +18667,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="223"/>
-      <c r="B104" s="220"/>
+      <c r="A104" s="207"/>
+      <c r="B104" s="210"/>
       <c r="C104" s="74" t="s">
         <v>474</v>
       </c>
@@ -18677,8 +18677,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="223"/>
-      <c r="B105" s="220"/>
+      <c r="A105" s="207"/>
+      <c r="B105" s="210"/>
       <c r="C105" s="74" t="s">
         <v>475</v>
       </c>
@@ -18687,8 +18687,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="223"/>
-      <c r="B106" s="220"/>
+      <c r="A106" s="207"/>
+      <c r="B106" s="210"/>
       <c r="C106" s="74" t="s">
         <v>476</v>
       </c>
@@ -18697,8 +18697,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="223"/>
-      <c r="B107" s="220"/>
+      <c r="A107" s="207"/>
+      <c r="B107" s="210"/>
       <c r="C107" s="74" t="s">
         <v>477</v>
       </c>
@@ -18707,8 +18707,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="224"/>
-      <c r="B108" s="221"/>
+      <c r="A108" s="208"/>
+      <c r="B108" s="211"/>
       <c r="C108" s="74" t="s">
         <v>478</v>
       </c>
@@ -18717,10 +18717,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="222" t="s">
+      <c r="A109" s="206" t="s">
         <v>479</v>
       </c>
-      <c r="B109" s="219">
+      <c r="B109" s="209">
         <v>8.0830000000000002</v>
       </c>
       <c r="C109" s="74" t="s">
@@ -18731,8 +18731,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="223"/>
-      <c r="B110" s="220"/>
+      <c r="A110" s="207"/>
+      <c r="B110" s="210"/>
       <c r="C110" s="74" t="s">
         <v>481</v>
       </c>
@@ -18741,8 +18741,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="223"/>
-      <c r="B111" s="220"/>
+      <c r="A111" s="207"/>
+      <c r="B111" s="210"/>
       <c r="C111" s="74" t="s">
         <v>482</v>
       </c>
@@ -18751,8 +18751,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="223"/>
-      <c r="B112" s="220"/>
+      <c r="A112" s="207"/>
+      <c r="B112" s="210"/>
       <c r="C112" s="74" t="s">
         <v>483</v>
       </c>
@@ -18761,8 +18761,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="223"/>
-      <c r="B113" s="220"/>
+      <c r="A113" s="207"/>
+      <c r="B113" s="210"/>
       <c r="C113" s="74" t="s">
         <v>484</v>
       </c>
@@ -18771,8 +18771,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="224"/>
-      <c r="B114" s="221"/>
+      <c r="A114" s="208"/>
+      <c r="B114" s="211"/>
       <c r="C114" s="74" t="s">
         <v>485</v>
       </c>
@@ -18781,10 +18781,10 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="222" t="s">
+      <c r="A115" s="206" t="s">
         <v>486</v>
       </c>
-      <c r="B115" s="219">
+      <c r="B115" s="209">
         <v>8.11</v>
       </c>
       <c r="C115" s="74" t="s">
@@ -18795,8 +18795,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="223"/>
-      <c r="B116" s="220"/>
+      <c r="A116" s="207"/>
+      <c r="B116" s="210"/>
       <c r="C116" s="74" t="s">
         <v>488</v>
       </c>
@@ -18805,8 +18805,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="223"/>
-      <c r="B117" s="220"/>
+      <c r="A117" s="207"/>
+      <c r="B117" s="210"/>
       <c r="C117" s="74" t="s">
         <v>489</v>
       </c>
@@ -18815,8 +18815,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="223"/>
-      <c r="B118" s="220"/>
+      <c r="A118" s="207"/>
+      <c r="B118" s="210"/>
       <c r="C118" s="74" t="s">
         <v>490</v>
       </c>
@@ -18825,8 +18825,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="223"/>
-      <c r="B119" s="220"/>
+      <c r="A119" s="207"/>
+      <c r="B119" s="210"/>
       <c r="C119" s="74" t="s">
         <v>491</v>
       </c>
@@ -18835,8 +18835,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="224"/>
-      <c r="B120" s="221"/>
+      <c r="A120" s="208"/>
+      <c r="B120" s="211"/>
       <c r="C120" s="74" t="s">
         <v>492</v>
       </c>
@@ -18845,10 +18845,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="222" t="s">
+      <c r="A121" s="206" t="s">
         <v>493</v>
       </c>
-      <c r="B121" s="219">
+      <c r="B121" s="209">
         <v>8.8279999999999994</v>
       </c>
       <c r="C121" s="74" t="s">
@@ -18859,8 +18859,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="223"/>
-      <c r="B122" s="220"/>
+      <c r="A122" s="207"/>
+      <c r="B122" s="210"/>
       <c r="C122" s="74" t="s">
         <v>495</v>
       </c>
@@ -18869,8 +18869,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="223"/>
-      <c r="B123" s="220"/>
+      <c r="A123" s="207"/>
+      <c r="B123" s="210"/>
       <c r="C123" s="74" t="s">
         <v>496</v>
       </c>
@@ -18879,8 +18879,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="224"/>
-      <c r="B124" s="221"/>
+      <c r="A124" s="208"/>
+      <c r="B124" s="211"/>
       <c r="C124" s="74" t="s">
         <v>497</v>
       </c>
@@ -18889,10 +18889,10 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="216" t="s">
+      <c r="A125" s="222" t="s">
         <v>498</v>
       </c>
-      <c r="B125" s="219">
+      <c r="B125" s="209">
         <v>8.6389999999999993</v>
       </c>
       <c r="C125" s="74" t="s">
@@ -18903,8 +18903,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="218"/>
-      <c r="B126" s="221"/>
+      <c r="A126" s="223"/>
+      <c r="B126" s="211"/>
       <c r="C126" s="74" t="s">
         <v>500</v>
       </c>
@@ -18913,10 +18913,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="222" t="s">
+      <c r="A127" s="206" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="219">
+      <c r="B127" s="209">
         <v>9.7140000000000004</v>
       </c>
       <c r="C127" s="74" t="s">
@@ -18927,8 +18927,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="223"/>
-      <c r="B128" s="220"/>
+      <c r="A128" s="207"/>
+      <c r="B128" s="210"/>
       <c r="C128" s="74" t="s">
         <v>503</v>
       </c>
@@ -18937,8 +18937,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="223"/>
-      <c r="B129" s="220"/>
+      <c r="A129" s="207"/>
+      <c r="B129" s="210"/>
       <c r="C129" s="74" t="s">
         <v>504</v>
       </c>
@@ -18947,8 +18947,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="223"/>
-      <c r="B130" s="220"/>
+      <c r="A130" s="207"/>
+      <c r="B130" s="210"/>
       <c r="C130" s="74" t="s">
         <v>505</v>
       </c>
@@ -18957,8 +18957,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="223"/>
-      <c r="B131" s="220"/>
+      <c r="A131" s="207"/>
+      <c r="B131" s="210"/>
       <c r="C131" s="74" t="s">
         <v>506</v>
       </c>
@@ -18967,8 +18967,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="224"/>
-      <c r="B132" s="221"/>
+      <c r="A132" s="208"/>
+      <c r="B132" s="211"/>
       <c r="C132" s="74" t="s">
         <v>507</v>
       </c>
@@ -18977,10 +18977,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="222" t="s">
+      <c r="A133" s="206" t="s">
         <v>508</v>
       </c>
-      <c r="B133" s="219">
+      <c r="B133" s="209">
         <v>12.66</v>
       </c>
       <c r="C133" s="74" t="s">
@@ -18991,8 +18991,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="223"/>
-      <c r="B134" s="220"/>
+      <c r="A134" s="207"/>
+      <c r="B134" s="210"/>
       <c r="C134" s="74" t="s">
         <v>510</v>
       </c>
@@ -19001,8 +19001,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="223"/>
-      <c r="B135" s="220"/>
+      <c r="A135" s="207"/>
+      <c r="B135" s="210"/>
       <c r="C135" s="74" t="s">
         <v>511</v>
       </c>
@@ -19011,8 +19011,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="223"/>
-      <c r="B136" s="220"/>
+      <c r="A136" s="207"/>
+      <c r="B136" s="210"/>
       <c r="C136" s="74" t="s">
         <v>512</v>
       </c>
@@ -19021,8 +19021,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="223"/>
-      <c r="B137" s="220"/>
+      <c r="A137" s="207"/>
+      <c r="B137" s="210"/>
       <c r="C137" s="74" t="s">
         <v>513</v>
       </c>
@@ -19031,8 +19031,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="224"/>
-      <c r="B138" s="221"/>
+      <c r="A138" s="208"/>
+      <c r="B138" s="211"/>
       <c r="C138" s="74" t="s">
         <v>514</v>
       </c>
@@ -19041,30 +19041,30 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="206" t="s">
+      <c r="A139" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B139" s="207"/>
-      <c r="C139" s="207"/>
-      <c r="D139" s="208"/>
+      <c r="B139" s="213"/>
+      <c r="C139" s="213"/>
+      <c r="D139" s="214"/>
     </row>
     <row r="140" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="209" t="s">
+      <c r="A140" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B140" s="210"/>
-      <c r="C140" s="210"/>
-      <c r="D140" s="211"/>
+      <c r="B140" s="216"/>
+      <c r="C140" s="216"/>
+      <c r="D140" s="217"/>
     </row>
     <row r="141" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="212" t="s">
+      <c r="A141" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B141" s="213"/>
-      <c r="C141" s="214" t="s">
+      <c r="B141" s="219"/>
+      <c r="C141" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D141" s="215"/>
+      <c r="D141" s="221"/>
     </row>
     <row r="142" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="70" t="s">
@@ -19081,10 +19081,10 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="222" t="s">
+      <c r="A143" s="206" t="s">
         <v>515</v>
       </c>
-      <c r="B143" s="219">
+      <c r="B143" s="209">
         <v>11.79</v>
       </c>
       <c r="C143" s="74" t="s">
@@ -19095,8 +19095,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="223"/>
-      <c r="B144" s="220"/>
+      <c r="A144" s="207"/>
+      <c r="B144" s="210"/>
       <c r="C144" s="74" t="s">
         <v>517</v>
       </c>
@@ -19105,8 +19105,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="223"/>
-      <c r="B145" s="220"/>
+      <c r="A145" s="207"/>
+      <c r="B145" s="210"/>
       <c r="C145" s="74" t="s">
         <v>518</v>
       </c>
@@ -19115,8 +19115,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="223"/>
-      <c r="B146" s="220"/>
+      <c r="A146" s="207"/>
+      <c r="B146" s="210"/>
       <c r="C146" s="74" t="s">
         <v>519</v>
       </c>
@@ -19125,8 +19125,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="223"/>
-      <c r="B147" s="220"/>
+      <c r="A147" s="207"/>
+      <c r="B147" s="210"/>
       <c r="C147" s="74" t="s">
         <v>520</v>
       </c>
@@ -19135,8 +19135,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="224"/>
-      <c r="B148" s="221"/>
+      <c r="A148" s="208"/>
+      <c r="B148" s="211"/>
       <c r="C148" s="74" t="s">
         <v>521</v>
       </c>
@@ -19145,10 +19145,10 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="222" t="s">
+      <c r="A149" s="206" t="s">
         <v>522</v>
       </c>
-      <c r="B149" s="219">
+      <c r="B149" s="209">
         <v>10.919</v>
       </c>
       <c r="C149" s="74" t="s">
@@ -19159,8 +19159,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="223"/>
-      <c r="B150" s="220"/>
+      <c r="A150" s="207"/>
+      <c r="B150" s="210"/>
       <c r="C150" s="74" t="s">
         <v>524</v>
       </c>
@@ -19169,8 +19169,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="223"/>
-      <c r="B151" s="220"/>
+      <c r="A151" s="207"/>
+      <c r="B151" s="210"/>
       <c r="C151" s="74" t="s">
         <v>525</v>
       </c>
@@ -19179,8 +19179,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="223"/>
-      <c r="B152" s="220"/>
+      <c r="A152" s="207"/>
+      <c r="B152" s="210"/>
       <c r="C152" s="74" t="s">
         <v>526</v>
       </c>
@@ -19189,8 +19189,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="223"/>
-      <c r="B153" s="220"/>
+      <c r="A153" s="207"/>
+      <c r="B153" s="210"/>
       <c r="C153" s="74" t="s">
         <v>527</v>
       </c>
@@ -19199,8 +19199,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="224"/>
-      <c r="B154" s="221"/>
+      <c r="A154" s="208"/>
+      <c r="B154" s="211"/>
       <c r="C154" s="74" t="s">
         <v>528</v>
       </c>
@@ -19209,10 +19209,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="222" t="s">
+      <c r="A155" s="206" t="s">
         <v>529</v>
       </c>
-      <c r="B155" s="219">
+      <c r="B155" s="209">
         <v>10.215</v>
       </c>
       <c r="C155" s="74" t="s">
@@ -19223,8 +19223,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="223"/>
-      <c r="B156" s="220"/>
+      <c r="A156" s="207"/>
+      <c r="B156" s="210"/>
       <c r="C156" s="74" t="s">
         <v>531</v>
       </c>
@@ -19233,8 +19233,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="223"/>
-      <c r="B157" s="220"/>
+      <c r="A157" s="207"/>
+      <c r="B157" s="210"/>
       <c r="C157" s="74" t="s">
         <v>532</v>
       </c>
@@ -19243,8 +19243,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="223"/>
-      <c r="B158" s="220"/>
+      <c r="A158" s="207"/>
+      <c r="B158" s="210"/>
       <c r="C158" s="74" t="s">
         <v>533</v>
       </c>
@@ -19253,8 +19253,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="223"/>
-      <c r="B159" s="220"/>
+      <c r="A159" s="207"/>
+      <c r="B159" s="210"/>
       <c r="C159" s="74" t="s">
         <v>534</v>
       </c>
@@ -19263,8 +19263,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="224"/>
-      <c r="B160" s="221"/>
+      <c r="A160" s="208"/>
+      <c r="B160" s="211"/>
       <c r="C160" s="74" t="s">
         <v>535</v>
       </c>
@@ -19273,10 +19273,10 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="222" t="s">
+      <c r="A161" s="206" t="s">
         <v>536</v>
       </c>
-      <c r="B161" s="219">
+      <c r="B161" s="209">
         <v>11.672000000000001</v>
       </c>
       <c r="C161" s="74" t="s">
@@ -19287,8 +19287,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="223"/>
-      <c r="B162" s="220"/>
+      <c r="A162" s="207"/>
+      <c r="B162" s="210"/>
       <c r="C162" s="74" t="s">
         <v>538</v>
       </c>
@@ -19297,8 +19297,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="223"/>
-      <c r="B163" s="220"/>
+      <c r="A163" s="207"/>
+      <c r="B163" s="210"/>
       <c r="C163" s="74" t="s">
         <v>539</v>
       </c>
@@ -19307,8 +19307,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="223"/>
-      <c r="B164" s="220"/>
+      <c r="A164" s="207"/>
+      <c r="B164" s="210"/>
       <c r="C164" s="74" t="s">
         <v>540</v>
       </c>
@@ -19317,8 +19317,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="223"/>
-      <c r="B165" s="220"/>
+      <c r="A165" s="207"/>
+      <c r="B165" s="210"/>
       <c r="C165" s="74" t="s">
         <v>541</v>
       </c>
@@ -19327,8 +19327,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="224"/>
-      <c r="B166" s="221"/>
+      <c r="A166" s="208"/>
+      <c r="B166" s="211"/>
       <c r="C166" s="74" t="s">
         <v>542</v>
       </c>
@@ -19337,10 +19337,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="222" t="s">
+      <c r="A167" s="206" t="s">
         <v>543</v>
       </c>
-      <c r="B167" s="219">
+      <c r="B167" s="209">
         <v>9.6929999999999996</v>
       </c>
       <c r="C167" s="74" t="s">
@@ -19351,8 +19351,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="223"/>
-      <c r="B168" s="220"/>
+      <c r="A168" s="207"/>
+      <c r="B168" s="210"/>
       <c r="C168" s="74" t="s">
         <v>545</v>
       </c>
@@ -19361,8 +19361,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="223"/>
-      <c r="B169" s="220"/>
+      <c r="A169" s="207"/>
+      <c r="B169" s="210"/>
       <c r="C169" s="74" t="s">
         <v>546</v>
       </c>
@@ -19371,8 +19371,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="223"/>
-      <c r="B170" s="220"/>
+      <c r="A170" s="207"/>
+      <c r="B170" s="210"/>
       <c r="C170" s="74" t="s">
         <v>547</v>
       </c>
@@ -19381,8 +19381,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="223"/>
-      <c r="B171" s="220"/>
+      <c r="A171" s="207"/>
+      <c r="B171" s="210"/>
       <c r="C171" s="74" t="s">
         <v>548</v>
       </c>
@@ -19391,8 +19391,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="224"/>
-      <c r="B172" s="221"/>
+      <c r="A172" s="208"/>
+      <c r="B172" s="211"/>
       <c r="C172" s="74" t="s">
         <v>549</v>
       </c>
@@ -19401,10 +19401,10 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="222" t="s">
+      <c r="A173" s="206" t="s">
         <v>550</v>
       </c>
-      <c r="B173" s="219">
+      <c r="B173" s="209">
         <v>10.718</v>
       </c>
       <c r="C173" s="74" t="s">
@@ -19415,8 +19415,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="223"/>
-      <c r="B174" s="220"/>
+      <c r="A174" s="207"/>
+      <c r="B174" s="210"/>
       <c r="C174" s="74" t="s">
         <v>552</v>
       </c>
@@ -19425,8 +19425,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="223"/>
-      <c r="B175" s="220"/>
+      <c r="A175" s="207"/>
+      <c r="B175" s="210"/>
       <c r="C175" s="74" t="s">
         <v>553</v>
       </c>
@@ -19435,8 +19435,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="223"/>
-      <c r="B176" s="220"/>
+      <c r="A176" s="207"/>
+      <c r="B176" s="210"/>
       <c r="C176" s="74" t="s">
         <v>554</v>
       </c>
@@ -19445,8 +19445,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="223"/>
-      <c r="B177" s="220"/>
+      <c r="A177" s="207"/>
+      <c r="B177" s="210"/>
       <c r="C177" s="74" t="s">
         <v>555</v>
       </c>
@@ -19455,8 +19455,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="224"/>
-      <c r="B178" s="221"/>
+      <c r="A178" s="208"/>
+      <c r="B178" s="211"/>
       <c r="C178" s="74" t="s">
         <v>556</v>
       </c>
@@ -19465,30 +19465,30 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="206" t="s">
+      <c r="A179" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B179" s="207"/>
-      <c r="C179" s="207"/>
-      <c r="D179" s="208"/>
+      <c r="B179" s="213"/>
+      <c r="C179" s="213"/>
+      <c r="D179" s="214"/>
     </row>
     <row r="180" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="209" t="s">
+      <c r="A180" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B180" s="210"/>
-      <c r="C180" s="210"/>
-      <c r="D180" s="211"/>
+      <c r="B180" s="216"/>
+      <c r="C180" s="216"/>
+      <c r="D180" s="217"/>
     </row>
     <row r="181" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="212" t="s">
+      <c r="A181" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="213"/>
-      <c r="C181" s="214" t="s">
+      <c r="B181" s="219"/>
+      <c r="C181" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D181" s="215"/>
+      <c r="D181" s="221"/>
     </row>
     <row r="182" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="70" t="s">
@@ -19505,10 +19505,10 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="222" t="s">
+      <c r="A183" s="206" t="s">
         <v>557</v>
       </c>
-      <c r="B183" s="219">
+      <c r="B183" s="209">
         <v>7.2130000000000001</v>
       </c>
       <c r="C183" s="74" t="s">
@@ -19519,8 +19519,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="223"/>
-      <c r="B184" s="220"/>
+      <c r="A184" s="207"/>
+      <c r="B184" s="210"/>
       <c r="C184" s="74" t="s">
         <v>559</v>
       </c>
@@ -19529,8 +19529,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="223"/>
-      <c r="B185" s="220"/>
+      <c r="A185" s="207"/>
+      <c r="B185" s="210"/>
       <c r="C185" s="74" t="s">
         <v>560</v>
       </c>
@@ -19539,8 +19539,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="223"/>
-      <c r="B186" s="220"/>
+      <c r="A186" s="207"/>
+      <c r="B186" s="210"/>
       <c r="C186" s="74" t="s">
         <v>561</v>
       </c>
@@ -19549,8 +19549,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="223"/>
-      <c r="B187" s="220"/>
+      <c r="A187" s="207"/>
+      <c r="B187" s="210"/>
       <c r="C187" s="74" t="s">
         <v>562</v>
       </c>
@@ -19559,8 +19559,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="224"/>
-      <c r="B188" s="221"/>
+      <c r="A188" s="208"/>
+      <c r="B188" s="211"/>
       <c r="C188" s="74" t="s">
         <v>563</v>
       </c>
@@ -19569,10 +19569,10 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="222" t="s">
+      <c r="A189" s="206" t="s">
         <v>564</v>
       </c>
-      <c r="B189" s="219">
+      <c r="B189" s="209">
         <v>7.093</v>
       </c>
       <c r="C189" s="74" t="s">
@@ -19583,8 +19583,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="223"/>
-      <c r="B190" s="220"/>
+      <c r="A190" s="207"/>
+      <c r="B190" s="210"/>
       <c r="C190" s="74" t="s">
         <v>566</v>
       </c>
@@ -19593,8 +19593,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="223"/>
-      <c r="B191" s="220"/>
+      <c r="A191" s="207"/>
+      <c r="B191" s="210"/>
       <c r="C191" s="74" t="s">
         <v>567</v>
       </c>
@@ -19603,8 +19603,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="223"/>
-      <c r="B192" s="220"/>
+      <c r="A192" s="207"/>
+      <c r="B192" s="210"/>
       <c r="C192" s="74" t="s">
         <v>568</v>
       </c>
@@ -19613,8 +19613,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="223"/>
-      <c r="B193" s="220"/>
+      <c r="A193" s="207"/>
+      <c r="B193" s="210"/>
       <c r="C193" s="74" t="s">
         <v>569</v>
       </c>
@@ -19623,8 +19623,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="224"/>
-      <c r="B194" s="221"/>
+      <c r="A194" s="208"/>
+      <c r="B194" s="211"/>
       <c r="C194" s="74" t="s">
         <v>570</v>
       </c>
@@ -19634,6 +19634,78 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="B173:B178"/>
     <mergeCell ref="A189:A194"/>
     <mergeCell ref="B189:B194"/>
     <mergeCell ref="A179:D179"/>
@@ -19642,78 +19714,6 @@
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="A183:A188"/>
     <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/whatif/whatif.xlsx
+++ b/whatif/whatif.xlsx
@@ -5391,24 +5391,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
     </xf>
@@ -5442,11 +5424,29 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -14833,7 +14833,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15471,7 +15471,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A43" r:id="rId1" display="Burlington"/>
-    <hyperlink ref="A2" r:id="rId2" display="Chelmsford"/>
+    <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A5" r:id="rId3" display="Dracut"/>
     <hyperlink ref="A9" r:id="rId4" display="Cambridge"/>
     <hyperlink ref="A12" r:id="rId5"/>
@@ -17569,30 +17569,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="214"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="208"/>
     </row>
     <row r="2" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="217"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="211"/>
     </row>
     <row r="3" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="220" t="s">
+      <c r="B3" s="213"/>
+      <c r="C3" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="221"/>
+      <c r="D3" s="215"/>
     </row>
     <row r="4" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="70" t="s">
@@ -17609,10 +17609,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="222" t="s">
+      <c r="A5" s="216" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="209">
+      <c r="B5" s="219">
         <v>13.718</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -17623,8 +17623,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="224"/>
-      <c r="B6" s="210"/>
+      <c r="A6" s="217"/>
+      <c r="B6" s="220"/>
       <c r="C6" s="74" t="s">
         <v>368</v>
       </c>
@@ -17633,8 +17633,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="224"/>
-      <c r="B7" s="210"/>
+      <c r="A7" s="217"/>
+      <c r="B7" s="220"/>
       <c r="C7" s="74" t="s">
         <v>369</v>
       </c>
@@ -17643,8 +17643,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="224"/>
-      <c r="B8" s="210"/>
+      <c r="A8" s="217"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="74" t="s">
         <v>370</v>
       </c>
@@ -17653,8 +17653,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="224"/>
-      <c r="B9" s="210"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="74" t="s">
         <v>371</v>
       </c>
@@ -17663,8 +17663,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="223"/>
-      <c r="B10" s="211"/>
+      <c r="A10" s="218"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="74" t="s">
         <v>372</v>
       </c>
@@ -17673,10 +17673,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="216" t="s">
         <v>373</v>
       </c>
-      <c r="B11" s="209">
+      <c r="B11" s="219">
         <v>10.87</v>
       </c>
       <c r="C11" s="74" t="s">
@@ -17687,8 +17687,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="224"/>
-      <c r="B12" s="210"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="220"/>
       <c r="C12" s="74" t="s">
         <v>375</v>
       </c>
@@ -17697,8 +17697,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="224"/>
-      <c r="B13" s="210"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="220"/>
       <c r="C13" s="74" t="s">
         <v>376</v>
       </c>
@@ -17707,8 +17707,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="224"/>
-      <c r="B14" s="210"/>
+      <c r="A14" s="217"/>
+      <c r="B14" s="220"/>
       <c r="C14" s="74" t="s">
         <v>377</v>
       </c>
@@ -17717,8 +17717,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="224"/>
-      <c r="B15" s="210"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="74" t="s">
         <v>378</v>
       </c>
@@ -17727,8 +17727,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="223"/>
-      <c r="B16" s="211"/>
+      <c r="A16" s="218"/>
+      <c r="B16" s="221"/>
       <c r="C16" s="74" t="s">
         <v>379</v>
       </c>
@@ -17737,10 +17737,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="222" t="s">
+      <c r="A17" s="216" t="s">
         <v>380</v>
       </c>
-      <c r="B17" s="209">
+      <c r="B17" s="219">
         <v>12.673</v>
       </c>
       <c r="C17" s="74" t="s">
@@ -17751,8 +17751,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="224"/>
-      <c r="B18" s="210"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="220"/>
       <c r="C18" s="74" t="s">
         <v>382</v>
       </c>
@@ -17761,8 +17761,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="224"/>
-      <c r="B19" s="210"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="74" t="s">
         <v>383</v>
       </c>
@@ -17771,8 +17771,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="224"/>
-      <c r="B20" s="210"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="220"/>
       <c r="C20" s="74" t="s">
         <v>384</v>
       </c>
@@ -17781,8 +17781,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="224"/>
-      <c r="B21" s="210"/>
+      <c r="A21" s="217"/>
+      <c r="B21" s="220"/>
       <c r="C21" s="74" t="s">
         <v>385</v>
       </c>
@@ -17791,8 +17791,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="223"/>
-      <c r="B22" s="211"/>
+      <c r="A22" s="218"/>
+      <c r="B22" s="221"/>
       <c r="C22" s="74" t="s">
         <v>386</v>
       </c>
@@ -17801,10 +17801,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="222" t="s">
+      <c r="A23" s="216" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="209">
+      <c r="B23" s="219">
         <v>9.4320000000000004</v>
       </c>
       <c r="C23" s="74" t="s">
@@ -17815,8 +17815,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="224"/>
-      <c r="B24" s="210"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="220"/>
       <c r="C24" s="74" t="s">
         <v>389</v>
       </c>
@@ -17825,8 +17825,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="224"/>
-      <c r="B25" s="210"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="220"/>
       <c r="C25" s="74" t="s">
         <v>390</v>
       </c>
@@ -17835,8 +17835,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="224"/>
-      <c r="B26" s="210"/>
+      <c r="A26" s="217"/>
+      <c r="B26" s="220"/>
       <c r="C26" s="74" t="s">
         <v>391</v>
       </c>
@@ -17845,8 +17845,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="224"/>
-      <c r="B27" s="210"/>
+      <c r="A27" s="217"/>
+      <c r="B27" s="220"/>
       <c r="C27" s="74" t="s">
         <v>392</v>
       </c>
@@ -17855,8 +17855,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="223"/>
-      <c r="B28" s="211"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="221"/>
       <c r="C28" s="74" t="s">
         <v>393</v>
       </c>
@@ -17865,10 +17865,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="222" t="s">
+      <c r="A29" s="216" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="209">
+      <c r="B29" s="219">
         <v>9.7870000000000008</v>
       </c>
       <c r="C29" s="74" t="s">
@@ -17879,8 +17879,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="224"/>
-      <c r="B30" s="210"/>
+      <c r="A30" s="217"/>
+      <c r="B30" s="220"/>
       <c r="C30" s="74" t="s">
         <v>396</v>
       </c>
@@ -17889,8 +17889,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="224"/>
-      <c r="B31" s="210"/>
+      <c r="A31" s="217"/>
+      <c r="B31" s="220"/>
       <c r="C31" s="74" t="s">
         <v>397</v>
       </c>
@@ -17899,8 +17899,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="224"/>
-      <c r="B32" s="210"/>
+      <c r="A32" s="217"/>
+      <c r="B32" s="220"/>
       <c r="C32" s="74" t="s">
         <v>398</v>
       </c>
@@ -17909,8 +17909,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="224"/>
-      <c r="B33" s="210"/>
+      <c r="A33" s="217"/>
+      <c r="B33" s="220"/>
       <c r="C33" s="74" t="s">
         <v>399</v>
       </c>
@@ -17919,8 +17919,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="223"/>
-      <c r="B34" s="211"/>
+      <c r="A34" s="218"/>
+      <c r="B34" s="221"/>
       <c r="C34" s="74" t="s">
         <v>400</v>
       </c>
@@ -17943,10 +17943,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="206" t="s">
+      <c r="A36" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="209">
+      <c r="B36" s="219">
         <v>8.0419999999999998</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -17957,8 +17957,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="207"/>
-      <c r="B37" s="210"/>
+      <c r="A37" s="223"/>
+      <c r="B37" s="220"/>
       <c r="C37" s="74" t="s">
         <v>405</v>
       </c>
@@ -17967,8 +17967,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="207"/>
-      <c r="B38" s="210"/>
+      <c r="A38" s="223"/>
+      <c r="B38" s="220"/>
       <c r="C38" s="74" t="s">
         <v>406</v>
       </c>
@@ -17977,8 +17977,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="207"/>
-      <c r="B39" s="210"/>
+      <c r="A39" s="223"/>
+      <c r="B39" s="220"/>
       <c r="C39" s="74" t="s">
         <v>407</v>
       </c>
@@ -17987,8 +17987,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="208"/>
-      <c r="B40" s="211"/>
+      <c r="A40" s="224"/>
+      <c r="B40" s="221"/>
       <c r="C40" s="74" t="s">
         <v>408</v>
       </c>
@@ -17997,10 +17997,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="222" t="s">
+      <c r="A41" s="216" t="s">
         <v>409</v>
       </c>
-      <c r="B41" s="209">
+      <c r="B41" s="219">
         <v>13.038</v>
       </c>
       <c r="C41" s="74" t="s">
@@ -18011,8 +18011,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="224"/>
-      <c r="B42" s="210"/>
+      <c r="A42" s="217"/>
+      <c r="B42" s="220"/>
       <c r="C42" s="74" t="s">
         <v>411</v>
       </c>
@@ -18021,8 +18021,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="224"/>
-      <c r="B43" s="210"/>
+      <c r="A43" s="217"/>
+      <c r="B43" s="220"/>
       <c r="C43" s="74" t="s">
         <v>412</v>
       </c>
@@ -18031,8 +18031,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="224"/>
-      <c r="B44" s="210"/>
+      <c r="A44" s="217"/>
+      <c r="B44" s="220"/>
       <c r="C44" s="74" t="s">
         <v>413</v>
       </c>
@@ -18041,8 +18041,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="224"/>
-      <c r="B45" s="210"/>
+      <c r="A45" s="217"/>
+      <c r="B45" s="220"/>
       <c r="C45" s="74" t="s">
         <v>414</v>
       </c>
@@ -18051,8 +18051,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="223"/>
-      <c r="B46" s="211"/>
+      <c r="A46" s="218"/>
+      <c r="B46" s="221"/>
       <c r="C46" s="74" t="s">
         <v>415</v>
       </c>
@@ -18061,30 +18061,30 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="212" t="s">
+      <c r="A47" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B47" s="213"/>
-      <c r="C47" s="213"/>
-      <c r="D47" s="214"/>
+      <c r="B47" s="207"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="208"/>
     </row>
     <row r="48" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="215" t="s">
+      <c r="A48" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B48" s="216"/>
-      <c r="C48" s="216"/>
-      <c r="D48" s="217"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="211"/>
     </row>
     <row r="49" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="218" t="s">
+      <c r="A49" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B49" s="219"/>
-      <c r="C49" s="220" t="s">
+      <c r="B49" s="213"/>
+      <c r="C49" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="221"/>
+      <c r="D49" s="215"/>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="70" t="s">
@@ -18101,10 +18101,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="222" t="s">
+      <c r="A51" s="216" t="s">
         <v>416</v>
       </c>
-      <c r="B51" s="209">
+      <c r="B51" s="219">
         <v>9.2569999999999997</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -18115,8 +18115,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="224"/>
-      <c r="B52" s="210"/>
+      <c r="A52" s="217"/>
+      <c r="B52" s="220"/>
       <c r="C52" s="74" t="s">
         <v>418</v>
       </c>
@@ -18125,8 +18125,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="224"/>
-      <c r="B53" s="210"/>
+      <c r="A53" s="217"/>
+      <c r="B53" s="220"/>
       <c r="C53" s="74" t="s">
         <v>419</v>
       </c>
@@ -18135,8 +18135,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="224"/>
-      <c r="B54" s="210"/>
+      <c r="A54" s="217"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="74" t="s">
         <v>420</v>
       </c>
@@ -18145,8 +18145,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="224"/>
-      <c r="B55" s="210"/>
+      <c r="A55" s="217"/>
+      <c r="B55" s="220"/>
       <c r="C55" s="74" t="s">
         <v>421</v>
       </c>
@@ -18155,8 +18155,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="223"/>
-      <c r="B56" s="211"/>
+      <c r="A56" s="218"/>
+      <c r="B56" s="221"/>
       <c r="C56" s="74" t="s">
         <v>422</v>
       </c>
@@ -18165,10 +18165,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="222" t="s">
+      <c r="A57" s="216" t="s">
         <v>423</v>
       </c>
-      <c r="B57" s="209">
+      <c r="B57" s="219">
         <v>16.273</v>
       </c>
       <c r="C57" s="74" t="s">
@@ -18179,8 +18179,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="224"/>
-      <c r="B58" s="210"/>
+      <c r="A58" s="217"/>
+      <c r="B58" s="220"/>
       <c r="C58" s="74" t="s">
         <v>425</v>
       </c>
@@ -18189,8 +18189,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="224"/>
-      <c r="B59" s="210"/>
+      <c r="A59" s="217"/>
+      <c r="B59" s="220"/>
       <c r="C59" s="74" t="s">
         <v>426</v>
       </c>
@@ -18199,8 +18199,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="224"/>
-      <c r="B60" s="210"/>
+      <c r="A60" s="217"/>
+      <c r="B60" s="220"/>
       <c r="C60" s="74" t="s">
         <v>427</v>
       </c>
@@ -18209,8 +18209,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="224"/>
-      <c r="B61" s="210"/>
+      <c r="A61" s="217"/>
+      <c r="B61" s="220"/>
       <c r="C61" s="74" t="s">
         <v>428</v>
       </c>
@@ -18219,8 +18219,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="223"/>
-      <c r="B62" s="211"/>
+      <c r="A62" s="218"/>
+      <c r="B62" s="221"/>
       <c r="C62" s="74" t="s">
         <v>429</v>
       </c>
@@ -18229,10 +18229,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="222" t="s">
+      <c r="A63" s="216" t="s">
         <v>430</v>
       </c>
-      <c r="B63" s="209">
+      <c r="B63" s="219">
         <v>8.2769999999999992</v>
       </c>
       <c r="C63" s="74" t="s">
@@ -18243,8 +18243,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="224"/>
-      <c r="B64" s="210"/>
+      <c r="A64" s="217"/>
+      <c r="B64" s="220"/>
       <c r="C64" s="74" t="s">
         <v>432</v>
       </c>
@@ -18253,8 +18253,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="224"/>
-      <c r="B65" s="210"/>
+      <c r="A65" s="217"/>
+      <c r="B65" s="220"/>
       <c r="C65" s="74" t="s">
         <v>433</v>
       </c>
@@ -18263,8 +18263,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="224"/>
-      <c r="B66" s="210"/>
+      <c r="A66" s="217"/>
+      <c r="B66" s="220"/>
       <c r="C66" s="74" t="s">
         <v>434</v>
       </c>
@@ -18273,8 +18273,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="224"/>
-      <c r="B67" s="210"/>
+      <c r="A67" s="217"/>
+      <c r="B67" s="220"/>
       <c r="C67" s="74" t="s">
         <v>435</v>
       </c>
@@ -18283,8 +18283,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="223"/>
-      <c r="B68" s="211"/>
+      <c r="A68" s="218"/>
+      <c r="B68" s="221"/>
       <c r="C68" s="74" t="s">
         <v>436</v>
       </c>
@@ -18293,10 +18293,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="222" t="s">
+      <c r="A69" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="B69" s="209">
+      <c r="B69" s="219">
         <v>10.025</v>
       </c>
       <c r="C69" s="74" t="s">
@@ -18307,8 +18307,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="224"/>
-      <c r="B70" s="210"/>
+      <c r="A70" s="217"/>
+      <c r="B70" s="220"/>
       <c r="C70" s="74" t="s">
         <v>439</v>
       </c>
@@ -18317,8 +18317,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="224"/>
-      <c r="B71" s="210"/>
+      <c r="A71" s="217"/>
+      <c r="B71" s="220"/>
       <c r="C71" s="74" t="s">
         <v>440</v>
       </c>
@@ -18327,8 +18327,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="224"/>
-      <c r="B72" s="210"/>
+      <c r="A72" s="217"/>
+      <c r="B72" s="220"/>
       <c r="C72" s="74" t="s">
         <v>441</v>
       </c>
@@ -18337,8 +18337,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="224"/>
-      <c r="B73" s="210"/>
+      <c r="A73" s="217"/>
+      <c r="B73" s="220"/>
       <c r="C73" s="74" t="s">
         <v>442</v>
       </c>
@@ -18347,8 +18347,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="223"/>
-      <c r="B74" s="211"/>
+      <c r="A74" s="218"/>
+      <c r="B74" s="221"/>
       <c r="C74" s="74" t="s">
         <v>443</v>
       </c>
@@ -18357,10 +18357,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="222" t="s">
+      <c r="A75" s="216" t="s">
         <v>444</v>
       </c>
-      <c r="B75" s="209">
+      <c r="B75" s="219">
         <v>7.2510000000000003</v>
       </c>
       <c r="C75" s="74" t="s">
@@ -18371,8 +18371,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="224"/>
-      <c r="B76" s="210"/>
+      <c r="A76" s="217"/>
+      <c r="B76" s="220"/>
       <c r="C76" s="74" t="s">
         <v>446</v>
       </c>
@@ -18381,8 +18381,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="224"/>
-      <c r="B77" s="210"/>
+      <c r="A77" s="217"/>
+      <c r="B77" s="220"/>
       <c r="C77" s="74" t="s">
         <v>447</v>
       </c>
@@ -18391,8 +18391,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="224"/>
-      <c r="B78" s="210"/>
+      <c r="A78" s="217"/>
+      <c r="B78" s="220"/>
       <c r="C78" s="74" t="s">
         <v>448</v>
       </c>
@@ -18401,8 +18401,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="224"/>
-      <c r="B79" s="210"/>
+      <c r="A79" s="217"/>
+      <c r="B79" s="220"/>
       <c r="C79" s="74" t="s">
         <v>449</v>
       </c>
@@ -18411,8 +18411,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="223"/>
-      <c r="B80" s="211"/>
+      <c r="A80" s="218"/>
+      <c r="B80" s="221"/>
       <c r="C80" s="74" t="s">
         <v>450</v>
       </c>
@@ -18421,10 +18421,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="222" t="s">
+      <c r="A81" s="216" t="s">
         <v>451</v>
       </c>
-      <c r="B81" s="209">
+      <c r="B81" s="219">
         <v>7.3140000000000001</v>
       </c>
       <c r="C81" s="74" t="s">
@@ -18435,8 +18435,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="224"/>
-      <c r="B82" s="210"/>
+      <c r="A82" s="217"/>
+      <c r="B82" s="220"/>
       <c r="C82" s="74" t="s">
         <v>453</v>
       </c>
@@ -18445,8 +18445,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="224"/>
-      <c r="B83" s="210"/>
+      <c r="A83" s="217"/>
+      <c r="B83" s="220"/>
       <c r="C83" s="74" t="s">
         <v>454</v>
       </c>
@@ -18455,8 +18455,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="224"/>
-      <c r="B84" s="210"/>
+      <c r="A84" s="217"/>
+      <c r="B84" s="220"/>
       <c r="C84" s="74" t="s">
         <v>455</v>
       </c>
@@ -18465,8 +18465,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="224"/>
-      <c r="B85" s="210"/>
+      <c r="A85" s="217"/>
+      <c r="B85" s="220"/>
       <c r="C85" s="74" t="s">
         <v>456</v>
       </c>
@@ -18475,8 +18475,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="223"/>
-      <c r="B86" s="211"/>
+      <c r="A86" s="218"/>
+      <c r="B86" s="221"/>
       <c r="C86" s="74" t="s">
         <v>457</v>
       </c>
@@ -18485,10 +18485,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="222" t="s">
+      <c r="A87" s="216" t="s">
         <v>458</v>
       </c>
-      <c r="B87" s="209">
+      <c r="B87" s="219">
         <v>6.718</v>
       </c>
       <c r="C87" s="74" t="s">
@@ -18499,8 +18499,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="224"/>
-      <c r="B88" s="210"/>
+      <c r="A88" s="217"/>
+      <c r="B88" s="220"/>
       <c r="C88" s="74" t="s">
         <v>460</v>
       </c>
@@ -18509,8 +18509,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="224"/>
-      <c r="B89" s="210"/>
+      <c r="A89" s="217"/>
+      <c r="B89" s="220"/>
       <c r="C89" s="74" t="s">
         <v>461</v>
       </c>
@@ -18519,8 +18519,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="224"/>
-      <c r="B90" s="210"/>
+      <c r="A90" s="217"/>
+      <c r="B90" s="220"/>
       <c r="C90" s="74" t="s">
         <v>462</v>
       </c>
@@ -18529,8 +18529,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="224"/>
-      <c r="B91" s="210"/>
+      <c r="A91" s="217"/>
+      <c r="B91" s="220"/>
       <c r="C91" s="74" t="s">
         <v>463</v>
       </c>
@@ -18539,8 +18539,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="223"/>
-      <c r="B92" s="211"/>
+      <c r="A92" s="218"/>
+      <c r="B92" s="221"/>
       <c r="C92" s="74" t="s">
         <v>464</v>
       </c>
@@ -18549,30 +18549,30 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="212" t="s">
+      <c r="A93" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B93" s="213"/>
-      <c r="C93" s="213"/>
-      <c r="D93" s="214"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="207"/>
+      <c r="D93" s="208"/>
     </row>
     <row r="94" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="215" t="s">
+      <c r="A94" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B94" s="216"/>
-      <c r="C94" s="216"/>
-      <c r="D94" s="217"/>
+      <c r="B94" s="210"/>
+      <c r="C94" s="210"/>
+      <c r="D94" s="211"/>
     </row>
     <row r="95" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="218" t="s">
+      <c r="A95" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B95" s="219"/>
-      <c r="C95" s="220" t="s">
+      <c r="B95" s="213"/>
+      <c r="C95" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D95" s="221"/>
+      <c r="D95" s="215"/>
     </row>
     <row r="96" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="70" t="s">
@@ -18589,10 +18589,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="206" t="s">
+      <c r="A97" s="222" t="s">
         <v>465</v>
       </c>
-      <c r="B97" s="209">
+      <c r="B97" s="219">
         <v>8.2650000000000006</v>
       </c>
       <c r="C97" s="74" t="s">
@@ -18603,8 +18603,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="207"/>
-      <c r="B98" s="210"/>
+      <c r="A98" s="223"/>
+      <c r="B98" s="220"/>
       <c r="C98" s="74" t="s">
         <v>467</v>
       </c>
@@ -18613,8 +18613,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="207"/>
-      <c r="B99" s="210"/>
+      <c r="A99" s="223"/>
+      <c r="B99" s="220"/>
       <c r="C99" s="74" t="s">
         <v>468</v>
       </c>
@@ -18623,8 +18623,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="207"/>
-      <c r="B100" s="210"/>
+      <c r="A100" s="223"/>
+      <c r="B100" s="220"/>
       <c r="C100" s="74" t="s">
         <v>469</v>
       </c>
@@ -18633,8 +18633,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="207"/>
-      <c r="B101" s="210"/>
+      <c r="A101" s="223"/>
+      <c r="B101" s="220"/>
       <c r="C101" s="74" t="s">
         <v>470</v>
       </c>
@@ -18643,8 +18643,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="208"/>
-      <c r="B102" s="211"/>
+      <c r="A102" s="224"/>
+      <c r="B102" s="221"/>
       <c r="C102" s="74" t="s">
         <v>471</v>
       </c>
@@ -18653,10 +18653,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="206" t="s">
+      <c r="A103" s="222" t="s">
         <v>472</v>
       </c>
-      <c r="B103" s="209">
+      <c r="B103" s="219">
         <v>7.282</v>
       </c>
       <c r="C103" s="74" t="s">
@@ -18667,8 +18667,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="207"/>
-      <c r="B104" s="210"/>
+      <c r="A104" s="223"/>
+      <c r="B104" s="220"/>
       <c r="C104" s="74" t="s">
         <v>474</v>
       </c>
@@ -18677,8 +18677,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="207"/>
-      <c r="B105" s="210"/>
+      <c r="A105" s="223"/>
+      <c r="B105" s="220"/>
       <c r="C105" s="74" t="s">
         <v>475</v>
       </c>
@@ -18687,8 +18687,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="207"/>
-      <c r="B106" s="210"/>
+      <c r="A106" s="223"/>
+      <c r="B106" s="220"/>
       <c r="C106" s="74" t="s">
         <v>476</v>
       </c>
@@ -18697,8 +18697,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="207"/>
-      <c r="B107" s="210"/>
+      <c r="A107" s="223"/>
+      <c r="B107" s="220"/>
       <c r="C107" s="74" t="s">
         <v>477</v>
       </c>
@@ -18707,8 +18707,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="208"/>
-      <c r="B108" s="211"/>
+      <c r="A108" s="224"/>
+      <c r="B108" s="221"/>
       <c r="C108" s="74" t="s">
         <v>478</v>
       </c>
@@ -18717,10 +18717,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="206" t="s">
+      <c r="A109" s="222" t="s">
         <v>479</v>
       </c>
-      <c r="B109" s="209">
+      <c r="B109" s="219">
         <v>8.0830000000000002</v>
       </c>
       <c r="C109" s="74" t="s">
@@ -18731,8 +18731,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="207"/>
-      <c r="B110" s="210"/>
+      <c r="A110" s="223"/>
+      <c r="B110" s="220"/>
       <c r="C110" s="74" t="s">
         <v>481</v>
       </c>
@@ -18741,8 +18741,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="207"/>
-      <c r="B111" s="210"/>
+      <c r="A111" s="223"/>
+      <c r="B111" s="220"/>
       <c r="C111" s="74" t="s">
         <v>482</v>
       </c>
@@ -18751,8 +18751,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="207"/>
-      <c r="B112" s="210"/>
+      <c r="A112" s="223"/>
+      <c r="B112" s="220"/>
       <c r="C112" s="74" t="s">
         <v>483</v>
       </c>
@@ -18761,8 +18761,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="207"/>
-      <c r="B113" s="210"/>
+      <c r="A113" s="223"/>
+      <c r="B113" s="220"/>
       <c r="C113" s="74" t="s">
         <v>484</v>
       </c>
@@ -18771,8 +18771,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="208"/>
-      <c r="B114" s="211"/>
+      <c r="A114" s="224"/>
+      <c r="B114" s="221"/>
       <c r="C114" s="74" t="s">
         <v>485</v>
       </c>
@@ -18781,10 +18781,10 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="206" t="s">
+      <c r="A115" s="222" t="s">
         <v>486</v>
       </c>
-      <c r="B115" s="209">
+      <c r="B115" s="219">
         <v>8.11</v>
       </c>
       <c r="C115" s="74" t="s">
@@ -18795,8 +18795,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="207"/>
-      <c r="B116" s="210"/>
+      <c r="A116" s="223"/>
+      <c r="B116" s="220"/>
       <c r="C116" s="74" t="s">
         <v>488</v>
       </c>
@@ -18805,8 +18805,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="207"/>
-      <c r="B117" s="210"/>
+      <c r="A117" s="223"/>
+      <c r="B117" s="220"/>
       <c r="C117" s="74" t="s">
         <v>489</v>
       </c>
@@ -18815,8 +18815,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="207"/>
-      <c r="B118" s="210"/>
+      <c r="A118" s="223"/>
+      <c r="B118" s="220"/>
       <c r="C118" s="74" t="s">
         <v>490</v>
       </c>
@@ -18825,8 +18825,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="207"/>
-      <c r="B119" s="210"/>
+      <c r="A119" s="223"/>
+      <c r="B119" s="220"/>
       <c r="C119" s="74" t="s">
         <v>491</v>
       </c>
@@ -18835,8 +18835,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="208"/>
-      <c r="B120" s="211"/>
+      <c r="A120" s="224"/>
+      <c r="B120" s="221"/>
       <c r="C120" s="74" t="s">
         <v>492</v>
       </c>
@@ -18845,10 +18845,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="206" t="s">
+      <c r="A121" s="222" t="s">
         <v>493</v>
       </c>
-      <c r="B121" s="209">
+      <c r="B121" s="219">
         <v>8.8279999999999994</v>
       </c>
       <c r="C121" s="74" t="s">
@@ -18859,8 +18859,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="207"/>
-      <c r="B122" s="210"/>
+      <c r="A122" s="223"/>
+      <c r="B122" s="220"/>
       <c r="C122" s="74" t="s">
         <v>495</v>
       </c>
@@ -18869,8 +18869,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="207"/>
-      <c r="B123" s="210"/>
+      <c r="A123" s="223"/>
+      <c r="B123" s="220"/>
       <c r="C123" s="74" t="s">
         <v>496</v>
       </c>
@@ -18879,8 +18879,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="208"/>
-      <c r="B124" s="211"/>
+      <c r="A124" s="224"/>
+      <c r="B124" s="221"/>
       <c r="C124" s="74" t="s">
         <v>497</v>
       </c>
@@ -18889,10 +18889,10 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="222" t="s">
+      <c r="A125" s="216" t="s">
         <v>498</v>
       </c>
-      <c r="B125" s="209">
+      <c r="B125" s="219">
         <v>8.6389999999999993</v>
       </c>
       <c r="C125" s="74" t="s">
@@ -18903,8 +18903,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="223"/>
-      <c r="B126" s="211"/>
+      <c r="A126" s="218"/>
+      <c r="B126" s="221"/>
       <c r="C126" s="74" t="s">
         <v>500</v>
       </c>
@@ -18913,10 +18913,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="206" t="s">
+      <c r="A127" s="222" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="209">
+      <c r="B127" s="219">
         <v>9.7140000000000004</v>
       </c>
       <c r="C127" s="74" t="s">
@@ -18927,8 +18927,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="207"/>
-      <c r="B128" s="210"/>
+      <c r="A128" s="223"/>
+      <c r="B128" s="220"/>
       <c r="C128" s="74" t="s">
         <v>503</v>
       </c>
@@ -18937,8 +18937,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="207"/>
-      <c r="B129" s="210"/>
+      <c r="A129" s="223"/>
+      <c r="B129" s="220"/>
       <c r="C129" s="74" t="s">
         <v>504</v>
       </c>
@@ -18947,8 +18947,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="207"/>
-      <c r="B130" s="210"/>
+      <c r="A130" s="223"/>
+      <c r="B130" s="220"/>
       <c r="C130" s="74" t="s">
         <v>505</v>
       </c>
@@ -18957,8 +18957,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="207"/>
-      <c r="B131" s="210"/>
+      <c r="A131" s="223"/>
+      <c r="B131" s="220"/>
       <c r="C131" s="74" t="s">
         <v>506</v>
       </c>
@@ -18967,8 +18967,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="208"/>
-      <c r="B132" s="211"/>
+      <c r="A132" s="224"/>
+      <c r="B132" s="221"/>
       <c r="C132" s="74" t="s">
         <v>507</v>
       </c>
@@ -18977,10 +18977,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="206" t="s">
+      <c r="A133" s="222" t="s">
         <v>508</v>
       </c>
-      <c r="B133" s="209">
+      <c r="B133" s="219">
         <v>12.66</v>
       </c>
       <c r="C133" s="74" t="s">
@@ -18991,8 +18991,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="207"/>
-      <c r="B134" s="210"/>
+      <c r="A134" s="223"/>
+      <c r="B134" s="220"/>
       <c r="C134" s="74" t="s">
         <v>510</v>
       </c>
@@ -19001,8 +19001,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="207"/>
-      <c r="B135" s="210"/>
+      <c r="A135" s="223"/>
+      <c r="B135" s="220"/>
       <c r="C135" s="74" t="s">
         <v>511</v>
       </c>
@@ -19011,8 +19011,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="207"/>
-      <c r="B136" s="210"/>
+      <c r="A136" s="223"/>
+      <c r="B136" s="220"/>
       <c r="C136" s="74" t="s">
         <v>512</v>
       </c>
@@ -19021,8 +19021,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="207"/>
-      <c r="B137" s="210"/>
+      <c r="A137" s="223"/>
+      <c r="B137" s="220"/>
       <c r="C137" s="74" t="s">
         <v>513</v>
       </c>
@@ -19031,8 +19031,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="208"/>
-      <c r="B138" s="211"/>
+      <c r="A138" s="224"/>
+      <c r="B138" s="221"/>
       <c r="C138" s="74" t="s">
         <v>514</v>
       </c>
@@ -19041,30 +19041,30 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="212" t="s">
+      <c r="A139" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B139" s="213"/>
-      <c r="C139" s="213"/>
-      <c r="D139" s="214"/>
+      <c r="B139" s="207"/>
+      <c r="C139" s="207"/>
+      <c r="D139" s="208"/>
     </row>
     <row r="140" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="215" t="s">
+      <c r="A140" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B140" s="216"/>
-      <c r="C140" s="216"/>
-      <c r="D140" s="217"/>
+      <c r="B140" s="210"/>
+      <c r="C140" s="210"/>
+      <c r="D140" s="211"/>
     </row>
     <row r="141" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="218" t="s">
+      <c r="A141" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B141" s="219"/>
-      <c r="C141" s="220" t="s">
+      <c r="B141" s="213"/>
+      <c r="C141" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D141" s="221"/>
+      <c r="D141" s="215"/>
     </row>
     <row r="142" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="70" t="s">
@@ -19081,10 +19081,10 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="206" t="s">
+      <c r="A143" s="222" t="s">
         <v>515</v>
       </c>
-      <c r="B143" s="209">
+      <c r="B143" s="219">
         <v>11.79</v>
       </c>
       <c r="C143" s="74" t="s">
@@ -19095,8 +19095,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="207"/>
-      <c r="B144" s="210"/>
+      <c r="A144" s="223"/>
+      <c r="B144" s="220"/>
       <c r="C144" s="74" t="s">
         <v>517</v>
       </c>
@@ -19105,8 +19105,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="207"/>
-      <c r="B145" s="210"/>
+      <c r="A145" s="223"/>
+      <c r="B145" s="220"/>
       <c r="C145" s="74" t="s">
         <v>518</v>
       </c>
@@ -19115,8 +19115,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="207"/>
-      <c r="B146" s="210"/>
+      <c r="A146" s="223"/>
+      <c r="B146" s="220"/>
       <c r="C146" s="74" t="s">
         <v>519</v>
       </c>
@@ -19125,8 +19125,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="207"/>
-      <c r="B147" s="210"/>
+      <c r="A147" s="223"/>
+      <c r="B147" s="220"/>
       <c r="C147" s="74" t="s">
         <v>520</v>
       </c>
@@ -19135,8 +19135,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="208"/>
-      <c r="B148" s="211"/>
+      <c r="A148" s="224"/>
+      <c r="B148" s="221"/>
       <c r="C148" s="74" t="s">
         <v>521</v>
       </c>
@@ -19145,10 +19145,10 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="206" t="s">
+      <c r="A149" s="222" t="s">
         <v>522</v>
       </c>
-      <c r="B149" s="209">
+      <c r="B149" s="219">
         <v>10.919</v>
       </c>
       <c r="C149" s="74" t="s">
@@ -19159,8 +19159,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="207"/>
-      <c r="B150" s="210"/>
+      <c r="A150" s="223"/>
+      <c r="B150" s="220"/>
       <c r="C150" s="74" t="s">
         <v>524</v>
       </c>
@@ -19169,8 +19169,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="207"/>
-      <c r="B151" s="210"/>
+      <c r="A151" s="223"/>
+      <c r="B151" s="220"/>
       <c r="C151" s="74" t="s">
         <v>525</v>
       </c>
@@ -19179,8 +19179,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="207"/>
-      <c r="B152" s="210"/>
+      <c r="A152" s="223"/>
+      <c r="B152" s="220"/>
       <c r="C152" s="74" t="s">
         <v>526</v>
       </c>
@@ -19189,8 +19189,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="207"/>
-      <c r="B153" s="210"/>
+      <c r="A153" s="223"/>
+      <c r="B153" s="220"/>
       <c r="C153" s="74" t="s">
         <v>527</v>
       </c>
@@ -19199,8 +19199,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="208"/>
-      <c r="B154" s="211"/>
+      <c r="A154" s="224"/>
+      <c r="B154" s="221"/>
       <c r="C154" s="74" t="s">
         <v>528</v>
       </c>
@@ -19209,10 +19209,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="206" t="s">
+      <c r="A155" s="222" t="s">
         <v>529</v>
       </c>
-      <c r="B155" s="209">
+      <c r="B155" s="219">
         <v>10.215</v>
       </c>
       <c r="C155" s="74" t="s">
@@ -19223,8 +19223,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="207"/>
-      <c r="B156" s="210"/>
+      <c r="A156" s="223"/>
+      <c r="B156" s="220"/>
       <c r="C156" s="74" t="s">
         <v>531</v>
       </c>
@@ -19233,8 +19233,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="207"/>
-      <c r="B157" s="210"/>
+      <c r="A157" s="223"/>
+      <c r="B157" s="220"/>
       <c r="C157" s="74" t="s">
         <v>532</v>
       </c>
@@ -19243,8 +19243,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="207"/>
-      <c r="B158" s="210"/>
+      <c r="A158" s="223"/>
+      <c r="B158" s="220"/>
       <c r="C158" s="74" t="s">
         <v>533</v>
       </c>
@@ -19253,8 +19253,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="207"/>
-      <c r="B159" s="210"/>
+      <c r="A159" s="223"/>
+      <c r="B159" s="220"/>
       <c r="C159" s="74" t="s">
         <v>534</v>
       </c>
@@ -19263,8 +19263,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="208"/>
-      <c r="B160" s="211"/>
+      <c r="A160" s="224"/>
+      <c r="B160" s="221"/>
       <c r="C160" s="74" t="s">
         <v>535</v>
       </c>
@@ -19273,10 +19273,10 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="206" t="s">
+      <c r="A161" s="222" t="s">
         <v>536</v>
       </c>
-      <c r="B161" s="209">
+      <c r="B161" s="219">
         <v>11.672000000000001</v>
       </c>
       <c r="C161" s="74" t="s">
@@ -19287,8 +19287,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="207"/>
-      <c r="B162" s="210"/>
+      <c r="A162" s="223"/>
+      <c r="B162" s="220"/>
       <c r="C162" s="74" t="s">
         <v>538</v>
       </c>
@@ -19297,8 +19297,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="207"/>
-      <c r="B163" s="210"/>
+      <c r="A163" s="223"/>
+      <c r="B163" s="220"/>
       <c r="C163" s="74" t="s">
         <v>539</v>
       </c>
@@ -19307,8 +19307,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="207"/>
-      <c r="B164" s="210"/>
+      <c r="A164" s="223"/>
+      <c r="B164" s="220"/>
       <c r="C164" s="74" t="s">
         <v>540</v>
       </c>
@@ -19317,8 +19317,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="207"/>
-      <c r="B165" s="210"/>
+      <c r="A165" s="223"/>
+      <c r="B165" s="220"/>
       <c r="C165" s="74" t="s">
         <v>541</v>
       </c>
@@ -19327,8 +19327,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="208"/>
-      <c r="B166" s="211"/>
+      <c r="A166" s="224"/>
+      <c r="B166" s="221"/>
       <c r="C166" s="74" t="s">
         <v>542</v>
       </c>
@@ -19337,10 +19337,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="206" t="s">
+      <c r="A167" s="222" t="s">
         <v>543</v>
       </c>
-      <c r="B167" s="209">
+      <c r="B167" s="219">
         <v>9.6929999999999996</v>
       </c>
       <c r="C167" s="74" t="s">
@@ -19351,8 +19351,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="207"/>
-      <c r="B168" s="210"/>
+      <c r="A168" s="223"/>
+      <c r="B168" s="220"/>
       <c r="C168" s="74" t="s">
         <v>545</v>
       </c>
@@ -19361,8 +19361,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="207"/>
-      <c r="B169" s="210"/>
+      <c r="A169" s="223"/>
+      <c r="B169" s="220"/>
       <c r="C169" s="74" t="s">
         <v>546</v>
       </c>
@@ -19371,8 +19371,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="207"/>
-      <c r="B170" s="210"/>
+      <c r="A170" s="223"/>
+      <c r="B170" s="220"/>
       <c r="C170" s="74" t="s">
         <v>547</v>
       </c>
@@ -19381,8 +19381,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="207"/>
-      <c r="B171" s="210"/>
+      <c r="A171" s="223"/>
+      <c r="B171" s="220"/>
       <c r="C171" s="74" t="s">
         <v>548</v>
       </c>
@@ -19391,8 +19391,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="208"/>
-      <c r="B172" s="211"/>
+      <c r="A172" s="224"/>
+      <c r="B172" s="221"/>
       <c r="C172" s="74" t="s">
         <v>549</v>
       </c>
@@ -19401,10 +19401,10 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="206" t="s">
+      <c r="A173" s="222" t="s">
         <v>550</v>
       </c>
-      <c r="B173" s="209">
+      <c r="B173" s="219">
         <v>10.718</v>
       </c>
       <c r="C173" s="74" t="s">
@@ -19415,8 +19415,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="207"/>
-      <c r="B174" s="210"/>
+      <c r="A174" s="223"/>
+      <c r="B174" s="220"/>
       <c r="C174" s="74" t="s">
         <v>552</v>
       </c>
@@ -19425,8 +19425,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="207"/>
-      <c r="B175" s="210"/>
+      <c r="A175" s="223"/>
+      <c r="B175" s="220"/>
       <c r="C175" s="74" t="s">
         <v>553</v>
       </c>
@@ -19435,8 +19435,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="207"/>
-      <c r="B176" s="210"/>
+      <c r="A176" s="223"/>
+      <c r="B176" s="220"/>
       <c r="C176" s="74" t="s">
         <v>554</v>
       </c>
@@ -19445,8 +19445,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="207"/>
-      <c r="B177" s="210"/>
+      <c r="A177" s="223"/>
+      <c r="B177" s="220"/>
       <c r="C177" s="74" t="s">
         <v>555</v>
       </c>
@@ -19455,8 +19455,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="208"/>
-      <c r="B178" s="211"/>
+      <c r="A178" s="224"/>
+      <c r="B178" s="221"/>
       <c r="C178" s="74" t="s">
         <v>556</v>
       </c>
@@ -19465,30 +19465,30 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="212" t="s">
+      <c r="A179" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="B179" s="213"/>
-      <c r="C179" s="213"/>
-      <c r="D179" s="214"/>
+      <c r="B179" s="207"/>
+      <c r="C179" s="207"/>
+      <c r="D179" s="208"/>
     </row>
     <row r="180" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="215" t="s">
+      <c r="A180" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="B180" s="216"/>
-      <c r="C180" s="216"/>
-      <c r="D180" s="217"/>
+      <c r="B180" s="210"/>
+      <c r="C180" s="210"/>
+      <c r="D180" s="211"/>
     </row>
     <row r="181" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="218" t="s">
+      <c r="A181" s="212" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="219"/>
-      <c r="C181" s="220" t="s">
+      <c r="B181" s="213"/>
+      <c r="C181" s="214" t="s">
         <v>362</v>
       </c>
-      <c r="D181" s="221"/>
+      <c r="D181" s="215"/>
     </row>
     <row r="182" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="70" t="s">
@@ -19505,10 +19505,10 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="206" t="s">
+      <c r="A183" s="222" t="s">
         <v>557</v>
       </c>
-      <c r="B183" s="209">
+      <c r="B183" s="219">
         <v>7.2130000000000001</v>
       </c>
       <c r="C183" s="74" t="s">
@@ -19519,8 +19519,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="207"/>
-      <c r="B184" s="210"/>
+      <c r="A184" s="223"/>
+      <c r="B184" s="220"/>
       <c r="C184" s="74" t="s">
         <v>559</v>
       </c>
@@ -19529,8 +19529,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="207"/>
-      <c r="B185" s="210"/>
+      <c r="A185" s="223"/>
+      <c r="B185" s="220"/>
       <c r="C185" s="74" t="s">
         <v>560</v>
       </c>
@@ -19539,8 +19539,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="207"/>
-      <c r="B186" s="210"/>
+      <c r="A186" s="223"/>
+      <c r="B186" s="220"/>
       <c r="C186" s="74" t="s">
         <v>561</v>
       </c>
@@ -19549,8 +19549,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="207"/>
-      <c r="B187" s="210"/>
+      <c r="A187" s="223"/>
+      <c r="B187" s="220"/>
       <c r="C187" s="74" t="s">
         <v>562</v>
       </c>
@@ -19559,8 +19559,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="208"/>
-      <c r="B188" s="211"/>
+      <c r="A188" s="224"/>
+      <c r="B188" s="221"/>
       <c r="C188" s="74" t="s">
         <v>563</v>
       </c>
@@ -19569,10 +19569,10 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="206" t="s">
+      <c r="A189" s="222" t="s">
         <v>564</v>
       </c>
-      <c r="B189" s="209">
+      <c r="B189" s="219">
         <v>7.093</v>
       </c>
       <c r="C189" s="74" t="s">
@@ -19583,8 +19583,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="207"/>
-      <c r="B190" s="210"/>
+      <c r="A190" s="223"/>
+      <c r="B190" s="220"/>
       <c r="C190" s="74" t="s">
         <v>566</v>
       </c>
@@ -19593,8 +19593,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="207"/>
-      <c r="B191" s="210"/>
+      <c r="A191" s="223"/>
+      <c r="B191" s="220"/>
       <c r="C191" s="74" t="s">
         <v>567</v>
       </c>
@@ -19603,8 +19603,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="207"/>
-      <c r="B192" s="210"/>
+      <c r="A192" s="223"/>
+      <c r="B192" s="220"/>
       <c r="C192" s="74" t="s">
         <v>568</v>
       </c>
@@ -19613,8 +19613,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="207"/>
-      <c r="B193" s="210"/>
+      <c r="A193" s="223"/>
+      <c r="B193" s="220"/>
       <c r="C193" s="74" t="s">
         <v>569</v>
       </c>
@@ -19623,8 +19623,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="208"/>
-      <c r="B194" s="211"/>
+      <c r="A194" s="224"/>
+      <c r="B194" s="221"/>
       <c r="C194" s="74" t="s">
         <v>570</v>
       </c>
@@ -19634,78 +19634,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="B173:B178"/>
     <mergeCell ref="A189:A194"/>
     <mergeCell ref="B189:B194"/>
     <mergeCell ref="A179:D179"/>
@@ -19714,6 +19642,78 @@
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="A183:A188"/>
     <mergeCell ref="B183:B188"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="B173:B178"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/whatif/whatif.xlsx
+++ b/whatif/whatif.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="624">
   <si>
     <t>Rates</t>
   </si>
@@ -3599,6 +3599,9 @@
   </si>
   <si>
     <t>Good Energy</t>
+  </si>
+  <si>
+    <t>June 2018 – December 2020</t>
   </si>
 </sst>
 </file>
@@ -5391,6 +5394,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
     </xf>
@@ -5424,29 +5445,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="46" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="47" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="48" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -14833,7 +14836,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14940,7 +14943,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -14951,7 +14954,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -14970,8 +14973,11 @@
       <c r="F7" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.65" x14ac:dyDescent="0.4">
+      <c r="H7" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -17569,30 +17575,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="208"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="214"/>
     </row>
     <row r="2" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="211"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="217"/>
     </row>
     <row r="3" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="213"/>
-      <c r="C3" s="214" t="s">
+      <c r="B3" s="219"/>
+      <c r="C3" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="215"/>
+      <c r="D3" s="221"/>
     </row>
     <row r="4" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="70" t="s">
@@ -17609,10 +17615,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="222" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="219">
+      <c r="B5" s="209">
         <v>13.718</v>
       </c>
       <c r="C5" s="74" t="s">
@@ -17623,8 +17629,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="217"/>
-      <c r="B6" s="220"/>
+      <c r="A6" s="224"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="74" t="s">
         <v>368</v>
       </c>
@@ -17633,8 +17639,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="217"/>
-      <c r="B7" s="220"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="74" t="s">
         <v>369</v>
       </c>
@@ -17643,8 +17649,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="217"/>
-      <c r="B8" s="220"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="210"/>
       <c r="C8" s="74" t="s">
         <v>370</v>
       </c>
@@ -17653,8 +17659,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="217"/>
-      <c r="B9" s="220"/>
+      <c r="A9" s="224"/>
+      <c r="B9" s="210"/>
       <c r="C9" s="74" t="s">
         <v>371</v>
       </c>
@@ -17663,8 +17669,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="218"/>
-      <c r="B10" s="221"/>
+      <c r="A10" s="223"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="74" t="s">
         <v>372</v>
       </c>
@@ -17673,10 +17679,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="222" t="s">
         <v>373</v>
       </c>
-      <c r="B11" s="219">
+      <c r="B11" s="209">
         <v>10.87</v>
       </c>
       <c r="C11" s="74" t="s">
@@ -17687,8 +17693,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="217"/>
-      <c r="B12" s="220"/>
+      <c r="A12" s="224"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="74" t="s">
         <v>375</v>
       </c>
@@ -17697,8 +17703,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="217"/>
-      <c r="B13" s="220"/>
+      <c r="A13" s="224"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="74" t="s">
         <v>376</v>
       </c>
@@ -17707,8 +17713,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="217"/>
-      <c r="B14" s="220"/>
+      <c r="A14" s="224"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="74" t="s">
         <v>377</v>
       </c>
@@ -17717,8 +17723,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="217"/>
-      <c r="B15" s="220"/>
+      <c r="A15" s="224"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="74" t="s">
         <v>378</v>
       </c>
@@ -17727,8 +17733,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="218"/>
-      <c r="B16" s="221"/>
+      <c r="A16" s="223"/>
+      <c r="B16" s="211"/>
       <c r="C16" s="74" t="s">
         <v>379</v>
       </c>
@@ -17737,10 +17743,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="216" t="s">
+      <c r="A17" s="222" t="s">
         <v>380</v>
       </c>
-      <c r="B17" s="219">
+      <c r="B17" s="209">
         <v>12.673</v>
       </c>
       <c r="C17" s="74" t="s">
@@ -17751,8 +17757,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="217"/>
-      <c r="B18" s="220"/>
+      <c r="A18" s="224"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="74" t="s">
         <v>382</v>
       </c>
@@ -17761,8 +17767,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="217"/>
-      <c r="B19" s="220"/>
+      <c r="A19" s="224"/>
+      <c r="B19" s="210"/>
       <c r="C19" s="74" t="s">
         <v>383</v>
       </c>
@@ -17771,8 +17777,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="217"/>
-      <c r="B20" s="220"/>
+      <c r="A20" s="224"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="74" t="s">
         <v>384</v>
       </c>
@@ -17781,8 +17787,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="217"/>
-      <c r="B21" s="220"/>
+      <c r="A21" s="224"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="74" t="s">
         <v>385</v>
       </c>
@@ -17791,8 +17797,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="218"/>
-      <c r="B22" s="221"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="74" t="s">
         <v>386</v>
       </c>
@@ -17801,10 +17807,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="216" t="s">
+      <c r="A23" s="222" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="219">
+      <c r="B23" s="209">
         <v>9.4320000000000004</v>
       </c>
       <c r="C23" s="74" t="s">
@@ -17815,8 +17821,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="217"/>
-      <c r="B24" s="220"/>
+      <c r="A24" s="224"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="74" t="s">
         <v>389</v>
       </c>
@@ -17825,8 +17831,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="217"/>
-      <c r="B25" s="220"/>
+      <c r="A25" s="224"/>
+      <c r="B25" s="210"/>
       <c r="C25" s="74" t="s">
         <v>390</v>
       </c>
@@ -17835,8 +17841,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="217"/>
-      <c r="B26" s="220"/>
+      <c r="A26" s="224"/>
+      <c r="B26" s="210"/>
       <c r="C26" s="74" t="s">
         <v>391</v>
       </c>
@@ -17845,8 +17851,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="217"/>
-      <c r="B27" s="220"/>
+      <c r="A27" s="224"/>
+      <c r="B27" s="210"/>
       <c r="C27" s="74" t="s">
         <v>392</v>
       </c>
@@ -17855,8 +17861,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="218"/>
-      <c r="B28" s="221"/>
+      <c r="A28" s="223"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="74" t="s">
         <v>393</v>
       </c>
@@ -17865,10 +17871,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="216" t="s">
+      <c r="A29" s="222" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="219">
+      <c r="B29" s="209">
         <v>9.7870000000000008</v>
       </c>
       <c r="C29" s="74" t="s">
@@ -17879,8 +17885,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="217"/>
-      <c r="B30" s="220"/>
+      <c r="A30" s="224"/>
+      <c r="B30" s="210"/>
       <c r="C30" s="74" t="s">
         <v>396</v>
       </c>
@@ -17889,8 +17895,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="217"/>
-      <c r="B31" s="220"/>
+      <c r="A31" s="224"/>
+      <c r="B31" s="210"/>
       <c r="C31" s="74" t="s">
         <v>397</v>
       </c>
@@ -17899,8 +17905,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="217"/>
-      <c r="B32" s="220"/>
+      <c r="A32" s="224"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="74" t="s">
         <v>398</v>
       </c>
@@ -17909,8 +17915,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="217"/>
-      <c r="B33" s="220"/>
+      <c r="A33" s="224"/>
+      <c r="B33" s="210"/>
       <c r="C33" s="74" t="s">
         <v>399</v>
       </c>
@@ -17919,8 +17925,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="218"/>
-      <c r="B34" s="221"/>
+      <c r="A34" s="223"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="74" t="s">
         <v>400</v>
       </c>
@@ -17943,10 +17949,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="222" t="s">
+      <c r="A36" s="206" t="s">
         <v>403</v>
       </c>
-      <c r="B36" s="219">
+      <c r="B36" s="209">
         <v>8.0419999999999998</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -17957,8 +17963,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="223"/>
-      <c r="B37" s="220"/>
+      <c r="A37" s="207"/>
+      <c r="B37" s="210"/>
       <c r="C37" s="74" t="s">
         <v>405</v>
       </c>
@@ -17967,8 +17973,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="223"/>
-      <c r="B38" s="220"/>
+      <c r="A38" s="207"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="74" t="s">
         <v>406</v>
       </c>
@@ -17977,8 +17983,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="223"/>
-      <c r="B39" s="220"/>
+      <c r="A39" s="207"/>
+      <c r="B39" s="210"/>
       <c r="C39" s="74" t="s">
         <v>407</v>
       </c>
@@ -17987,8 +17993,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="224"/>
-      <c r="B40" s="221"/>
+      <c r="A40" s="208"/>
+      <c r="B40" s="211"/>
       <c r="C40" s="74" t="s">
         <v>408</v>
       </c>
@@ -17997,10 +18003,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="216" t="s">
+      <c r="A41" s="222" t="s">
         <v>409</v>
       </c>
-      <c r="B41" s="219">
+      <c r="B41" s="209">
         <v>13.038</v>
       </c>
       <c r="C41" s="74" t="s">
@@ -18011,8 +18017,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="217"/>
-      <c r="B42" s="220"/>
+      <c r="A42" s="224"/>
+      <c r="B42" s="210"/>
       <c r="C42" s="74" t="s">
         <v>411</v>
       </c>
@@ -18021,8 +18027,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="217"/>
-      <c r="B43" s="220"/>
+      <c r="A43" s="224"/>
+      <c r="B43" s="210"/>
       <c r="C43" s="74" t="s">
         <v>412</v>
       </c>
@@ -18031,8 +18037,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="217"/>
-      <c r="B44" s="220"/>
+      <c r="A44" s="224"/>
+      <c r="B44" s="210"/>
       <c r="C44" s="74" t="s">
         <v>413</v>
       </c>
@@ -18041,8 +18047,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="217"/>
-      <c r="B45" s="220"/>
+      <c r="A45" s="224"/>
+      <c r="B45" s="210"/>
       <c r="C45" s="74" t="s">
         <v>414</v>
       </c>
@@ -18051,8 +18057,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="218"/>
-      <c r="B46" s="221"/>
+      <c r="A46" s="223"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="74" t="s">
         <v>415</v>
       </c>
@@ -18061,30 +18067,30 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="206" t="s">
+      <c r="A47" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B47" s="207"/>
-      <c r="C47" s="207"/>
-      <c r="D47" s="208"/>
+      <c r="B47" s="213"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="214"/>
     </row>
     <row r="48" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="209" t="s">
+      <c r="A48" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="211"/>
+      <c r="B48" s="216"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="217"/>
     </row>
     <row r="49" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="212" t="s">
+      <c r="A49" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B49" s="213"/>
-      <c r="C49" s="214" t="s">
+      <c r="B49" s="219"/>
+      <c r="C49" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="215"/>
+      <c r="D49" s="221"/>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="70" t="s">
@@ -18101,10 +18107,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="216" t="s">
+      <c r="A51" s="222" t="s">
         <v>416</v>
       </c>
-      <c r="B51" s="219">
+      <c r="B51" s="209">
         <v>9.2569999999999997</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -18115,8 +18121,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="217"/>
-      <c r="B52" s="220"/>
+      <c r="A52" s="224"/>
+      <c r="B52" s="210"/>
       <c r="C52" s="74" t="s">
         <v>418</v>
       </c>
@@ -18125,8 +18131,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="217"/>
-      <c r="B53" s="220"/>
+      <c r="A53" s="224"/>
+      <c r="B53" s="210"/>
       <c r="C53" s="74" t="s">
         <v>419</v>
       </c>
@@ -18135,8 +18141,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="217"/>
-      <c r="B54" s="220"/>
+      <c r="A54" s="224"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="74" t="s">
         <v>420</v>
       </c>
@@ -18145,8 +18151,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="217"/>
-      <c r="B55" s="220"/>
+      <c r="A55" s="224"/>
+      <c r="B55" s="210"/>
       <c r="C55" s="74" t="s">
         <v>421</v>
       </c>
@@ -18155,8 +18161,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="218"/>
-      <c r="B56" s="221"/>
+      <c r="A56" s="223"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="74" t="s">
         <v>422</v>
       </c>
@@ -18165,10 +18171,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="216" t="s">
+      <c r="A57" s="222" t="s">
         <v>423</v>
       </c>
-      <c r="B57" s="219">
+      <c r="B57" s="209">
         <v>16.273</v>
       </c>
       <c r="C57" s="74" t="s">
@@ -18179,8 +18185,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="217"/>
-      <c r="B58" s="220"/>
+      <c r="A58" s="224"/>
+      <c r="B58" s="210"/>
       <c r="C58" s="74" t="s">
         <v>425</v>
       </c>
@@ -18189,8 +18195,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="217"/>
-      <c r="B59" s="220"/>
+      <c r="A59" s="224"/>
+      <c r="B59" s="210"/>
       <c r="C59" s="74" t="s">
         <v>426</v>
       </c>
@@ -18199,8 +18205,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="217"/>
-      <c r="B60" s="220"/>
+      <c r="A60" s="224"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="74" t="s">
         <v>427</v>
       </c>
@@ -18209,8 +18215,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="217"/>
-      <c r="B61" s="220"/>
+      <c r="A61" s="224"/>
+      <c r="B61" s="210"/>
       <c r="C61" s="74" t="s">
         <v>428</v>
       </c>
@@ -18219,8 +18225,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="218"/>
-      <c r="B62" s="221"/>
+      <c r="A62" s="223"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="74" t="s">
         <v>429</v>
       </c>
@@ -18229,10 +18235,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="216" t="s">
+      <c r="A63" s="222" t="s">
         <v>430</v>
       </c>
-      <c r="B63" s="219">
+      <c r="B63" s="209">
         <v>8.2769999999999992</v>
       </c>
       <c r="C63" s="74" t="s">
@@ -18243,8 +18249,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="217"/>
-      <c r="B64" s="220"/>
+      <c r="A64" s="224"/>
+      <c r="B64" s="210"/>
       <c r="C64" s="74" t="s">
         <v>432</v>
       </c>
@@ -18253,8 +18259,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="217"/>
-      <c r="B65" s="220"/>
+      <c r="A65" s="224"/>
+      <c r="B65" s="210"/>
       <c r="C65" s="74" t="s">
         <v>433</v>
       </c>
@@ -18263,8 +18269,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="217"/>
-      <c r="B66" s="220"/>
+      <c r="A66" s="224"/>
+      <c r="B66" s="210"/>
       <c r="C66" s="74" t="s">
         <v>434</v>
       </c>
@@ -18273,8 +18279,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="217"/>
-      <c r="B67" s="220"/>
+      <c r="A67" s="224"/>
+      <c r="B67" s="210"/>
       <c r="C67" s="74" t="s">
         <v>435</v>
       </c>
@@ -18283,8 +18289,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="218"/>
-      <c r="B68" s="221"/>
+      <c r="A68" s="223"/>
+      <c r="B68" s="211"/>
       <c r="C68" s="74" t="s">
         <v>436</v>
       </c>
@@ -18293,10 +18299,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="216" t="s">
+      <c r="A69" s="222" t="s">
         <v>437</v>
       </c>
-      <c r="B69" s="219">
+      <c r="B69" s="209">
         <v>10.025</v>
       </c>
       <c r="C69" s="74" t="s">
@@ -18307,8 +18313,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="217"/>
-      <c r="B70" s="220"/>
+      <c r="A70" s="224"/>
+      <c r="B70" s="210"/>
       <c r="C70" s="74" t="s">
         <v>439</v>
       </c>
@@ -18317,8 +18323,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="217"/>
-      <c r="B71" s="220"/>
+      <c r="A71" s="224"/>
+      <c r="B71" s="210"/>
       <c r="C71" s="74" t="s">
         <v>440</v>
       </c>
@@ -18327,8 +18333,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="217"/>
-      <c r="B72" s="220"/>
+      <c r="A72" s="224"/>
+      <c r="B72" s="210"/>
       <c r="C72" s="74" t="s">
         <v>441</v>
       </c>
@@ -18337,8 +18343,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="217"/>
-      <c r="B73" s="220"/>
+      <c r="A73" s="224"/>
+      <c r="B73" s="210"/>
       <c r="C73" s="74" t="s">
         <v>442</v>
       </c>
@@ -18347,8 +18353,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="218"/>
-      <c r="B74" s="221"/>
+      <c r="A74" s="223"/>
+      <c r="B74" s="211"/>
       <c r="C74" s="74" t="s">
         <v>443</v>
       </c>
@@ -18357,10 +18363,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="216" t="s">
+      <c r="A75" s="222" t="s">
         <v>444</v>
       </c>
-      <c r="B75" s="219">
+      <c r="B75" s="209">
         <v>7.2510000000000003</v>
       </c>
       <c r="C75" s="74" t="s">
@@ -18371,8 +18377,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="217"/>
-      <c r="B76" s="220"/>
+      <c r="A76" s="224"/>
+      <c r="B76" s="210"/>
       <c r="C76" s="74" t="s">
         <v>446</v>
       </c>
@@ -18381,8 +18387,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="217"/>
-      <c r="B77" s="220"/>
+      <c r="A77" s="224"/>
+      <c r="B77" s="210"/>
       <c r="C77" s="74" t="s">
         <v>447</v>
       </c>
@@ -18391,8 +18397,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="217"/>
-      <c r="B78" s="220"/>
+      <c r="A78" s="224"/>
+      <c r="B78" s="210"/>
       <c r="C78" s="74" t="s">
         <v>448</v>
       </c>
@@ -18401,8 +18407,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="217"/>
-      <c r="B79" s="220"/>
+      <c r="A79" s="224"/>
+      <c r="B79" s="210"/>
       <c r="C79" s="74" t="s">
         <v>449</v>
       </c>
@@ -18411,8 +18417,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="218"/>
-      <c r="B80" s="221"/>
+      <c r="A80" s="223"/>
+      <c r="B80" s="211"/>
       <c r="C80" s="74" t="s">
         <v>450</v>
       </c>
@@ -18421,10 +18427,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="216" t="s">
+      <c r="A81" s="222" t="s">
         <v>451</v>
       </c>
-      <c r="B81" s="219">
+      <c r="B81" s="209">
         <v>7.3140000000000001</v>
       </c>
       <c r="C81" s="74" t="s">
@@ -18435,8 +18441,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="217"/>
-      <c r="B82" s="220"/>
+      <c r="A82" s="224"/>
+      <c r="B82" s="210"/>
       <c r="C82" s="74" t="s">
         <v>453</v>
       </c>
@@ -18445,8 +18451,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="217"/>
-      <c r="B83" s="220"/>
+      <c r="A83" s="224"/>
+      <c r="B83" s="210"/>
       <c r="C83" s="74" t="s">
         <v>454</v>
       </c>
@@ -18455,8 +18461,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="217"/>
-      <c r="B84" s="220"/>
+      <c r="A84" s="224"/>
+      <c r="B84" s="210"/>
       <c r="C84" s="74" t="s">
         <v>455</v>
       </c>
@@ -18465,8 +18471,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="217"/>
-      <c r="B85" s="220"/>
+      <c r="A85" s="224"/>
+      <c r="B85" s="210"/>
       <c r="C85" s="74" t="s">
         <v>456</v>
       </c>
@@ -18475,8 +18481,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="218"/>
-      <c r="B86" s="221"/>
+      <c r="A86" s="223"/>
+      <c r="B86" s="211"/>
       <c r="C86" s="74" t="s">
         <v>457</v>
       </c>
@@ -18485,10 +18491,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="216" t="s">
+      <c r="A87" s="222" t="s">
         <v>458</v>
       </c>
-      <c r="B87" s="219">
+      <c r="B87" s="209">
         <v>6.718</v>
       </c>
       <c r="C87" s="74" t="s">
@@ -18499,8 +18505,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="217"/>
-      <c r="B88" s="220"/>
+      <c r="A88" s="224"/>
+      <c r="B88" s="210"/>
       <c r="C88" s="74" t="s">
         <v>460</v>
       </c>
@@ -18509,8 +18515,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="217"/>
-      <c r="B89" s="220"/>
+      <c r="A89" s="224"/>
+      <c r="B89" s="210"/>
       <c r="C89" s="74" t="s">
         <v>461</v>
       </c>
@@ -18519,8 +18525,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="217"/>
-      <c r="B90" s="220"/>
+      <c r="A90" s="224"/>
+      <c r="B90" s="210"/>
       <c r="C90" s="74" t="s">
         <v>462</v>
       </c>
@@ -18529,8 +18535,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="217"/>
-      <c r="B91" s="220"/>
+      <c r="A91" s="224"/>
+      <c r="B91" s="210"/>
       <c r="C91" s="74" t="s">
         <v>463</v>
       </c>
@@ -18539,8 +18545,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="218"/>
-      <c r="B92" s="221"/>
+      <c r="A92" s="223"/>
+      <c r="B92" s="211"/>
       <c r="C92" s="74" t="s">
         <v>464</v>
       </c>
@@ -18549,30 +18555,30 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="206" t="s">
+      <c r="A93" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B93" s="207"/>
-      <c r="C93" s="207"/>
-      <c r="D93" s="208"/>
+      <c r="B93" s="213"/>
+      <c r="C93" s="213"/>
+      <c r="D93" s="214"/>
     </row>
     <row r="94" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="209" t="s">
+      <c r="A94" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B94" s="210"/>
-      <c r="C94" s="210"/>
-      <c r="D94" s="211"/>
+      <c r="B94" s="216"/>
+      <c r="C94" s="216"/>
+      <c r="D94" s="217"/>
     </row>
     <row r="95" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="212" t="s">
+      <c r="A95" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B95" s="213"/>
-      <c r="C95" s="214" t="s">
+      <c r="B95" s="219"/>
+      <c r="C95" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D95" s="215"/>
+      <c r="D95" s="221"/>
     </row>
     <row r="96" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="70" t="s">
@@ -18589,10 +18595,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="222" t="s">
+      <c r="A97" s="206" t="s">
         <v>465</v>
       </c>
-      <c r="B97" s="219">
+      <c r="B97" s="209">
         <v>8.2650000000000006</v>
       </c>
       <c r="C97" s="74" t="s">
@@ -18603,8 +18609,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="223"/>
-      <c r="B98" s="220"/>
+      <c r="A98" s="207"/>
+      <c r="B98" s="210"/>
       <c r="C98" s="74" t="s">
         <v>467</v>
       </c>
@@ -18613,8 +18619,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="223"/>
-      <c r="B99" s="220"/>
+      <c r="A99" s="207"/>
+      <c r="B99" s="210"/>
       <c r="C99" s="74" t="s">
         <v>468</v>
       </c>
@@ -18623,8 +18629,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="223"/>
-      <c r="B100" s="220"/>
+      <c r="A100" s="207"/>
+      <c r="B100" s="210"/>
       <c r="C100" s="74" t="s">
         <v>469</v>
       </c>
@@ -18633,8 +18639,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="223"/>
-      <c r="B101" s="220"/>
+      <c r="A101" s="207"/>
+      <c r="B101" s="210"/>
       <c r="C101" s="74" t="s">
         <v>470</v>
       </c>
@@ -18643,8 +18649,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="224"/>
-      <c r="B102" s="221"/>
+      <c r="A102" s="208"/>
+      <c r="B102" s="211"/>
       <c r="C102" s="74" t="s">
         <v>471</v>
       </c>
@@ -18653,10 +18659,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="222" t="s">
+      <c r="A103" s="206" t="s">
         <v>472</v>
       </c>
-      <c r="B103" s="219">
+      <c r="B103" s="209">
         <v>7.282</v>
       </c>
       <c r="C103" s="74" t="s">
@@ -18667,8 +18673,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="223"/>
-      <c r="B104" s="220"/>
+      <c r="A104" s="207"/>
+      <c r="B104" s="210"/>
       <c r="C104" s="74" t="s">
         <v>474</v>
       </c>
@@ -18677,8 +18683,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="223"/>
-      <c r="B105" s="220"/>
+      <c r="A105" s="207"/>
+      <c r="B105" s="210"/>
       <c r="C105" s="74" t="s">
         <v>475</v>
       </c>
@@ -18687,8 +18693,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="223"/>
-      <c r="B106" s="220"/>
+      <c r="A106" s="207"/>
+      <c r="B106" s="210"/>
       <c r="C106" s="74" t="s">
         <v>476</v>
       </c>
@@ -18697,8 +18703,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="223"/>
-      <c r="B107" s="220"/>
+      <c r="A107" s="207"/>
+      <c r="B107" s="210"/>
       <c r="C107" s="74" t="s">
         <v>477</v>
       </c>
@@ -18707,8 +18713,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="224"/>
-      <c r="B108" s="221"/>
+      <c r="A108" s="208"/>
+      <c r="B108" s="211"/>
       <c r="C108" s="74" t="s">
         <v>478</v>
       </c>
@@ -18717,10 +18723,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="222" t="s">
+      <c r="A109" s="206" t="s">
         <v>479</v>
       </c>
-      <c r="B109" s="219">
+      <c r="B109" s="209">
         <v>8.0830000000000002</v>
       </c>
       <c r="C109" s="74" t="s">
@@ -18731,8 +18737,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="223"/>
-      <c r="B110" s="220"/>
+      <c r="A110" s="207"/>
+      <c r="B110" s="210"/>
       <c r="C110" s="74" t="s">
         <v>481</v>
       </c>
@@ -18741,8 +18747,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="223"/>
-      <c r="B111" s="220"/>
+      <c r="A111" s="207"/>
+      <c r="B111" s="210"/>
       <c r="C111" s="74" t="s">
         <v>482</v>
       </c>
@@ -18751,8 +18757,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="223"/>
-      <c r="B112" s="220"/>
+      <c r="A112" s="207"/>
+      <c r="B112" s="210"/>
       <c r="C112" s="74" t="s">
         <v>483</v>
       </c>
@@ -18761,8 +18767,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="223"/>
-      <c r="B113" s="220"/>
+      <c r="A113" s="207"/>
+      <c r="B113" s="210"/>
       <c r="C113" s="74" t="s">
         <v>484</v>
       </c>
@@ -18771,8 +18777,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="224"/>
-      <c r="B114" s="221"/>
+      <c r="A114" s="208"/>
+      <c r="B114" s="211"/>
       <c r="C114" s="74" t="s">
         <v>485</v>
       </c>
@@ -18781,10 +18787,10 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="222" t="s">
+      <c r="A115" s="206" t="s">
         <v>486</v>
       </c>
-      <c r="B115" s="219">
+      <c r="B115" s="209">
         <v>8.11</v>
       </c>
       <c r="C115" s="74" t="s">
@@ -18795,8 +18801,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="223"/>
-      <c r="B116" s="220"/>
+      <c r="A116" s="207"/>
+      <c r="B116" s="210"/>
       <c r="C116" s="74" t="s">
         <v>488</v>
       </c>
@@ -18805,8 +18811,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="223"/>
-      <c r="B117" s="220"/>
+      <c r="A117" s="207"/>
+      <c r="B117" s="210"/>
       <c r="C117" s="74" t="s">
         <v>489</v>
       </c>
@@ -18815,8 +18821,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="223"/>
-      <c r="B118" s="220"/>
+      <c r="A118" s="207"/>
+      <c r="B118" s="210"/>
       <c r="C118" s="74" t="s">
         <v>490</v>
       </c>
@@ -18825,8 +18831,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="223"/>
-      <c r="B119" s="220"/>
+      <c r="A119" s="207"/>
+      <c r="B119" s="210"/>
       <c r="C119" s="74" t="s">
         <v>491</v>
       </c>
@@ -18835,8 +18841,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="224"/>
-      <c r="B120" s="221"/>
+      <c r="A120" s="208"/>
+      <c r="B120" s="211"/>
       <c r="C120" s="74" t="s">
         <v>492</v>
       </c>
@@ -18845,10 +18851,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="222" t="s">
+      <c r="A121" s="206" t="s">
         <v>493</v>
       </c>
-      <c r="B121" s="219">
+      <c r="B121" s="209">
         <v>8.8279999999999994</v>
       </c>
       <c r="C121" s="74" t="s">
@@ -18859,8 +18865,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="223"/>
-      <c r="B122" s="220"/>
+      <c r="A122" s="207"/>
+      <c r="B122" s="210"/>
       <c r="C122" s="74" t="s">
         <v>495</v>
       </c>
@@ -18869,8 +18875,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="223"/>
-      <c r="B123" s="220"/>
+      <c r="A123" s="207"/>
+      <c r="B123" s="210"/>
       <c r="C123" s="74" t="s">
         <v>496</v>
       </c>
@@ -18879,8 +18885,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="224"/>
-      <c r="B124" s="221"/>
+      <c r="A124" s="208"/>
+      <c r="B124" s="211"/>
       <c r="C124" s="74" t="s">
         <v>497</v>
       </c>
@@ -18889,10 +18895,10 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="216" t="s">
+      <c r="A125" s="222" t="s">
         <v>498</v>
       </c>
-      <c r="B125" s="219">
+      <c r="B125" s="209">
         <v>8.6389999999999993</v>
       </c>
       <c r="C125" s="74" t="s">
@@ -18903,8 +18909,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="218"/>
-      <c r="B126" s="221"/>
+      <c r="A126" s="223"/>
+      <c r="B126" s="211"/>
       <c r="C126" s="74" t="s">
         <v>500</v>
       </c>
@@ -18913,10 +18919,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="222" t="s">
+      <c r="A127" s="206" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="219">
+      <c r="B127" s="209">
         <v>9.7140000000000004</v>
       </c>
       <c r="C127" s="74" t="s">
@@ -18927,8 +18933,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="223"/>
-      <c r="B128" s="220"/>
+      <c r="A128" s="207"/>
+      <c r="B128" s="210"/>
       <c r="C128" s="74" t="s">
         <v>503</v>
       </c>
@@ -18937,8 +18943,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="223"/>
-      <c r="B129" s="220"/>
+      <c r="A129" s="207"/>
+      <c r="B129" s="210"/>
       <c r="C129" s="74" t="s">
         <v>504</v>
       </c>
@@ -18947,8 +18953,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="223"/>
-      <c r="B130" s="220"/>
+      <c r="A130" s="207"/>
+      <c r="B130" s="210"/>
       <c r="C130" s="74" t="s">
         <v>505</v>
       </c>
@@ -18957,8 +18963,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="223"/>
-      <c r="B131" s="220"/>
+      <c r="A131" s="207"/>
+      <c r="B131" s="210"/>
       <c r="C131" s="74" t="s">
         <v>506</v>
       </c>
@@ -18967,8 +18973,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="224"/>
-      <c r="B132" s="221"/>
+      <c r="A132" s="208"/>
+      <c r="B132" s="211"/>
       <c r="C132" s="74" t="s">
         <v>507</v>
       </c>
@@ -18977,10 +18983,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="222" t="s">
+      <c r="A133" s="206" t="s">
         <v>508</v>
       </c>
-      <c r="B133" s="219">
+      <c r="B133" s="209">
         <v>12.66</v>
       </c>
       <c r="C133" s="74" t="s">
@@ -18991,8 +18997,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="223"/>
-      <c r="B134" s="220"/>
+      <c r="A134" s="207"/>
+      <c r="B134" s="210"/>
       <c r="C134" s="74" t="s">
         <v>510</v>
       </c>
@@ -19001,8 +19007,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="223"/>
-      <c r="B135" s="220"/>
+      <c r="A135" s="207"/>
+      <c r="B135" s="210"/>
       <c r="C135" s="74" t="s">
         <v>511</v>
       </c>
@@ -19011,8 +19017,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="223"/>
-      <c r="B136" s="220"/>
+      <c r="A136" s="207"/>
+      <c r="B136" s="210"/>
       <c r="C136" s="74" t="s">
         <v>512</v>
       </c>
@@ -19021,8 +19027,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="223"/>
-      <c r="B137" s="220"/>
+      <c r="A137" s="207"/>
+      <c r="B137" s="210"/>
       <c r="C137" s="74" t="s">
         <v>513</v>
       </c>
@@ -19031,8 +19037,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="224"/>
-      <c r="B138" s="221"/>
+      <c r="A138" s="208"/>
+      <c r="B138" s="211"/>
       <c r="C138" s="74" t="s">
         <v>514</v>
       </c>
@@ -19041,30 +19047,30 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="206" t="s">
+      <c r="A139" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B139" s="207"/>
-      <c r="C139" s="207"/>
-      <c r="D139" s="208"/>
+      <c r="B139" s="213"/>
+      <c r="C139" s="213"/>
+      <c r="D139" s="214"/>
     </row>
     <row r="140" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="209" t="s">
+      <c r="A140" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B140" s="210"/>
-      <c r="C140" s="210"/>
-      <c r="D140" s="211"/>
+      <c r="B140" s="216"/>
+      <c r="C140" s="216"/>
+      <c r="D140" s="217"/>
     </row>
     <row r="141" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="212" t="s">
+      <c r="A141" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B141" s="213"/>
-      <c r="C141" s="214" t="s">
+      <c r="B141" s="219"/>
+      <c r="C141" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D141" s="215"/>
+      <c r="D141" s="221"/>
     </row>
     <row r="142" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="70" t="s">
@@ -19081,10 +19087,10 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="222" t="s">
+      <c r="A143" s="206" t="s">
         <v>515</v>
       </c>
-      <c r="B143" s="219">
+      <c r="B143" s="209">
         <v>11.79</v>
       </c>
       <c r="C143" s="74" t="s">
@@ -19095,8 +19101,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="223"/>
-      <c r="B144" s="220"/>
+      <c r="A144" s="207"/>
+      <c r="B144" s="210"/>
       <c r="C144" s="74" t="s">
         <v>517</v>
       </c>
@@ -19105,8 +19111,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="223"/>
-      <c r="B145" s="220"/>
+      <c r="A145" s="207"/>
+      <c r="B145" s="210"/>
       <c r="C145" s="74" t="s">
         <v>518</v>
       </c>
@@ -19115,8 +19121,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="223"/>
-      <c r="B146" s="220"/>
+      <c r="A146" s="207"/>
+      <c r="B146" s="210"/>
       <c r="C146" s="74" t="s">
         <v>519</v>
       </c>
@@ -19125,8 +19131,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="223"/>
-      <c r="B147" s="220"/>
+      <c r="A147" s="207"/>
+      <c r="B147" s="210"/>
       <c r="C147" s="74" t="s">
         <v>520</v>
       </c>
@@ -19135,8 +19141,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="224"/>
-      <c r="B148" s="221"/>
+      <c r="A148" s="208"/>
+      <c r="B148" s="211"/>
       <c r="C148" s="74" t="s">
         <v>521</v>
       </c>
@@ -19145,10 +19151,10 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="222" t="s">
+      <c r="A149" s="206" t="s">
         <v>522</v>
       </c>
-      <c r="B149" s="219">
+      <c r="B149" s="209">
         <v>10.919</v>
       </c>
       <c r="C149" s="74" t="s">
@@ -19159,8 +19165,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="223"/>
-      <c r="B150" s="220"/>
+      <c r="A150" s="207"/>
+      <c r="B150" s="210"/>
       <c r="C150" s="74" t="s">
         <v>524</v>
       </c>
@@ -19169,8 +19175,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="223"/>
-      <c r="B151" s="220"/>
+      <c r="A151" s="207"/>
+      <c r="B151" s="210"/>
       <c r="C151" s="74" t="s">
         <v>525</v>
       </c>
@@ -19179,8 +19185,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="223"/>
-      <c r="B152" s="220"/>
+      <c r="A152" s="207"/>
+      <c r="B152" s="210"/>
       <c r="C152" s="74" t="s">
         <v>526</v>
       </c>
@@ -19189,8 +19195,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="223"/>
-      <c r="B153" s="220"/>
+      <c r="A153" s="207"/>
+      <c r="B153" s="210"/>
       <c r="C153" s="74" t="s">
         <v>527</v>
       </c>
@@ -19199,8 +19205,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="224"/>
-      <c r="B154" s="221"/>
+      <c r="A154" s="208"/>
+      <c r="B154" s="211"/>
       <c r="C154" s="74" t="s">
         <v>528</v>
       </c>
@@ -19209,10 +19215,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="222" t="s">
+      <c r="A155" s="206" t="s">
         <v>529</v>
       </c>
-      <c r="B155" s="219">
+      <c r="B155" s="209">
         <v>10.215</v>
       </c>
       <c r="C155" s="74" t="s">
@@ -19223,8 +19229,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="223"/>
-      <c r="B156" s="220"/>
+      <c r="A156" s="207"/>
+      <c r="B156" s="210"/>
       <c r="C156" s="74" t="s">
         <v>531</v>
       </c>
@@ -19233,8 +19239,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="223"/>
-      <c r="B157" s="220"/>
+      <c r="A157" s="207"/>
+      <c r="B157" s="210"/>
       <c r="C157" s="74" t="s">
         <v>532</v>
       </c>
@@ -19243,8 +19249,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="223"/>
-      <c r="B158" s="220"/>
+      <c r="A158" s="207"/>
+      <c r="B158" s="210"/>
       <c r="C158" s="74" t="s">
         <v>533</v>
       </c>
@@ -19253,8 +19259,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="223"/>
-      <c r="B159" s="220"/>
+      <c r="A159" s="207"/>
+      <c r="B159" s="210"/>
       <c r="C159" s="74" t="s">
         <v>534</v>
       </c>
@@ -19263,8 +19269,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="224"/>
-      <c r="B160" s="221"/>
+      <c r="A160" s="208"/>
+      <c r="B160" s="211"/>
       <c r="C160" s="74" t="s">
         <v>535</v>
       </c>
@@ -19273,10 +19279,10 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="222" t="s">
+      <c r="A161" s="206" t="s">
         <v>536</v>
       </c>
-      <c r="B161" s="219">
+      <c r="B161" s="209">
         <v>11.672000000000001</v>
       </c>
       <c r="C161" s="74" t="s">
@@ -19287,8 +19293,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="223"/>
-      <c r="B162" s="220"/>
+      <c r="A162" s="207"/>
+      <c r="B162" s="210"/>
       <c r="C162" s="74" t="s">
         <v>538</v>
       </c>
@@ -19297,8 +19303,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="223"/>
-      <c r="B163" s="220"/>
+      <c r="A163" s="207"/>
+      <c r="B163" s="210"/>
       <c r="C163" s="74" t="s">
         <v>539</v>
       </c>
@@ -19307,8 +19313,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="223"/>
-      <c r="B164" s="220"/>
+      <c r="A164" s="207"/>
+      <c r="B164" s="210"/>
       <c r="C164" s="74" t="s">
         <v>540</v>
       </c>
@@ -19317,8 +19323,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="223"/>
-      <c r="B165" s="220"/>
+      <c r="A165" s="207"/>
+      <c r="B165" s="210"/>
       <c r="C165" s="74" t="s">
         <v>541</v>
       </c>
@@ -19327,8 +19333,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="224"/>
-      <c r="B166" s="221"/>
+      <c r="A166" s="208"/>
+      <c r="B166" s="211"/>
       <c r="C166" s="74" t="s">
         <v>542</v>
       </c>
@@ -19337,10 +19343,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="222" t="s">
+      <c r="A167" s="206" t="s">
         <v>543</v>
       </c>
-      <c r="B167" s="219">
+      <c r="B167" s="209">
         <v>9.6929999999999996</v>
       </c>
       <c r="C167" s="74" t="s">
@@ -19351,8 +19357,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="223"/>
-      <c r="B168" s="220"/>
+      <c r="A168" s="207"/>
+      <c r="B168" s="210"/>
       <c r="C168" s="74" t="s">
         <v>545</v>
       </c>
@@ -19361,8 +19367,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="223"/>
-      <c r="B169" s="220"/>
+      <c r="A169" s="207"/>
+      <c r="B169" s="210"/>
       <c r="C169" s="74" t="s">
         <v>546</v>
       </c>
@@ -19371,8 +19377,8 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="223"/>
-      <c r="B170" s="220"/>
+      <c r="A170" s="207"/>
+      <c r="B170" s="210"/>
       <c r="C170" s="74" t="s">
         <v>547</v>
       </c>
@@ -19381,8 +19387,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="223"/>
-      <c r="B171" s="220"/>
+      <c r="A171" s="207"/>
+      <c r="B171" s="210"/>
       <c r="C171" s="74" t="s">
         <v>548</v>
       </c>
@@ -19391,8 +19397,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="224"/>
-      <c r="B172" s="221"/>
+      <c r="A172" s="208"/>
+      <c r="B172" s="211"/>
       <c r="C172" s="74" t="s">
         <v>549</v>
       </c>
@@ -19401,10 +19407,10 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="222" t="s">
+      <c r="A173" s="206" t="s">
         <v>550</v>
       </c>
-      <c r="B173" s="219">
+      <c r="B173" s="209">
         <v>10.718</v>
       </c>
       <c r="C173" s="74" t="s">
@@ -19415,8 +19421,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="223"/>
-      <c r="B174" s="220"/>
+      <c r="A174" s="207"/>
+      <c r="B174" s="210"/>
       <c r="C174" s="74" t="s">
         <v>552</v>
       </c>
@@ -19425,8 +19431,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="223"/>
-      <c r="B175" s="220"/>
+      <c r="A175" s="207"/>
+      <c r="B175" s="210"/>
       <c r="C175" s="74" t="s">
         <v>553</v>
       </c>
@@ -19435,8 +19441,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="223"/>
-      <c r="B176" s="220"/>
+      <c r="A176" s="207"/>
+      <c r="B176" s="210"/>
       <c r="C176" s="74" t="s">
         <v>554</v>
       </c>
@@ -19445,8 +19451,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="223"/>
-      <c r="B177" s="220"/>
+      <c r="A177" s="207"/>
+      <c r="B177" s="210"/>
       <c r="C177" s="74" t="s">
         <v>555</v>
       </c>
@@ -19455,8 +19461,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="224"/>
-      <c r="B178" s="221"/>
+      <c r="A178" s="208"/>
+      <c r="B178" s="211"/>
       <c r="C178" s="74" t="s">
         <v>556</v>
       </c>
@@ -19465,30 +19471,30 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="206" t="s">
+      <c r="A179" s="212" t="s">
         <v>359</v>
       </c>
-      <c r="B179" s="207"/>
-      <c r="C179" s="207"/>
-      <c r="D179" s="208"/>
+      <c r="B179" s="213"/>
+      <c r="C179" s="213"/>
+      <c r="D179" s="214"/>
     </row>
     <row r="180" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="209" t="s">
+      <c r="A180" s="215" t="s">
         <v>360</v>
       </c>
-      <c r="B180" s="210"/>
-      <c r="C180" s="210"/>
-      <c r="D180" s="211"/>
+      <c r="B180" s="216"/>
+      <c r="C180" s="216"/>
+      <c r="D180" s="217"/>
     </row>
     <row r="181" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="212" t="s">
+      <c r="A181" s="218" t="s">
         <v>361</v>
       </c>
-      <c r="B181" s="213"/>
-      <c r="C181" s="214" t="s">
+      <c r="B181" s="219"/>
+      <c r="C181" s="220" t="s">
         <v>362</v>
       </c>
-      <c r="D181" s="215"/>
+      <c r="D181" s="221"/>
     </row>
     <row r="182" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="70" t="s">
@@ -19505,10 +19511,10 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="222" t="s">
+      <c r="A183" s="206" t="s">
         <v>557</v>
       </c>
-      <c r="B183" s="219">
+      <c r="B183" s="209">
         <v>7.2130000000000001</v>
       </c>
       <c r="C183" s="74" t="s">
@@ -19519,8 +19525,8 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="223"/>
-      <c r="B184" s="220"/>
+      <c r="A184" s="207"/>
+      <c r="B184" s="210"/>
       <c r="C184" s="74" t="s">
         <v>559</v>
       </c>
@@ -19529,8 +19535,8 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="223"/>
-      <c r="B185" s="220"/>
+      <c r="A185" s="207"/>
+      <c r="B185" s="210"/>
       <c r="C185" s="74" t="s">
         <v>560</v>
       </c>
@@ -19539,8 +19545,8 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="223"/>
-      <c r="B186" s="220"/>
+      <c r="A186" s="207"/>
+      <c r="B186" s="210"/>
       <c r="C186" s="74" t="s">
         <v>561</v>
       </c>
@@ -19549,8 +19555,8 @@
       </c>
     </row>
     <row r="187" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="223"/>
-      <c r="B187" s="220"/>
+      <c r="A187" s="207"/>
+      <c r="B187" s="210"/>
       <c r="C187" s="74" t="s">
         <v>562</v>
       </c>
@@ -19559,8 +19565,8 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="224"/>
-      <c r="B188" s="221"/>
+      <c r="A188" s="208"/>
+      <c r="B188" s="211"/>
       <c r="C188" s="74" t="s">
         <v>563</v>
       </c>
@@ -19569,10 +19575,10 @@
       </c>
     </row>
     <row r="189" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="222" t="s">
+      <c r="A189" s="206" t="s">
         <v>564</v>
       </c>
-      <c r="B189" s="219">
+      <c r="B189" s="209">
         <v>7.093</v>
       </c>
       <c r="C189" s="74" t="s">
@@ -19583,8 +19589,8 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="223"/>
-      <c r="B190" s="220"/>
+      <c r="A190" s="207"/>
+      <c r="B190" s="210"/>
       <c r="C190" s="74" t="s">
         <v>566</v>
       </c>
@@ -19593,8 +19599,8 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="223"/>
-      <c r="B191" s="220"/>
+      <c r="A191" s="207"/>
+      <c r="B191" s="210"/>
       <c r="C191" s="74" t="s">
         <v>567</v>
       </c>
@@ -19603,8 +19609,8 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="223"/>
-      <c r="B192" s="220"/>
+      <c r="A192" s="207"/>
+      <c r="B192" s="210"/>
       <c r="C192" s="74" t="s">
         <v>568</v>
       </c>
@@ -19613,8 +19619,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="223"/>
-      <c r="B193" s="220"/>
+      <c r="A193" s="207"/>
+      <c r="B193" s="210"/>
       <c r="C193" s="74" t="s">
         <v>569</v>
       </c>
@@ -19623,8 +19629,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="14.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="224"/>
-      <c r="B194" s="221"/>
+      <c r="A194" s="208"/>
+      <c r="B194" s="211"/>
       <c r="C194" s="74" t="s">
         <v>570</v>
       </c>
@@ -19634,6 +19640,78 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B133:B138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="B173:B178"/>
     <mergeCell ref="A189:A194"/>
     <mergeCell ref="B189:B194"/>
     <mergeCell ref="A179:D179"/>
@@ -19642,78 +19720,6 @@
     <mergeCell ref="C181:D181"/>
     <mergeCell ref="A183:A188"/>
     <mergeCell ref="B183:B188"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="A167:A172"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="B173:B178"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="B149:B154"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="B133:B138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B5:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
